--- a/Diagramok/Kozosseg-gantt-diagram.xlsx
+++ b/Diagramok/Kozosseg-gantt-diagram.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dzsik\Desktop\ujrf\Diagramok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brkri\Desktop\git\2022_IB153I-9_C\Diagramok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12394720-D6F5-4F00-8220-E9FF44680B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="task_start" localSheetId="0">'Gantt-diagram'!$D$1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
   <si>
     <t>Közösség</t>
   </si>
@@ -267,11 +266,14 @@
   <si>
     <t>9.3.36. Feed frontend és backend összekötése</t>
   </si>
+  <si>
+    <t>9.3.37 E-mail sablon készítése, és felhasználók korlátozása backendben</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="\ yyyy/\ mmm/\ d/"/>
     <numFmt numFmtId="165" formatCode="d"/>
@@ -767,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1025,6 +1027,13 @@
     <xf numFmtId="49" fontId="23" fillId="20" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1038,7 +1047,241 @@
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1548,32 +1791,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CF1007"/>
+  <dimension ref="A1:CF1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="86.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="2.6640625" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" hidden="1" customWidth="1"/>
-    <col min="8" max="30" width="2.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="86.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="30" width="2.5703125" customWidth="1"/>
     <col min="31" max="31" width="5" customWidth="1"/>
-    <col min="32" max="84" width="2.5546875" customWidth="1"/>
+    <col min="32" max="84" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1650,7 +1893,7 @@
       </c>
       <c r="BX1" s="19"/>
     </row>
-    <row r="2" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="21" t="s">
         <v>10</v>
@@ -1659,132 +1902,132 @@
       <c r="F2" s="5"/>
       <c r="H2" s="23"/>
     </row>
-    <row r="3" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="24"/>
       <c r="C3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="108">
+      <c r="D3" s="111">
         <v>44824</v>
       </c>
-      <c r="E3" s="109"/>
+      <c r="E3" s="112"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:84" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="H4" s="105">
+      <c r="H4" s="108">
         <f>H5</f>
         <v>44823</v>
       </c>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="105">
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="108">
         <f>O5</f>
         <v>44830</v>
       </c>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="105">
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="108">
         <f>V5</f>
         <v>44837</v>
       </c>
-      <c r="W4" s="106"/>
-      <c r="X4" s="106"/>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="105">
+      <c r="W4" s="109"/>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="108">
         <f>AC5</f>
         <v>44844</v>
       </c>
-      <c r="AD4" s="106"/>
-      <c r="AE4" s="106"/>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="107"/>
-      <c r="AJ4" s="105">
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="109"/>
+      <c r="AF4" s="109"/>
+      <c r="AG4" s="109"/>
+      <c r="AH4" s="109"/>
+      <c r="AI4" s="110"/>
+      <c r="AJ4" s="108">
         <f>AJ5</f>
         <v>44851</v>
       </c>
-      <c r="AK4" s="106"/>
-      <c r="AL4" s="106"/>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="107"/>
-      <c r="AQ4" s="105">
+      <c r="AK4" s="109"/>
+      <c r="AL4" s="109"/>
+      <c r="AM4" s="109"/>
+      <c r="AN4" s="109"/>
+      <c r="AO4" s="109"/>
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="108">
         <f>AQ5</f>
         <v>44858</v>
       </c>
-      <c r="AR4" s="106"/>
-      <c r="AS4" s="106"/>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="107"/>
-      <c r="AX4" s="105">
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="109"/>
+      <c r="AT4" s="109"/>
+      <c r="AU4" s="109"/>
+      <c r="AV4" s="109"/>
+      <c r="AW4" s="110"/>
+      <c r="AX4" s="108">
         <f>AX5</f>
         <v>44865</v>
       </c>
-      <c r="AY4" s="106"/>
-      <c r="AZ4" s="106"/>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="107"/>
-      <c r="BE4" s="105">
+      <c r="AY4" s="109"/>
+      <c r="AZ4" s="109"/>
+      <c r="BA4" s="109"/>
+      <c r="BB4" s="109"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="110"/>
+      <c r="BE4" s="108">
         <f>BE5</f>
         <v>44872</v>
       </c>
-      <c r="BF4" s="106"/>
-      <c r="BG4" s="106"/>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="107"/>
-      <c r="BL4" s="105">
+      <c r="BF4" s="109"/>
+      <c r="BG4" s="109"/>
+      <c r="BH4" s="109"/>
+      <c r="BI4" s="109"/>
+      <c r="BJ4" s="109"/>
+      <c r="BK4" s="110"/>
+      <c r="BL4" s="108">
         <f>BL5</f>
         <v>44879</v>
       </c>
-      <c r="BM4" s="106"/>
-      <c r="BN4" s="106"/>
-      <c r="BO4" s="106"/>
-      <c r="BP4" s="106"/>
-      <c r="BQ4" s="106"/>
-      <c r="BR4" s="107"/>
-      <c r="BS4" s="105">
+      <c r="BM4" s="109"/>
+      <c r="BN4" s="109"/>
+      <c r="BO4" s="109"/>
+      <c r="BP4" s="109"/>
+      <c r="BQ4" s="109"/>
+      <c r="BR4" s="110"/>
+      <c r="BS4" s="108">
         <f>BS5</f>
         <v>44886</v>
       </c>
-      <c r="BT4" s="106"/>
-      <c r="BU4" s="106"/>
-      <c r="BV4" s="106"/>
-      <c r="BW4" s="106"/>
-      <c r="BX4" s="106"/>
-      <c r="BY4" s="107"/>
-      <c r="BZ4" s="105">
+      <c r="BT4" s="109"/>
+      <c r="BU4" s="109"/>
+      <c r="BV4" s="109"/>
+      <c r="BW4" s="109"/>
+      <c r="BX4" s="109"/>
+      <c r="BY4" s="110"/>
+      <c r="BZ4" s="108">
         <f>BZ5</f>
         <v>44893</v>
       </c>
-      <c r="CA4" s="106"/>
-      <c r="CB4" s="106"/>
-      <c r="CC4" s="106"/>
-      <c r="CD4" s="106"/>
-      <c r="CE4" s="106"/>
-      <c r="CF4" s="107"/>
-    </row>
-    <row r="5" spans="1:84" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="CA4" s="109"/>
+      <c r="CB4" s="109"/>
+      <c r="CC4" s="109"/>
+      <c r="CD4" s="109"/>
+      <c r="CE4" s="109"/>
+      <c r="CF4" s="110"/>
+    </row>
+    <row r="5" spans="1:84" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="26" t="s">
         <v>12</v>
@@ -2107,7 +2350,7 @@
         <v>44899</v>
       </c>
     </row>
-    <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="C6" s="33"/>
       <c r="F6" s="34"/>
@@ -2193,7 +2436,7 @@
       <c r="CE6" s="35"/>
       <c r="CF6" s="35"/>
     </row>
-    <row r="7" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="36" t="s">
         <v>16</v>
@@ -2284,7 +2527,7 @@
       <c r="CE7" s="41"/>
       <c r="CF7" s="41"/>
     </row>
-    <row r="8" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="42" t="s">
         <v>17</v>
@@ -2384,7 +2627,7 @@
       <c r="CE8" s="41"/>
       <c r="CF8" s="41"/>
     </row>
-    <row r="9" spans="1:84" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="45" t="s">
         <v>18</v>
@@ -2475,7 +2718,7 @@
       <c r="CE9" s="39"/>
       <c r="CF9" s="39"/>
     </row>
-    <row r="10" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="49" t="s">
         <v>19</v>
@@ -2574,7 +2817,7 @@
       <c r="CE10" s="41"/>
       <c r="CF10" s="41"/>
     </row>
-    <row r="11" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="49" t="s">
         <v>20</v>
@@ -2670,7 +2913,7 @@
       <c r="CE11" s="41"/>
       <c r="CF11" s="41"/>
     </row>
-    <row r="12" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="49" t="s">
         <v>21</v>
@@ -2766,7 +3009,7 @@
       <c r="CE12" s="41"/>
       <c r="CF12" s="41"/>
     </row>
-    <row r="13" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="49" t="s">
         <v>22</v>
@@ -2862,7 +3105,7 @@
       <c r="CE13" s="41"/>
       <c r="CF13" s="41"/>
     </row>
-    <row r="14" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="49" t="s">
         <v>23</v>
@@ -2958,7 +3201,7 @@
       <c r="CE14" s="41"/>
       <c r="CF14" s="41"/>
     </row>
-    <row r="15" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="49" t="s">
         <v>24</v>
@@ -3054,7 +3297,7 @@
       <c r="CE15" s="41"/>
       <c r="CF15" s="41"/>
     </row>
-    <row r="16" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="49" t="s">
         <v>25</v>
@@ -3150,7 +3393,7 @@
       <c r="CE16" s="41"/>
       <c r="CF16" s="41"/>
     </row>
-    <row r="17" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="49" t="s">
         <v>26</v>
@@ -3246,7 +3489,7 @@
       <c r="CE17" s="41"/>
       <c r="CF17" s="41"/>
     </row>
-    <row r="18" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="66" t="s">
         <v>27</v>
@@ -3337,7 +3580,7 @@
       <c r="CE18" s="69"/>
       <c r="CF18" s="69"/>
     </row>
-    <row r="19" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="70" t="s">
         <v>28</v>
@@ -3433,7 +3676,7 @@
       <c r="CE19" s="41"/>
       <c r="CF19" s="41"/>
     </row>
-    <row r="20" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="70" t="s">
         <v>29</v>
@@ -3479,11 +3722,11 @@
       <c r="AI20" s="41"/>
       <c r="AJ20" s="35"/>
       <c r="AK20" s="72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL20" s="15"/>
       <c r="AM20" s="15"/>
-      <c r="AN20" s="15"/>
+      <c r="AN20" s="35"/>
       <c r="AO20" s="41"/>
       <c r="AP20" s="41"/>
       <c r="AQ20" s="35"/>
@@ -3529,7 +3772,7 @@
       <c r="CE20" s="41"/>
       <c r="CF20" s="41"/>
     </row>
-    <row r="21" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="70" t="s">
         <v>30</v>
@@ -3625,7 +3868,7 @@
       <c r="CE21" s="41"/>
       <c r="CF21" s="41"/>
     </row>
-    <row r="22" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="70" t="s">
         <v>31</v>
@@ -3721,7 +3964,7 @@
       <c r="CE22" s="41"/>
       <c r="CF22" s="41"/>
     </row>
-    <row r="23" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="70" t="s">
         <v>32</v>
@@ -3817,7 +4060,7 @@
       <c r="CE23" s="41"/>
       <c r="CF23" s="41"/>
     </row>
-    <row r="24" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="70" t="s">
         <v>33</v>
@@ -3913,7 +4156,7 @@
       <c r="CE24" s="41"/>
       <c r="CF24" s="41"/>
     </row>
-    <row r="25" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -4014,7 +4257,7 @@
       <c r="CE25" s="41"/>
       <c r="CF25" s="41"/>
     </row>
-    <row r="26" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="70" t="s">
         <v>35</v>
@@ -4110,7 +4353,7 @@
       <c r="CE26" s="41"/>
       <c r="CF26" s="41"/>
     </row>
-    <row r="27" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="70" t="s">
         <v>36</v>
@@ -4206,7 +4449,7 @@
       <c r="CE27" s="41"/>
       <c r="CF27" s="41"/>
     </row>
-    <row r="28" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="70" t="s">
         <v>71</v>
@@ -4302,7 +4545,7 @@
       <c r="CE28" s="41"/>
       <c r="CF28" s="41"/>
     </row>
-    <row r="29" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="70" t="s">
         <v>37</v>
@@ -4398,7 +4641,7 @@
       <c r="CE29" s="41"/>
       <c r="CF29" s="41"/>
     </row>
-    <row r="30" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="70" t="s">
         <v>38</v>
@@ -4494,7 +4737,7 @@
       <c r="CE30" s="41"/>
       <c r="CF30" s="41"/>
     </row>
-    <row r="31" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="70" t="s">
         <v>39</v>
@@ -4590,7 +4833,7 @@
       <c r="CE31" s="41"/>
       <c r="CF31" s="41"/>
     </row>
-    <row r="32" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="70" t="s">
         <v>40</v>
@@ -4686,7 +4929,7 @@
       <c r="CE32" s="41"/>
       <c r="CF32" s="41"/>
     </row>
-    <row r="33" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="70" t="s">
         <v>41</v>
@@ -4744,21 +4987,21 @@
       <c r="AU33" s="35"/>
       <c r="AV33" s="41"/>
       <c r="AW33" s="41"/>
-      <c r="AX33" s="35"/>
-      <c r="AY33" s="35"/>
-      <c r="AZ33" s="35"/>
+      <c r="AX33" s="72">
+        <v>3</v>
+      </c>
+      <c r="AY33" s="15"/>
+      <c r="AZ33" s="15"/>
       <c r="BA33" s="35"/>
       <c r="BB33" s="35"/>
       <c r="BC33" s="41"/>
       <c r="BD33" s="41"/>
       <c r="BE33" s="35"/>
       <c r="BF33" s="35"/>
-      <c r="BG33" s="72">
-        <v>3</v>
-      </c>
-      <c r="BH33" s="15"/>
-      <c r="BI33" s="15"/>
-      <c r="BJ33" s="15"/>
+      <c r="BG33" s="35"/>
+      <c r="BH33" s="35"/>
+      <c r="BI33" s="35"/>
+      <c r="BJ33" s="41"/>
       <c r="BK33" s="41"/>
       <c r="BL33" s="35"/>
       <c r="BM33" s="35"/>
@@ -4782,7 +5025,7 @@
       <c r="CE33" s="41"/>
       <c r="CF33" s="41"/>
     </row>
-    <row r="34" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="70" t="s">
         <v>42</v>
@@ -4878,7 +5121,7 @@
       <c r="CE34" s="41"/>
       <c r="CF34" s="41"/>
     </row>
-    <row r="35" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="70" t="s">
         <v>43</v>
@@ -4974,7 +5217,7 @@
       <c r="CE35" s="41"/>
       <c r="CF35" s="41"/>
     </row>
-    <row r="36" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="70" t="s">
         <v>44</v>
@@ -5070,7 +5313,7 @@
       <c r="CE36" s="41"/>
       <c r="CF36" s="41"/>
     </row>
-    <row r="37" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="70" t="s">
         <v>45</v>
@@ -5166,7 +5409,7 @@
       <c r="CE37" s="41"/>
       <c r="CF37" s="41"/>
     </row>
-    <row r="38" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="70" t="s">
         <v>46</v>
@@ -5262,7 +5505,7 @@
       <c r="CE38" s="41"/>
       <c r="CF38" s="41"/>
     </row>
-    <row r="39" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="70" t="s">
         <v>47</v>
@@ -5358,7 +5601,7 @@
       <c r="CE39" s="41"/>
       <c r="CF39" s="41"/>
     </row>
-    <row r="40" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="70" t="s">
         <v>48</v>
@@ -5454,7 +5697,7 @@
       <c r="CE40" s="41"/>
       <c r="CF40" s="41"/>
     </row>
-    <row r="41" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="70" t="s">
         <v>49</v>
@@ -5550,7 +5793,7 @@
       <c r="CE41" s="41"/>
       <c r="CF41" s="41"/>
     </row>
-    <row r="42" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="70" t="s">
         <v>50</v>
@@ -5646,7 +5889,7 @@
       <c r="CE42" s="41"/>
       <c r="CF42" s="41"/>
     </row>
-    <row r="43" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="70" t="s">
         <v>51</v>
@@ -5742,7 +5985,7 @@
       <c r="CE43" s="41"/>
       <c r="CF43" s="41"/>
     </row>
-    <row r="44" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="70" t="s">
         <v>52</v>
@@ -5838,7 +6081,7 @@
       <c r="CE44" s="41"/>
       <c r="CF44" s="41"/>
     </row>
-    <row r="45" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="70" t="s">
         <v>53</v>
@@ -5934,7 +6177,7 @@
       <c r="CE45" s="41"/>
       <c r="CF45" s="41"/>
     </row>
-    <row r="46" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="70" t="s">
         <v>54</v>
@@ -6030,7 +6273,7 @@
       <c r="CE46" s="41"/>
       <c r="CF46" s="41"/>
     </row>
-    <row r="47" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="70" t="s">
         <v>55</v>
@@ -6093,7 +6336,7 @@
       </c>
       <c r="AY47" s="15"/>
       <c r="AZ47" s="15"/>
-      <c r="BA47" s="15"/>
+      <c r="BA47" s="105"/>
       <c r="BB47" s="35"/>
       <c r="BC47" s="41"/>
       <c r="BD47" s="41"/>
@@ -6126,7 +6369,7 @@
       <c r="CE47" s="41"/>
       <c r="CF47" s="41"/>
     </row>
-    <row r="48" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="70" t="s">
         <v>56</v>
@@ -6222,7 +6465,7 @@
       <c r="CE48" s="41"/>
       <c r="CF48" s="41"/>
     </row>
-    <row r="49" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="70" t="s">
         <v>57</v>
@@ -6284,8 +6527,8 @@
         <v>2</v>
       </c>
       <c r="AY49" s="18"/>
-      <c r="AZ49" s="18"/>
-      <c r="BA49" s="18"/>
+      <c r="AZ49" s="35"/>
+      <c r="BA49" s="35"/>
       <c r="BB49" s="35"/>
       <c r="BC49" s="41"/>
       <c r="BD49" s="41"/>
@@ -6318,7 +6561,7 @@
       <c r="CE49" s="41"/>
       <c r="CF49" s="41"/>
     </row>
-    <row r="50" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="70" t="s">
         <v>58</v>
@@ -6414,7 +6657,7 @@
       <c r="CE50" s="41"/>
       <c r="CF50" s="41"/>
     </row>
-    <row r="51" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="70" t="s">
         <v>59</v>
@@ -6510,7 +6753,7 @@
       <c r="CE51" s="41"/>
       <c r="CF51" s="41"/>
     </row>
-    <row r="52" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="70" t="s">
         <v>60</v>
@@ -6607,7 +6850,7 @@
       <c r="CE52" s="41"/>
       <c r="CF52" s="41"/>
     </row>
-    <row r="53" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="104" t="s">
         <v>72</v>
@@ -6703,7 +6946,7 @@
       <c r="CE53" s="41"/>
       <c r="CF53" s="41"/>
     </row>
-    <row r="54" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="99" t="s">
         <v>73</v>
@@ -6799,212 +7042,212 @@
       <c r="CE54" s="41"/>
       <c r="CF54" s="41"/>
     </row>
-    <row r="55" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="80" t="s">
+      <c r="B55" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="102">
+        <v>44874</v>
+      </c>
+      <c r="E55" s="102">
+        <v>44876</v>
+      </c>
+      <c r="F55" s="101"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="41"/>
+      <c r="U55" s="41"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="41"/>
+      <c r="AB55" s="41"/>
+      <c r="AC55" s="35"/>
+      <c r="AD55" s="35"/>
+      <c r="AE55" s="35"/>
+      <c r="AF55" s="35"/>
+      <c r="AG55" s="35"/>
+      <c r="AH55" s="41"/>
+      <c r="AI55" s="41"/>
+      <c r="AJ55" s="35"/>
+      <c r="AK55" s="35"/>
+      <c r="AL55" s="35"/>
+      <c r="AM55" s="35"/>
+      <c r="AN55" s="35"/>
+      <c r="AO55" s="41"/>
+      <c r="AP55" s="41"/>
+      <c r="AQ55" s="35"/>
+      <c r="AR55" s="35"/>
+      <c r="AS55" s="35"/>
+      <c r="AT55" s="35"/>
+      <c r="AU55" s="35"/>
+      <c r="AV55" s="41"/>
+      <c r="AW55" s="41"/>
+      <c r="AX55" s="35"/>
+      <c r="AY55" s="35"/>
+      <c r="AZ55" s="35"/>
+      <c r="BA55" s="35"/>
+      <c r="BB55" s="35"/>
+      <c r="BC55" s="41"/>
+      <c r="BD55" s="41"/>
+      <c r="BE55" s="35"/>
+      <c r="BF55" s="35"/>
+      <c r="BG55" s="72">
+        <v>2</v>
+      </c>
+      <c r="BH55" s="15"/>
+      <c r="BI55" s="35"/>
+      <c r="BJ55" s="107"/>
+      <c r="BK55" s="107"/>
+      <c r="BL55" s="106"/>
+      <c r="BM55" s="35"/>
+      <c r="BN55" s="35"/>
+      <c r="BO55" s="35"/>
+      <c r="BP55" s="35"/>
+      <c r="BQ55" s="41"/>
+      <c r="BR55" s="41"/>
+      <c r="BS55" s="35"/>
+      <c r="BT55" s="35"/>
+      <c r="BU55" s="35"/>
+      <c r="BV55" s="35"/>
+      <c r="BW55" s="35"/>
+      <c r="BX55" s="41"/>
+      <c r="BY55" s="41"/>
+      <c r="BZ55" s="35"/>
+      <c r="CA55" s="35"/>
+      <c r="CB55" s="35"/>
+      <c r="CC55" s="35"/>
+      <c r="CD55" s="35"/>
+      <c r="CE55" s="41"/>
+      <c r="CF55" s="41"/>
+    </row>
+    <row r="56" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="81"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39" t="str">
+      <c r="C56" s="81"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39" t="str">
         <f>IF(OR(ISBLANK('Gantt-diagram'!task_start),ISBLANK('Gantt-diagram'!task_end)),"",'Gantt-diagram'!task_end-'Gantt-diagram'!task_start+1)</f>
         <v/>
       </c>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="39"/>
-      <c r="Z55" s="39"/>
-      <c r="AA55" s="39"/>
-      <c r="AB55" s="39"/>
-      <c r="AC55" s="39"/>
-      <c r="AD55" s="39"/>
-      <c r="AE55" s="39"/>
-      <c r="AF55" s="39"/>
-      <c r="AG55" s="39"/>
-      <c r="AH55" s="39"/>
-      <c r="AI55" s="39"/>
-      <c r="AJ55" s="39"/>
-      <c r="AK55" s="39"/>
-      <c r="AL55" s="39"/>
-      <c r="AM55" s="39"/>
-      <c r="AN55" s="39"/>
-      <c r="AO55" s="39"/>
-      <c r="AP55" s="39"/>
-      <c r="AQ55" s="39"/>
-      <c r="AR55" s="39"/>
-      <c r="AS55" s="39"/>
-      <c r="AT55" s="39"/>
-      <c r="AU55" s="39"/>
-      <c r="AV55" s="39"/>
-      <c r="AW55" s="39"/>
-      <c r="AX55" s="39"/>
-      <c r="AY55" s="39"/>
-      <c r="AZ55" s="39"/>
-      <c r="BA55" s="39"/>
-      <c r="BB55" s="39"/>
-      <c r="BC55" s="39"/>
-      <c r="BD55" s="39"/>
-      <c r="BE55" s="39"/>
-      <c r="BF55" s="39"/>
-      <c r="BG55" s="39"/>
-      <c r="BH55" s="39"/>
-      <c r="BI55" s="39"/>
-      <c r="BJ55" s="39"/>
-      <c r="BK55" s="39"/>
-      <c r="BL55" s="39"/>
-      <c r="BM55" s="39"/>
-      <c r="BN55" s="39"/>
-      <c r="BO55" s="39"/>
-      <c r="BP55" s="39"/>
-      <c r="BQ55" s="39"/>
-      <c r="BR55" s="39"/>
-      <c r="BS55" s="39"/>
-      <c r="BT55" s="39"/>
-      <c r="BU55" s="39"/>
-      <c r="BV55" s="39"/>
-      <c r="BW55" s="39"/>
-      <c r="BX55" s="39"/>
-      <c r="BY55" s="39"/>
-      <c r="BZ55" s="39"/>
-      <c r="CA55" s="39"/>
-      <c r="CB55" s="39"/>
-      <c r="CC55" s="39"/>
-      <c r="CD55" s="39"/>
-      <c r="CE55" s="39"/>
-      <c r="CF55" s="39"/>
-    </row>
-    <row r="56" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="83" t="s">
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="39"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="39"/>
+      <c r="W56" s="39"/>
+      <c r="X56" s="39"/>
+      <c r="Y56" s="39"/>
+      <c r="Z56" s="39"/>
+      <c r="AA56" s="39"/>
+      <c r="AB56" s="39"/>
+      <c r="AC56" s="39"/>
+      <c r="AD56" s="39"/>
+      <c r="AE56" s="39"/>
+      <c r="AF56" s="39"/>
+      <c r="AG56" s="39"/>
+      <c r="AH56" s="39"/>
+      <c r="AI56" s="39"/>
+      <c r="AJ56" s="39"/>
+      <c r="AK56" s="39"/>
+      <c r="AL56" s="39"/>
+      <c r="AM56" s="39"/>
+      <c r="AN56" s="39"/>
+      <c r="AO56" s="39"/>
+      <c r="AP56" s="39"/>
+      <c r="AQ56" s="39"/>
+      <c r="AR56" s="39"/>
+      <c r="AS56" s="39"/>
+      <c r="AT56" s="39"/>
+      <c r="AU56" s="39"/>
+      <c r="AV56" s="39"/>
+      <c r="AW56" s="39"/>
+      <c r="AX56" s="39"/>
+      <c r="AY56" s="39"/>
+      <c r="AZ56" s="39"/>
+      <c r="BA56" s="39"/>
+      <c r="BB56" s="39"/>
+      <c r="BC56" s="39"/>
+      <c r="BD56" s="39"/>
+      <c r="BE56" s="39"/>
+      <c r="BF56" s="39"/>
+      <c r="BG56" s="39"/>
+      <c r="BH56" s="39"/>
+      <c r="BI56" s="39"/>
+      <c r="BJ56" s="39"/>
+      <c r="BK56" s="39"/>
+      <c r="BL56" s="39"/>
+      <c r="BM56" s="39"/>
+      <c r="BN56" s="39"/>
+      <c r="BO56" s="39"/>
+      <c r="BP56" s="39"/>
+      <c r="BQ56" s="39"/>
+      <c r="BR56" s="39"/>
+      <c r="BS56" s="39"/>
+      <c r="BT56" s="39"/>
+      <c r="BU56" s="39"/>
+      <c r="BV56" s="39"/>
+      <c r="BW56" s="39"/>
+      <c r="BX56" s="39"/>
+      <c r="BY56" s="39"/>
+      <c r="BZ56" s="39"/>
+      <c r="CA56" s="39"/>
+      <c r="CB56" s="39"/>
+      <c r="CC56" s="39"/>
+      <c r="CD56" s="39"/>
+      <c r="CE56" s="39"/>
+      <c r="CF56" s="39"/>
+    </row>
+    <row r="57" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="84" t="s">
+      <c r="C57" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="85">
+      <c r="D57" s="85">
         <v>44883</v>
       </c>
-      <c r="E56" s="85">
+      <c r="E57" s="85">
         <v>44886</v>
       </c>
-      <c r="F56" s="39"/>
-      <c r="G56" s="40" t="str">
+      <c r="F57" s="39"/>
+      <c r="G57" s="40" t="str">
         <f>IF(OR(ISBLANK('Gantt-diagram'!task_start),ISBLANK('Gantt-diagram'!task_end)),"",'Gantt-diagram'!task_end-'Gantt-diagram'!task_start+1)</f>
         <v/>
       </c>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="41"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
-      <c r="S56" s="35"/>
-      <c r="T56" s="41"/>
-      <c r="U56" s="41"/>
-      <c r="V56" s="35"/>
-      <c r="W56" s="35"/>
-      <c r="X56" s="35"/>
-      <c r="Y56" s="35"/>
-      <c r="Z56" s="35"/>
-      <c r="AA56" s="41"/>
-      <c r="AB56" s="41"/>
-      <c r="AC56" s="35"/>
-      <c r="AD56" s="35"/>
-      <c r="AE56" s="35"/>
-      <c r="AF56" s="35"/>
-      <c r="AG56" s="35"/>
-      <c r="AH56" s="41"/>
-      <c r="AI56" s="41"/>
-      <c r="AJ56" s="35"/>
-      <c r="AK56" s="35"/>
-      <c r="AL56" s="35"/>
-      <c r="AM56" s="35"/>
-      <c r="AN56" s="35"/>
-      <c r="AO56" s="41"/>
-      <c r="AP56" s="41"/>
-      <c r="AQ56" s="35"/>
-      <c r="AR56" s="35"/>
-      <c r="AS56" s="35"/>
-      <c r="AT56" s="35"/>
-      <c r="AU56" s="35"/>
-      <c r="AV56" s="41"/>
-      <c r="AW56" s="41"/>
-      <c r="AX56" s="35"/>
-      <c r="AY56" s="35"/>
-      <c r="AZ56" s="35"/>
-      <c r="BA56" s="35"/>
-      <c r="BB56" s="35"/>
-      <c r="BC56" s="41"/>
-      <c r="BD56" s="41"/>
-      <c r="BE56" s="35"/>
-      <c r="BF56" s="35"/>
-      <c r="BG56" s="35"/>
-      <c r="BH56" s="35"/>
-      <c r="BI56" s="35"/>
-      <c r="BJ56" s="41"/>
-      <c r="BK56" s="41"/>
-      <c r="BL56" s="35"/>
-      <c r="BM56" s="35"/>
-      <c r="BN56" s="35"/>
-      <c r="BO56" s="35"/>
-      <c r="BP56" s="10">
-        <v>3</v>
-      </c>
-      <c r="BQ56" s="10"/>
-      <c r="BR56" s="10"/>
-      <c r="BS56" s="10"/>
-      <c r="BT56" s="35"/>
-      <c r="BU56" s="35"/>
-      <c r="BV56" s="35"/>
-      <c r="BW56" s="35"/>
-      <c r="BX56" s="41"/>
-      <c r="BY56" s="41"/>
-      <c r="BZ56" s="35"/>
-      <c r="CA56" s="35"/>
-      <c r="CB56" s="35"/>
-      <c r="CC56" s="35"/>
-      <c r="CD56" s="35"/>
-      <c r="CE56" s="41"/>
-      <c r="CF56" s="41"/>
-    </row>
-    <row r="57" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="85">
-        <v>44888</v>
-      </c>
-      <c r="E57" s="85">
-        <v>44891</v>
-      </c>
-      <c r="F57" s="39"/>
-      <c r="G57" s="40"/>
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
       <c r="J57" s="35"/>
@@ -7065,17 +7308,17 @@
       <c r="BM57" s="35"/>
       <c r="BN57" s="35"/>
       <c r="BO57" s="35"/>
-      <c r="BP57" s="35"/>
-      <c r="BQ57" s="41"/>
-      <c r="BR57" s="41"/>
-      <c r="BS57" s="35"/>
+      <c r="BP57" s="10">
+        <v>3</v>
+      </c>
+      <c r="BQ57" s="10"/>
+      <c r="BR57" s="10"/>
+      <c r="BS57" s="10"/>
       <c r="BT57" s="35"/>
-      <c r="BU57" s="73">
-        <v>3</v>
-      </c>
-      <c r="BV57" s="15"/>
-      <c r="BW57" s="15"/>
-      <c r="BX57" s="15"/>
+      <c r="BU57" s="35"/>
+      <c r="BV57" s="35"/>
+      <c r="BW57" s="35"/>
+      <c r="BX57" s="41"/>
       <c r="BY57" s="41"/>
       <c r="BZ57" s="35"/>
       <c r="CA57" s="35"/>
@@ -7085,19 +7328,19 @@
       <c r="CE57" s="41"/>
       <c r="CF57" s="41"/>
     </row>
-    <row r="58" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58" s="84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58" s="85">
-        <v>44885</v>
+        <v>44888</v>
       </c>
       <c r="E58" s="85">
-        <v>44888</v>
+        <v>44891</v>
       </c>
       <c r="F58" s="39"/>
       <c r="G58" s="40"/>
@@ -7163,15 +7406,15 @@
       <c r="BO58" s="35"/>
       <c r="BP58" s="35"/>
       <c r="BQ58" s="41"/>
-      <c r="BR58" s="17">
+      <c r="BR58" s="41"/>
+      <c r="BS58" s="35"/>
+      <c r="BT58" s="35"/>
+      <c r="BU58" s="73">
         <v>3</v>
       </c>
-      <c r="BS58" s="17"/>
-      <c r="BT58" s="17"/>
-      <c r="BU58" s="17"/>
-      <c r="BV58" s="35"/>
-      <c r="BW58" s="35"/>
-      <c r="BX58" s="41"/>
+      <c r="BV58" s="15"/>
+      <c r="BW58" s="15"/>
+      <c r="BX58" s="15"/>
       <c r="BY58" s="41"/>
       <c r="BZ58" s="35"/>
       <c r="CA58" s="35"/>
@@ -7181,19 +7424,19 @@
       <c r="CE58" s="41"/>
       <c r="CF58" s="41"/>
     </row>
-    <row r="59" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" s="84" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D59" s="85">
-        <v>44889</v>
+        <v>44885</v>
       </c>
       <c r="E59" s="85">
-        <v>44892</v>
+        <v>44888</v>
       </c>
       <c r="F59" s="39"/>
       <c r="G59" s="40"/>
@@ -7259,16 +7502,16 @@
       <c r="BO59" s="35"/>
       <c r="BP59" s="35"/>
       <c r="BQ59" s="41"/>
-      <c r="BR59" s="41"/>
-      <c r="BS59" s="35"/>
-      <c r="BT59" s="35"/>
-      <c r="BU59" s="35"/>
-      <c r="BV59" s="86">
+      <c r="BR59" s="17">
         <v>3</v>
       </c>
-      <c r="BW59" s="19"/>
-      <c r="BX59" s="19"/>
-      <c r="BY59" s="19"/>
+      <c r="BS59" s="17"/>
+      <c r="BT59" s="17"/>
+      <c r="BU59" s="17"/>
+      <c r="BV59" s="35"/>
+      <c r="BW59" s="35"/>
+      <c r="BX59" s="41"/>
+      <c r="BY59" s="41"/>
       <c r="BZ59" s="35"/>
       <c r="CA59" s="35"/>
       <c r="CB59" s="35"/>
@@ -7277,19 +7520,19 @@
       <c r="CE59" s="41"/>
       <c r="CF59" s="41"/>
     </row>
-    <row r="60" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" s="84" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D60" s="85">
-        <v>44887</v>
+        <v>44889</v>
       </c>
       <c r="E60" s="85">
-        <v>44890</v>
+        <v>44892</v>
       </c>
       <c r="F60" s="39"/>
       <c r="G60" s="40"/>
@@ -7357,14 +7600,14 @@
       <c r="BQ60" s="41"/>
       <c r="BR60" s="41"/>
       <c r="BS60" s="35"/>
-      <c r="BT60" s="12">
+      <c r="BT60" s="35"/>
+      <c r="BU60" s="35"/>
+      <c r="BV60" s="86">
         <v>3</v>
       </c>
-      <c r="BU60" s="12"/>
-      <c r="BV60" s="12"/>
-      <c r="BW60" s="12"/>
-      <c r="BX60" s="41"/>
-      <c r="BY60" s="41"/>
+      <c r="BW60" s="19"/>
+      <c r="BX60" s="19"/>
+      <c r="BY60" s="19"/>
       <c r="BZ60" s="35"/>
       <c r="CA60" s="35"/>
       <c r="CB60" s="35"/>
@@ -7373,19 +7616,19 @@
       <c r="CE60" s="41"/>
       <c r="CF60" s="41"/>
     </row>
-    <row r="61" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="84" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D61" s="85">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="E61" s="85">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="F61" s="39"/>
       <c r="G61" s="40"/>
@@ -7453,13 +7696,13 @@
       <c r="BQ61" s="41"/>
       <c r="BR61" s="41"/>
       <c r="BS61" s="35"/>
-      <c r="BT61" s="35"/>
-      <c r="BU61" s="8">
+      <c r="BT61" s="12">
         <v>3</v>
       </c>
-      <c r="BV61" s="8"/>
-      <c r="BW61" s="8"/>
-      <c r="BX61" s="8"/>
+      <c r="BU61" s="12"/>
+      <c r="BV61" s="12"/>
+      <c r="BW61" s="12"/>
+      <c r="BX61" s="41"/>
       <c r="BY61" s="41"/>
       <c r="BZ61" s="35"/>
       <c r="CA61" s="35"/>
@@ -7469,19 +7712,19 @@
       <c r="CE61" s="41"/>
       <c r="CF61" s="41"/>
     </row>
-    <row r="62" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" s="84" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D62" s="85">
         <v>44888</v>
       </c>
       <c r="E62" s="85">
-        <v>44890</v>
+        <v>44891</v>
       </c>
       <c r="F62" s="39"/>
       <c r="G62" s="40"/>
@@ -7549,13 +7792,13 @@
       <c r="BQ62" s="41"/>
       <c r="BR62" s="41"/>
       <c r="BS62" s="35"/>
-      <c r="BT62" s="74">
+      <c r="BT62" s="35"/>
+      <c r="BU62" s="8">
         <v>3</v>
       </c>
-      <c r="BU62" s="18"/>
-      <c r="BV62" s="18"/>
-      <c r="BW62" s="18"/>
-      <c r="BX62" s="41"/>
+      <c r="BV62" s="8"/>
+      <c r="BW62" s="8"/>
+      <c r="BX62" s="8"/>
       <c r="BY62" s="41"/>
       <c r="BZ62" s="35"/>
       <c r="CA62" s="35"/>
@@ -7565,18 +7808,18 @@
       <c r="CE62" s="41"/>
       <c r="CF62" s="41"/>
     </row>
-    <row r="63" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="89">
-        <v>44887</v>
-      </c>
-      <c r="E63" s="89">
+      <c r="B63" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="85">
+        <v>44888</v>
+      </c>
+      <c r="E63" s="85">
         <v>44890</v>
       </c>
       <c r="F63" s="39"/>
@@ -7645,12 +7888,12 @@
       <c r="BQ63" s="41"/>
       <c r="BR63" s="41"/>
       <c r="BS63" s="35"/>
-      <c r="BT63" s="9">
+      <c r="BT63" s="74">
         <v>3</v>
       </c>
-      <c r="BU63" s="9"/>
-      <c r="BV63" s="9"/>
-      <c r="BW63" s="9"/>
+      <c r="BU63" s="18"/>
+      <c r="BV63" s="18"/>
+      <c r="BW63" s="18"/>
       <c r="BX63" s="41"/>
       <c r="BY63" s="41"/>
       <c r="BZ63" s="35"/>
@@ -7661,4832 +7904,4928 @@
       <c r="CE63" s="41"/>
       <c r="CF63" s="41"/>
     </row>
-    <row r="64" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="91"/>
-      <c r="D64" s="92"/>
-      <c r="E64" s="93"/>
+      <c r="B64" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="89">
+        <v>44887</v>
+      </c>
+      <c r="E64" s="89">
+        <v>44890</v>
+      </c>
       <c r="F64" s="39"/>
-      <c r="G64" s="94" t="str">
-        <f>IF(OR(ISBLANK('Gantt-diagram'!task_start),ISBLANK('Gantt-diagram'!task_end)),"",'Gantt-diagram'!task_end-'Gantt-diagram'!task_start+1)</f>
-        <v/>
-      </c>
+      <c r="G64" s="40"/>
       <c r="H64" s="35"/>
       <c r="I64" s="35"/>
       <c r="J64" s="35"/>
       <c r="K64" s="35"/>
       <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="41"/>
       <c r="O64" s="35"/>
       <c r="P64" s="35"/>
       <c r="Q64" s="35"/>
       <c r="R64" s="35"/>
       <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
+      <c r="T64" s="41"/>
+      <c r="U64" s="41"/>
       <c r="V64" s="35"/>
       <c r="W64" s="35"/>
       <c r="X64" s="35"/>
       <c r="Y64" s="35"/>
       <c r="Z64" s="35"/>
-      <c r="AA64" s="35"/>
-      <c r="AB64" s="35"/>
+      <c r="AA64" s="41"/>
+      <c r="AB64" s="41"/>
       <c r="AC64" s="35"/>
       <c r="AD64" s="35"/>
       <c r="AE64" s="35"/>
       <c r="AF64" s="35"/>
       <c r="AG64" s="35"/>
-      <c r="AH64" s="35"/>
-      <c r="AI64" s="35"/>
+      <c r="AH64" s="41"/>
+      <c r="AI64" s="41"/>
       <c r="AJ64" s="35"/>
       <c r="AK64" s="35"/>
       <c r="AL64" s="35"/>
       <c r="AM64" s="35"/>
       <c r="AN64" s="35"/>
-      <c r="AO64" s="35"/>
-      <c r="AP64" s="35"/>
+      <c r="AO64" s="41"/>
+      <c r="AP64" s="41"/>
       <c r="AQ64" s="35"/>
       <c r="AR64" s="35"/>
       <c r="AS64" s="35"/>
       <c r="AT64" s="35"/>
       <c r="AU64" s="35"/>
-      <c r="AV64" s="35"/>
-      <c r="AW64" s="35"/>
+      <c r="AV64" s="41"/>
+      <c r="AW64" s="41"/>
       <c r="AX64" s="35"/>
       <c r="AY64" s="35"/>
       <c r="AZ64" s="35"/>
       <c r="BA64" s="35"/>
       <c r="BB64" s="35"/>
-      <c r="BC64" s="35"/>
-      <c r="BD64" s="35"/>
+      <c r="BC64" s="41"/>
+      <c r="BD64" s="41"/>
       <c r="BE64" s="35"/>
       <c r="BF64" s="35"/>
       <c r="BG64" s="35"/>
       <c r="BH64" s="35"/>
       <c r="BI64" s="35"/>
-      <c r="BJ64" s="35"/>
-      <c r="BK64" s="35"/>
+      <c r="BJ64" s="41"/>
+      <c r="BK64" s="41"/>
       <c r="BL64" s="35"/>
       <c r="BM64" s="35"/>
       <c r="BN64" s="35"/>
       <c r="BO64" s="35"/>
       <c r="BP64" s="35"/>
-      <c r="BQ64" s="35"/>
-      <c r="BR64" s="35"/>
+      <c r="BQ64" s="41"/>
+      <c r="BR64" s="41"/>
       <c r="BS64" s="35"/>
-      <c r="BT64" s="35"/>
-      <c r="BU64" s="35"/>
-      <c r="BV64" s="35"/>
-      <c r="BW64" s="35"/>
-      <c r="BX64" s="35"/>
-      <c r="BY64" s="35"/>
+      <c r="BT64" s="9">
+        <v>3</v>
+      </c>
+      <c r="BU64" s="9"/>
+      <c r="BV64" s="9"/>
+      <c r="BW64" s="9"/>
+      <c r="BX64" s="41"/>
+      <c r="BY64" s="41"/>
       <c r="BZ64" s="35"/>
       <c r="CA64" s="35"/>
       <c r="CB64" s="35"/>
       <c r="CC64" s="35"/>
       <c r="CD64" s="35"/>
-      <c r="CE64" s="35"/>
-      <c r="CF64" s="35"/>
-    </row>
-    <row r="65" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="20"/>
-      <c r="B65" s="95"/>
-      <c r="D65" s="22"/>
-      <c r="F65" s="6"/>
-    </row>
-    <row r="66" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="CE64" s="41"/>
+      <c r="CF64" s="41"/>
+    </row>
+    <row r="65" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="91"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="94" t="str">
+        <f>IF(OR(ISBLANK('Gantt-diagram'!task_start),ISBLANK('Gantt-diagram'!task_end)),"",'Gantt-diagram'!task_end-'Gantt-diagram'!task_start+1)</f>
+        <v/>
+      </c>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35"/>
+      <c r="V65" s="35"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+      <c r="Z65" s="35"/>
+      <c r="AA65" s="35"/>
+      <c r="AB65" s="35"/>
+      <c r="AC65" s="35"/>
+      <c r="AD65" s="35"/>
+      <c r="AE65" s="35"/>
+      <c r="AF65" s="35"/>
+      <c r="AG65" s="35"/>
+      <c r="AH65" s="35"/>
+      <c r="AI65" s="35"/>
+      <c r="AJ65" s="35"/>
+      <c r="AK65" s="35"/>
+      <c r="AL65" s="35"/>
+      <c r="AM65" s="35"/>
+      <c r="AN65" s="35"/>
+      <c r="AO65" s="35"/>
+      <c r="AP65" s="35"/>
+      <c r="AQ65" s="35"/>
+      <c r="AR65" s="35"/>
+      <c r="AS65" s="35"/>
+      <c r="AT65" s="35"/>
+      <c r="AU65" s="35"/>
+      <c r="AV65" s="35"/>
+      <c r="AW65" s="35"/>
+      <c r="AX65" s="35"/>
+      <c r="AY65" s="35"/>
+      <c r="AZ65" s="35"/>
+      <c r="BA65" s="35"/>
+      <c r="BB65" s="35"/>
+      <c r="BC65" s="35"/>
+      <c r="BD65" s="35"/>
+      <c r="BE65" s="35"/>
+      <c r="BF65" s="35"/>
+      <c r="BG65" s="35"/>
+      <c r="BH65" s="35"/>
+      <c r="BI65" s="35"/>
+      <c r="BJ65" s="35"/>
+      <c r="BK65" s="35"/>
+      <c r="BL65" s="35"/>
+      <c r="BM65" s="35"/>
+      <c r="BN65" s="35"/>
+      <c r="BO65" s="35"/>
+      <c r="BP65" s="35"/>
+      <c r="BQ65" s="35"/>
+      <c r="BR65" s="35"/>
+      <c r="BS65" s="35"/>
+      <c r="BT65" s="35"/>
+      <c r="BU65" s="35"/>
+      <c r="BV65" s="35"/>
+      <c r="BW65" s="35"/>
+      <c r="BX65" s="35"/>
+      <c r="BY65" s="35"/>
+      <c r="BZ65" s="35"/>
+      <c r="CA65" s="35"/>
+      <c r="CB65" s="35"/>
+      <c r="CC65" s="35"/>
+      <c r="CD65" s="35"/>
+      <c r="CE65" s="35"/>
+      <c r="CF65" s="35"/>
+    </row>
+    <row r="66" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="20"/>
       <c r="B66" s="95"/>
-      <c r="C66" s="96"/>
       <c r="D66" s="22"/>
-      <c r="E66" s="97"/>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="20"/>
       <c r="B67" s="95"/>
-      <c r="C67" s="98"/>
+      <c r="C67" s="96"/>
       <c r="D67" s="22"/>
+      <c r="E67" s="97"/>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="20"/>
       <c r="B68" s="95"/>
+      <c r="C68" s="98"/>
       <c r="D68" s="22"/>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="20"/>
       <c r="B69" s="95"/>
       <c r="D69" s="22"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="20"/>
       <c r="B70" s="95"/>
       <c r="D70" s="22"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="20"/>
       <c r="B71" s="95"/>
       <c r="D71" s="22"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
       <c r="B72" s="95"/>
       <c r="D72" s="22"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="20"/>
       <c r="B73" s="95"/>
       <c r="D73" s="22"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="20"/>
       <c r="B74" s="95"/>
       <c r="D74" s="22"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="20"/>
       <c r="B75" s="95"/>
       <c r="D75" s="22"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="20"/>
       <c r="B76" s="95"/>
       <c r="D76" s="22"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="20"/>
       <c r="B77" s="95"/>
       <c r="D77" s="22"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
       <c r="B78" s="95"/>
       <c r="D78" s="22"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="20"/>
       <c r="B79" s="95"/>
       <c r="D79" s="22"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="20"/>
       <c r="B80" s="95"/>
       <c r="D80" s="22"/>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="20"/>
       <c r="B81" s="95"/>
       <c r="D81" s="22"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
       <c r="B82" s="95"/>
       <c r="D82" s="22"/>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
+      <c r="B83" s="95"/>
       <c r="D83" s="22"/>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="20"/>
       <c r="D84" s="22"/>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="20"/>
       <c r="D85" s="22"/>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
       <c r="D86" s="22"/>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="20"/>
       <c r="D87" s="22"/>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="20"/>
       <c r="D88" s="22"/>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="20"/>
       <c r="D89" s="22"/>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="20"/>
       <c r="D90" s="22"/>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
       <c r="D91" s="22"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
       <c r="D92" s="22"/>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
       <c r="D93" s="22"/>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
       <c r="D94" s="22"/>
       <c r="F94" s="6"/>
     </row>
-    <row r="95" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
       <c r="D95" s="22"/>
       <c r="F95" s="6"/>
     </row>
-    <row r="96" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
       <c r="D96" s="22"/>
       <c r="F96" s="6"/>
     </row>
-    <row r="97" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="20"/>
       <c r="D97" s="22"/>
       <c r="F97" s="6"/>
     </row>
-    <row r="98" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="20"/>
       <c r="D98" s="22"/>
       <c r="F98" s="6"/>
     </row>
-    <row r="99" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="20"/>
       <c r="D99" s="22"/>
       <c r="F99" s="6"/>
     </row>
-    <row r="100" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="20"/>
       <c r="D100" s="22"/>
       <c r="F100" s="6"/>
     </row>
-    <row r="101" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="20"/>
       <c r="D101" s="22"/>
       <c r="F101" s="6"/>
     </row>
-    <row r="102" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="20"/>
       <c r="D102" s="22"/>
       <c r="F102" s="6"/>
     </row>
-    <row r="103" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="20"/>
       <c r="D103" s="22"/>
       <c r="F103" s="6"/>
     </row>
-    <row r="104" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="20"/>
       <c r="D104" s="22"/>
       <c r="F104" s="6"/>
     </row>
-    <row r="105" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="20"/>
       <c r="D105" s="22"/>
       <c r="F105" s="6"/>
     </row>
-    <row r="106" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="20"/>
       <c r="D106" s="22"/>
       <c r="F106" s="6"/>
     </row>
-    <row r="107" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="20"/>
       <c r="D107" s="22"/>
       <c r="F107" s="6"/>
     </row>
-    <row r="108" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="20"/>
       <c r="D108" s="22"/>
       <c r="F108" s="6"/>
     </row>
-    <row r="109" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="20"/>
       <c r="D109" s="22"/>
       <c r="F109" s="6"/>
     </row>
-    <row r="110" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="20"/>
       <c r="D110" s="22"/>
       <c r="F110" s="6"/>
     </row>
-    <row r="111" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="20"/>
       <c r="D111" s="22"/>
       <c r="F111" s="6"/>
     </row>
-    <row r="112" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="20"/>
       <c r="D112" s="22"/>
       <c r="F112" s="6"/>
     </row>
-    <row r="113" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="20"/>
       <c r="D113" s="22"/>
       <c r="F113" s="6"/>
     </row>
-    <row r="114" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="20"/>
       <c r="D114" s="22"/>
       <c r="F114" s="6"/>
     </row>
-    <row r="115" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="20"/>
       <c r="D115" s="22"/>
       <c r="F115" s="6"/>
     </row>
-    <row r="116" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="20"/>
       <c r="D116" s="22"/>
       <c r="F116" s="6"/>
     </row>
-    <row r="117" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="20"/>
       <c r="D117" s="22"/>
       <c r="F117" s="6"/>
     </row>
-    <row r="118" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="20"/>
       <c r="D118" s="22"/>
       <c r="F118" s="6"/>
     </row>
-    <row r="119" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="20"/>
       <c r="D119" s="22"/>
       <c r="F119" s="6"/>
     </row>
-    <row r="120" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="20"/>
       <c r="D120" s="22"/>
       <c r="F120" s="6"/>
     </row>
-    <row r="121" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="20"/>
       <c r="D121" s="22"/>
       <c r="F121" s="6"/>
     </row>
-    <row r="122" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="20"/>
       <c r="D122" s="22"/>
       <c r="F122" s="6"/>
     </row>
-    <row r="123" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="20"/>
       <c r="D123" s="22"/>
       <c r="F123" s="6"/>
     </row>
-    <row r="124" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="20"/>
       <c r="D124" s="22"/>
       <c r="F124" s="6"/>
     </row>
-    <row r="125" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="20"/>
       <c r="D125" s="22"/>
       <c r="F125" s="6"/>
     </row>
-    <row r="126" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="20"/>
       <c r="D126" s="22"/>
       <c r="F126" s="6"/>
     </row>
-    <row r="127" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="20"/>
       <c r="D127" s="22"/>
       <c r="F127" s="6"/>
     </row>
-    <row r="128" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="20"/>
       <c r="D128" s="22"/>
       <c r="F128" s="6"/>
     </row>
-    <row r="129" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="20"/>
       <c r="D129" s="22"/>
       <c r="F129" s="6"/>
     </row>
-    <row r="130" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="20"/>
       <c r="D130" s="22"/>
       <c r="F130" s="6"/>
     </row>
-    <row r="131" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="20"/>
       <c r="D131" s="22"/>
       <c r="F131" s="6"/>
     </row>
-    <row r="132" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="20"/>
       <c r="D132" s="22"/>
       <c r="F132" s="6"/>
     </row>
-    <row r="133" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="20"/>
       <c r="D133" s="22"/>
       <c r="F133" s="6"/>
     </row>
-    <row r="134" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="20"/>
       <c r="D134" s="22"/>
       <c r="F134" s="6"/>
     </row>
-    <row r="135" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="20"/>
       <c r="D135" s="22"/>
       <c r="F135" s="6"/>
     </row>
-    <row r="136" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="20"/>
       <c r="D136" s="22"/>
       <c r="F136" s="6"/>
     </row>
-    <row r="137" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="20"/>
       <c r="D137" s="22"/>
       <c r="F137" s="6"/>
     </row>
-    <row r="138" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="20"/>
       <c r="D138" s="22"/>
       <c r="F138" s="6"/>
     </row>
-    <row r="139" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="20"/>
       <c r="D139" s="22"/>
       <c r="F139" s="6"/>
     </row>
-    <row r="140" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="20"/>
       <c r="D140" s="22"/>
       <c r="F140" s="6"/>
     </row>
-    <row r="141" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="20"/>
       <c r="D141" s="22"/>
       <c r="F141" s="6"/>
     </row>
-    <row r="142" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="20"/>
       <c r="D142" s="22"/>
       <c r="F142" s="6"/>
     </row>
-    <row r="143" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="20"/>
       <c r="D143" s="22"/>
       <c r="F143" s="6"/>
     </row>
-    <row r="144" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="20"/>
       <c r="D144" s="22"/>
       <c r="F144" s="6"/>
     </row>
-    <row r="145" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="20"/>
       <c r="D145" s="22"/>
       <c r="F145" s="6"/>
     </row>
-    <row r="146" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="20"/>
       <c r="D146" s="22"/>
       <c r="F146" s="6"/>
     </row>
-    <row r="147" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="20"/>
       <c r="D147" s="22"/>
       <c r="F147" s="6"/>
     </row>
-    <row r="148" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="20"/>
       <c r="D148" s="22"/>
       <c r="F148" s="6"/>
     </row>
-    <row r="149" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="20"/>
       <c r="D149" s="22"/>
       <c r="F149" s="6"/>
     </row>
-    <row r="150" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="20"/>
       <c r="D150" s="22"/>
       <c r="F150" s="6"/>
     </row>
-    <row r="151" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="20"/>
       <c r="D151" s="22"/>
       <c r="F151" s="6"/>
     </row>
-    <row r="152" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="20"/>
       <c r="D152" s="22"/>
       <c r="F152" s="6"/>
     </row>
-    <row r="153" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="20"/>
       <c r="D153" s="22"/>
       <c r="F153" s="6"/>
     </row>
-    <row r="154" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="20"/>
       <c r="D154" s="22"/>
       <c r="F154" s="6"/>
     </row>
-    <row r="155" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="20"/>
       <c r="D155" s="22"/>
       <c r="F155" s="6"/>
     </row>
-    <row r="156" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="20"/>
       <c r="D156" s="22"/>
       <c r="F156" s="6"/>
     </row>
-    <row r="157" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="20"/>
       <c r="D157" s="22"/>
       <c r="F157" s="6"/>
     </row>
-    <row r="158" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="20"/>
       <c r="D158" s="22"/>
       <c r="F158" s="6"/>
     </row>
-    <row r="159" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="20"/>
       <c r="D159" s="22"/>
       <c r="F159" s="6"/>
     </row>
-    <row r="160" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="20"/>
       <c r="D160" s="22"/>
       <c r="F160" s="6"/>
     </row>
-    <row r="161" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="20"/>
       <c r="D161" s="22"/>
       <c r="F161" s="6"/>
     </row>
-    <row r="162" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="20"/>
       <c r="D162" s="22"/>
       <c r="F162" s="6"/>
     </row>
-    <row r="163" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="20"/>
       <c r="D163" s="22"/>
       <c r="F163" s="6"/>
     </row>
-    <row r="164" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="20"/>
       <c r="D164" s="22"/>
       <c r="F164" s="6"/>
     </row>
-    <row r="165" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="20"/>
       <c r="D165" s="22"/>
       <c r="F165" s="6"/>
     </row>
-    <row r="166" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="20"/>
       <c r="D166" s="22"/>
       <c r="F166" s="6"/>
     </row>
-    <row r="167" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="20"/>
       <c r="D167" s="22"/>
       <c r="F167" s="6"/>
     </row>
-    <row r="168" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="20"/>
       <c r="D168" s="22"/>
       <c r="F168" s="6"/>
     </row>
-    <row r="169" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="20"/>
       <c r="D169" s="22"/>
       <c r="F169" s="6"/>
     </row>
-    <row r="170" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="20"/>
       <c r="D170" s="22"/>
       <c r="F170" s="6"/>
     </row>
-    <row r="171" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="20"/>
       <c r="D171" s="22"/>
       <c r="F171" s="6"/>
     </row>
-    <row r="172" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="20"/>
       <c r="D172" s="22"/>
       <c r="F172" s="6"/>
     </row>
-    <row r="173" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="20"/>
       <c r="D173" s="22"/>
       <c r="F173" s="6"/>
     </row>
-    <row r="174" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="20"/>
       <c r="D174" s="22"/>
       <c r="F174" s="6"/>
     </row>
-    <row r="175" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="20"/>
       <c r="D175" s="22"/>
       <c r="F175" s="6"/>
     </row>
-    <row r="176" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="20"/>
       <c r="D176" s="22"/>
       <c r="F176" s="6"/>
     </row>
-    <row r="177" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="20"/>
       <c r="D177" s="22"/>
       <c r="F177" s="6"/>
     </row>
-    <row r="178" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="20"/>
       <c r="D178" s="22"/>
       <c r="F178" s="6"/>
     </row>
-    <row r="179" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="20"/>
       <c r="D179" s="22"/>
       <c r="F179" s="6"/>
     </row>
-    <row r="180" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="20"/>
       <c r="D180" s="22"/>
       <c r="F180" s="6"/>
     </row>
-    <row r="181" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="20"/>
       <c r="D181" s="22"/>
       <c r="F181" s="6"/>
     </row>
-    <row r="182" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="20"/>
       <c r="D182" s="22"/>
       <c r="F182" s="6"/>
     </row>
-    <row r="183" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="20"/>
       <c r="D183" s="22"/>
       <c r="F183" s="6"/>
     </row>
-    <row r="184" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="20"/>
       <c r="D184" s="22"/>
       <c r="F184" s="6"/>
     </row>
-    <row r="185" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="20"/>
       <c r="D185" s="22"/>
       <c r="F185" s="6"/>
     </row>
-    <row r="186" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="20"/>
       <c r="D186" s="22"/>
       <c r="F186" s="6"/>
     </row>
-    <row r="187" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="20"/>
       <c r="D187" s="22"/>
       <c r="F187" s="6"/>
     </row>
-    <row r="188" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="20"/>
       <c r="D188" s="22"/>
       <c r="F188" s="6"/>
     </row>
-    <row r="189" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="20"/>
       <c r="D189" s="22"/>
       <c r="F189" s="6"/>
     </row>
-    <row r="190" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="20"/>
       <c r="D190" s="22"/>
       <c r="F190" s="6"/>
     </row>
-    <row r="191" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="20"/>
       <c r="D191" s="22"/>
       <c r="F191" s="6"/>
     </row>
-    <row r="192" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="20"/>
       <c r="D192" s="22"/>
       <c r="F192" s="6"/>
     </row>
-    <row r="193" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="20"/>
       <c r="D193" s="22"/>
       <c r="F193" s="6"/>
     </row>
-    <row r="194" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="20"/>
       <c r="D194" s="22"/>
       <c r="F194" s="6"/>
     </row>
-    <row r="195" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="20"/>
       <c r="D195" s="22"/>
       <c r="F195" s="6"/>
     </row>
-    <row r="196" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="20"/>
       <c r="D196" s="22"/>
       <c r="F196" s="6"/>
     </row>
-    <row r="197" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="20"/>
       <c r="D197" s="22"/>
       <c r="F197" s="6"/>
     </row>
-    <row r="198" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="20"/>
       <c r="D198" s="22"/>
       <c r="F198" s="6"/>
     </row>
-    <row r="199" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="20"/>
       <c r="D199" s="22"/>
       <c r="F199" s="6"/>
     </row>
-    <row r="200" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="20"/>
       <c r="D200" s="22"/>
       <c r="F200" s="6"/>
     </row>
-    <row r="201" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="20"/>
       <c r="D201" s="22"/>
       <c r="F201" s="6"/>
     </row>
-    <row r="202" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="20"/>
       <c r="D202" s="22"/>
       <c r="F202" s="6"/>
     </row>
-    <row r="203" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="20"/>
       <c r="D203" s="22"/>
       <c r="F203" s="6"/>
     </row>
-    <row r="204" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="20"/>
       <c r="D204" s="22"/>
       <c r="F204" s="6"/>
     </row>
-    <row r="205" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="20"/>
       <c r="D205" s="22"/>
       <c r="F205" s="6"/>
     </row>
-    <row r="206" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="20"/>
       <c r="D206" s="22"/>
       <c r="F206" s="6"/>
     </row>
-    <row r="207" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="20"/>
       <c r="D207" s="22"/>
       <c r="F207" s="6"/>
     </row>
-    <row r="208" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="20"/>
       <c r="D208" s="22"/>
       <c r="F208" s="6"/>
     </row>
-    <row r="209" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="20"/>
       <c r="D209" s="22"/>
       <c r="F209" s="6"/>
     </row>
-    <row r="210" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="20"/>
       <c r="D210" s="22"/>
       <c r="F210" s="6"/>
     </row>
-    <row r="211" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="20"/>
       <c r="D211" s="22"/>
       <c r="F211" s="6"/>
     </row>
-    <row r="212" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="20"/>
       <c r="D212" s="22"/>
       <c r="F212" s="6"/>
     </row>
-    <row r="213" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="20"/>
       <c r="D213" s="22"/>
       <c r="F213" s="6"/>
     </row>
-    <row r="214" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="20"/>
       <c r="D214" s="22"/>
       <c r="F214" s="6"/>
     </row>
-    <row r="215" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="20"/>
       <c r="D215" s="22"/>
       <c r="F215" s="6"/>
     </row>
-    <row r="216" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="20"/>
       <c r="D216" s="22"/>
       <c r="F216" s="6"/>
     </row>
-    <row r="217" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="20"/>
       <c r="D217" s="22"/>
       <c r="F217" s="6"/>
     </row>
-    <row r="218" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="20"/>
       <c r="D218" s="22"/>
       <c r="F218" s="6"/>
     </row>
-    <row r="219" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="20"/>
       <c r="D219" s="22"/>
       <c r="F219" s="6"/>
     </row>
-    <row r="220" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="20"/>
       <c r="D220" s="22"/>
       <c r="F220" s="6"/>
     </row>
-    <row r="221" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="20"/>
       <c r="D221" s="22"/>
       <c r="F221" s="6"/>
     </row>
-    <row r="222" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="20"/>
       <c r="D222" s="22"/>
       <c r="F222" s="6"/>
     </row>
-    <row r="223" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="20"/>
       <c r="D223" s="22"/>
       <c r="F223" s="6"/>
     </row>
-    <row r="224" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="20"/>
       <c r="D224" s="22"/>
       <c r="F224" s="6"/>
     </row>
-    <row r="225" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="20"/>
       <c r="D225" s="22"/>
       <c r="F225" s="6"/>
     </row>
-    <row r="226" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="20"/>
       <c r="D226" s="22"/>
       <c r="F226" s="6"/>
     </row>
-    <row r="227" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="20"/>
       <c r="D227" s="22"/>
       <c r="F227" s="6"/>
     </row>
-    <row r="228" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="20"/>
       <c r="D228" s="22"/>
       <c r="F228" s="6"/>
     </row>
-    <row r="229" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="20"/>
       <c r="D229" s="22"/>
       <c r="F229" s="6"/>
     </row>
-    <row r="230" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="20"/>
       <c r="D230" s="22"/>
       <c r="F230" s="6"/>
     </row>
-    <row r="231" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="20"/>
       <c r="D231" s="22"/>
       <c r="F231" s="6"/>
     </row>
-    <row r="232" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="20"/>
       <c r="D232" s="22"/>
       <c r="F232" s="6"/>
     </row>
-    <row r="233" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="20"/>
       <c r="D233" s="22"/>
       <c r="F233" s="6"/>
     </row>
-    <row r="234" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="20"/>
       <c r="D234" s="22"/>
       <c r="F234" s="6"/>
     </row>
-    <row r="235" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="20"/>
       <c r="D235" s="22"/>
       <c r="F235" s="6"/>
     </row>
-    <row r="236" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="20"/>
       <c r="D236" s="22"/>
       <c r="F236" s="6"/>
     </row>
-    <row r="237" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="20"/>
       <c r="D237" s="22"/>
       <c r="F237" s="6"/>
     </row>
-    <row r="238" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="20"/>
       <c r="D238" s="22"/>
       <c r="F238" s="6"/>
     </row>
-    <row r="239" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="20"/>
       <c r="D239" s="22"/>
       <c r="F239" s="6"/>
     </row>
-    <row r="240" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="20"/>
       <c r="D240" s="22"/>
       <c r="F240" s="6"/>
     </row>
-    <row r="241" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="20"/>
       <c r="D241" s="22"/>
       <c r="F241" s="6"/>
     </row>
-    <row r="242" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="20"/>
       <c r="D242" s="22"/>
       <c r="F242" s="6"/>
     </row>
-    <row r="243" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="20"/>
       <c r="D243" s="22"/>
       <c r="F243" s="6"/>
     </row>
-    <row r="244" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="20"/>
       <c r="D244" s="22"/>
       <c r="F244" s="6"/>
     </row>
-    <row r="245" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="20"/>
       <c r="D245" s="22"/>
       <c r="F245" s="6"/>
     </row>
-    <row r="246" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="20"/>
       <c r="D246" s="22"/>
       <c r="F246" s="6"/>
     </row>
-    <row r="247" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="20"/>
       <c r="D247" s="22"/>
       <c r="F247" s="6"/>
     </row>
-    <row r="248" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="20"/>
       <c r="D248" s="22"/>
       <c r="F248" s="6"/>
     </row>
-    <row r="249" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="20"/>
       <c r="D249" s="22"/>
       <c r="F249" s="6"/>
     </row>
-    <row r="250" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="20"/>
       <c r="D250" s="22"/>
       <c r="F250" s="6"/>
     </row>
-    <row r="251" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="20"/>
       <c r="D251" s="22"/>
       <c r="F251" s="6"/>
     </row>
-    <row r="252" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="20"/>
       <c r="D252" s="22"/>
       <c r="F252" s="6"/>
     </row>
-    <row r="253" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="20"/>
       <c r="D253" s="22"/>
       <c r="F253" s="6"/>
     </row>
-    <row r="254" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="20"/>
       <c r="D254" s="22"/>
       <c r="F254" s="6"/>
     </row>
-    <row r="255" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="20"/>
       <c r="D255" s="22"/>
       <c r="F255" s="6"/>
     </row>
-    <row r="256" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="20"/>
       <c r="D256" s="22"/>
       <c r="F256" s="6"/>
     </row>
-    <row r="257" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="20"/>
       <c r="D257" s="22"/>
       <c r="F257" s="6"/>
     </row>
-    <row r="258" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="20"/>
       <c r="D258" s="22"/>
       <c r="F258" s="6"/>
     </row>
-    <row r="259" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="20"/>
       <c r="D259" s="22"/>
       <c r="F259" s="6"/>
     </row>
-    <row r="260" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="20"/>
       <c r="D260" s="22"/>
       <c r="F260" s="6"/>
     </row>
-    <row r="261" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="20"/>
       <c r="D261" s="22"/>
       <c r="F261" s="6"/>
     </row>
-    <row r="262" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="20"/>
       <c r="D262" s="22"/>
       <c r="F262" s="6"/>
     </row>
-    <row r="263" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="20"/>
       <c r="D263" s="22"/>
       <c r="F263" s="6"/>
     </row>
-    <row r="264" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="20"/>
       <c r="D264" s="22"/>
       <c r="F264" s="6"/>
     </row>
-    <row r="265" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="20"/>
       <c r="D265" s="22"/>
       <c r="F265" s="6"/>
     </row>
-    <row r="266" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="20"/>
       <c r="D266" s="22"/>
       <c r="F266" s="6"/>
     </row>
-    <row r="267" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="20"/>
       <c r="D267" s="22"/>
       <c r="F267" s="6"/>
     </row>
-    <row r="268" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="20"/>
       <c r="D268" s="22"/>
       <c r="F268" s="6"/>
     </row>
-    <row r="269" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="20"/>
       <c r="D269" s="22"/>
       <c r="F269" s="6"/>
     </row>
-    <row r="270" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="20"/>
       <c r="D270" s="22"/>
       <c r="F270" s="6"/>
     </row>
-    <row r="271" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="20"/>
       <c r="D271" s="22"/>
       <c r="F271" s="6"/>
     </row>
-    <row r="272" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="20"/>
       <c r="D272" s="22"/>
       <c r="F272" s="6"/>
     </row>
-    <row r="273" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="20"/>
       <c r="D273" s="22"/>
       <c r="F273" s="6"/>
     </row>
-    <row r="274" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="20"/>
       <c r="D274" s="22"/>
       <c r="F274" s="6"/>
     </row>
-    <row r="275" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="20"/>
       <c r="D275" s="22"/>
       <c r="F275" s="6"/>
     </row>
-    <row r="276" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="20"/>
       <c r="D276" s="22"/>
       <c r="F276" s="6"/>
     </row>
-    <row r="277" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="20"/>
       <c r="D277" s="22"/>
       <c r="F277" s="6"/>
     </row>
-    <row r="278" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="20"/>
       <c r="D278" s="22"/>
       <c r="F278" s="6"/>
     </row>
-    <row r="279" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="20"/>
       <c r="D279" s="22"/>
       <c r="F279" s="6"/>
     </row>
-    <row r="280" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="20"/>
       <c r="D280" s="22"/>
       <c r="F280" s="6"/>
     </row>
-    <row r="281" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="20"/>
       <c r="D281" s="22"/>
       <c r="F281" s="6"/>
     </row>
-    <row r="282" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="20"/>
       <c r="D282" s="22"/>
       <c r="F282" s="6"/>
     </row>
-    <row r="283" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="20"/>
       <c r="D283" s="22"/>
       <c r="F283" s="6"/>
     </row>
-    <row r="284" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="20"/>
       <c r="D284" s="22"/>
       <c r="F284" s="6"/>
     </row>
-    <row r="285" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="20"/>
       <c r="D285" s="22"/>
       <c r="F285" s="6"/>
     </row>
-    <row r="286" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="20"/>
       <c r="D286" s="22"/>
       <c r="F286" s="6"/>
     </row>
-    <row r="287" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="20"/>
       <c r="D287" s="22"/>
       <c r="F287" s="6"/>
     </row>
-    <row r="288" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="20"/>
       <c r="D288" s="22"/>
       <c r="F288" s="6"/>
     </row>
-    <row r="289" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="20"/>
       <c r="D289" s="22"/>
       <c r="F289" s="6"/>
     </row>
-    <row r="290" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="20"/>
       <c r="D290" s="22"/>
       <c r="F290" s="6"/>
     </row>
-    <row r="291" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="20"/>
       <c r="D291" s="22"/>
       <c r="F291" s="6"/>
     </row>
-    <row r="292" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="20"/>
       <c r="D292" s="22"/>
       <c r="F292" s="6"/>
     </row>
-    <row r="293" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="20"/>
       <c r="D293" s="22"/>
       <c r="F293" s="6"/>
     </row>
-    <row r="294" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="20"/>
       <c r="D294" s="22"/>
       <c r="F294" s="6"/>
     </row>
-    <row r="295" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="20"/>
       <c r="D295" s="22"/>
       <c r="F295" s="6"/>
     </row>
-    <row r="296" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="20"/>
       <c r="D296" s="22"/>
       <c r="F296" s="6"/>
     </row>
-    <row r="297" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="20"/>
       <c r="D297" s="22"/>
       <c r="F297" s="6"/>
     </row>
-    <row r="298" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="20"/>
       <c r="D298" s="22"/>
       <c r="F298" s="6"/>
     </row>
-    <row r="299" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="20"/>
       <c r="D299" s="22"/>
       <c r="F299" s="6"/>
     </row>
-    <row r="300" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="20"/>
       <c r="D300" s="22"/>
       <c r="F300" s="6"/>
     </row>
-    <row r="301" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="20"/>
       <c r="D301" s="22"/>
       <c r="F301" s="6"/>
     </row>
-    <row r="302" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="20"/>
       <c r="D302" s="22"/>
       <c r="F302" s="6"/>
     </row>
-    <row r="303" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="20"/>
       <c r="D303" s="22"/>
       <c r="F303" s="6"/>
     </row>
-    <row r="304" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="20"/>
       <c r="D304" s="22"/>
       <c r="F304" s="6"/>
     </row>
-    <row r="305" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="20"/>
       <c r="D305" s="22"/>
       <c r="F305" s="6"/>
     </row>
-    <row r="306" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="20"/>
       <c r="D306" s="22"/>
       <c r="F306" s="6"/>
     </row>
-    <row r="307" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="20"/>
       <c r="D307" s="22"/>
       <c r="F307" s="6"/>
     </row>
-    <row r="308" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="20"/>
       <c r="D308" s="22"/>
       <c r="F308" s="6"/>
     </row>
-    <row r="309" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="20"/>
       <c r="D309" s="22"/>
       <c r="F309" s="6"/>
     </row>
-    <row r="310" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="20"/>
       <c r="D310" s="22"/>
       <c r="F310" s="6"/>
     </row>
-    <row r="311" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="20"/>
       <c r="D311" s="22"/>
       <c r="F311" s="6"/>
     </row>
-    <row r="312" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="20"/>
       <c r="D312" s="22"/>
       <c r="F312" s="6"/>
     </row>
-    <row r="313" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="20"/>
       <c r="D313" s="22"/>
       <c r="F313" s="6"/>
     </row>
-    <row r="314" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="20"/>
       <c r="D314" s="22"/>
       <c r="F314" s="6"/>
     </row>
-    <row r="315" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="20"/>
       <c r="D315" s="22"/>
       <c r="F315" s="6"/>
     </row>
-    <row r="316" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="20"/>
       <c r="D316" s="22"/>
       <c r="F316" s="6"/>
     </row>
-    <row r="317" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="20"/>
       <c r="D317" s="22"/>
       <c r="F317" s="6"/>
     </row>
-    <row r="318" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="20"/>
       <c r="D318" s="22"/>
       <c r="F318" s="6"/>
     </row>
-    <row r="319" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="20"/>
       <c r="D319" s="22"/>
       <c r="F319" s="6"/>
     </row>
-    <row r="320" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="20"/>
       <c r="D320" s="22"/>
       <c r="F320" s="6"/>
     </row>
-    <row r="321" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="20"/>
       <c r="D321" s="22"/>
       <c r="F321" s="6"/>
     </row>
-    <row r="322" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="20"/>
       <c r="D322" s="22"/>
       <c r="F322" s="6"/>
     </row>
-    <row r="323" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="20"/>
       <c r="D323" s="22"/>
       <c r="F323" s="6"/>
     </row>
-    <row r="324" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="20"/>
       <c r="D324" s="22"/>
       <c r="F324" s="6"/>
     </row>
-    <row r="325" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="20"/>
       <c r="D325" s="22"/>
       <c r="F325" s="6"/>
     </row>
-    <row r="326" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="20"/>
       <c r="D326" s="22"/>
       <c r="F326" s="6"/>
     </row>
-    <row r="327" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="20"/>
       <c r="D327" s="22"/>
       <c r="F327" s="6"/>
     </row>
-    <row r="328" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="20"/>
       <c r="D328" s="22"/>
       <c r="F328" s="6"/>
     </row>
-    <row r="329" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="20"/>
       <c r="D329" s="22"/>
       <c r="F329" s="6"/>
     </row>
-    <row r="330" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="20"/>
       <c r="D330" s="22"/>
       <c r="F330" s="6"/>
     </row>
-    <row r="331" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="20"/>
       <c r="D331" s="22"/>
       <c r="F331" s="6"/>
     </row>
-    <row r="332" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="20"/>
       <c r="D332" s="22"/>
       <c r="F332" s="6"/>
     </row>
-    <row r="333" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="20"/>
       <c r="D333" s="22"/>
       <c r="F333" s="6"/>
     </row>
-    <row r="334" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="20"/>
       <c r="D334" s="22"/>
       <c r="F334" s="6"/>
     </row>
-    <row r="335" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="20"/>
       <c r="D335" s="22"/>
       <c r="F335" s="6"/>
     </row>
-    <row r="336" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="20"/>
       <c r="D336" s="22"/>
       <c r="F336" s="6"/>
     </row>
-    <row r="337" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="20"/>
       <c r="D337" s="22"/>
       <c r="F337" s="6"/>
     </row>
-    <row r="338" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="20"/>
       <c r="D338" s="22"/>
       <c r="F338" s="6"/>
     </row>
-    <row r="339" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="20"/>
       <c r="D339" s="22"/>
       <c r="F339" s="6"/>
     </row>
-    <row r="340" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="20"/>
       <c r="D340" s="22"/>
       <c r="F340" s="6"/>
     </row>
-    <row r="341" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="20"/>
       <c r="D341" s="22"/>
       <c r="F341" s="6"/>
     </row>
-    <row r="342" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="20"/>
       <c r="D342" s="22"/>
       <c r="F342" s="6"/>
     </row>
-    <row r="343" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="20"/>
       <c r="D343" s="22"/>
       <c r="F343" s="6"/>
     </row>
-    <row r="344" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="20"/>
       <c r="D344" s="22"/>
       <c r="F344" s="6"/>
     </row>
-    <row r="345" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="20"/>
       <c r="D345" s="22"/>
       <c r="F345" s="6"/>
     </row>
-    <row r="346" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="20"/>
       <c r="D346" s="22"/>
       <c r="F346" s="6"/>
     </row>
-    <row r="347" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="20"/>
       <c r="D347" s="22"/>
       <c r="F347" s="6"/>
     </row>
-    <row r="348" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="20"/>
       <c r="D348" s="22"/>
       <c r="F348" s="6"/>
     </row>
-    <row r="349" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="20"/>
       <c r="D349" s="22"/>
       <c r="F349" s="6"/>
     </row>
-    <row r="350" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="20"/>
       <c r="D350" s="22"/>
       <c r="F350" s="6"/>
     </row>
-    <row r="351" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="20"/>
       <c r="D351" s="22"/>
       <c r="F351" s="6"/>
     </row>
-    <row r="352" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="20"/>
       <c r="D352" s="22"/>
       <c r="F352" s="6"/>
     </row>
-    <row r="353" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="20"/>
       <c r="D353" s="22"/>
       <c r="F353" s="6"/>
     </row>
-    <row r="354" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="20"/>
       <c r="D354" s="22"/>
       <c r="F354" s="6"/>
     </row>
-    <row r="355" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="20"/>
       <c r="D355" s="22"/>
       <c r="F355" s="6"/>
     </row>
-    <row r="356" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="20"/>
       <c r="D356" s="22"/>
       <c r="F356" s="6"/>
     </row>
-    <row r="357" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="20"/>
       <c r="D357" s="22"/>
       <c r="F357" s="6"/>
     </row>
-    <row r="358" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="20"/>
       <c r="D358" s="22"/>
       <c r="F358" s="6"/>
     </row>
-    <row r="359" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="20"/>
       <c r="D359" s="22"/>
       <c r="F359" s="6"/>
     </row>
-    <row r="360" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="20"/>
       <c r="D360" s="22"/>
       <c r="F360" s="6"/>
     </row>
-    <row r="361" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="20"/>
       <c r="D361" s="22"/>
       <c r="F361" s="6"/>
     </row>
-    <row r="362" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="20"/>
       <c r="D362" s="22"/>
       <c r="F362" s="6"/>
     </row>
-    <row r="363" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="20"/>
       <c r="D363" s="22"/>
       <c r="F363" s="6"/>
     </row>
-    <row r="364" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="20"/>
       <c r="D364" s="22"/>
       <c r="F364" s="6"/>
     </row>
-    <row r="365" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="20"/>
       <c r="D365" s="22"/>
       <c r="F365" s="6"/>
     </row>
-    <row r="366" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="20"/>
       <c r="D366" s="22"/>
       <c r="F366" s="6"/>
     </row>
-    <row r="367" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="20"/>
       <c r="D367" s="22"/>
       <c r="F367" s="6"/>
     </row>
-    <row r="368" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="20"/>
       <c r="D368" s="22"/>
       <c r="F368" s="6"/>
     </row>
-    <row r="369" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="20"/>
       <c r="D369" s="22"/>
       <c r="F369" s="6"/>
     </row>
-    <row r="370" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="20"/>
       <c r="D370" s="22"/>
       <c r="F370" s="6"/>
     </row>
-    <row r="371" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="20"/>
       <c r="D371" s="22"/>
       <c r="F371" s="6"/>
     </row>
-    <row r="372" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="20"/>
       <c r="D372" s="22"/>
       <c r="F372" s="6"/>
     </row>
-    <row r="373" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="20"/>
       <c r="D373" s="22"/>
       <c r="F373" s="6"/>
     </row>
-    <row r="374" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="20"/>
       <c r="D374" s="22"/>
       <c r="F374" s="6"/>
     </row>
-    <row r="375" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="20"/>
       <c r="D375" s="22"/>
       <c r="F375" s="6"/>
     </row>
-    <row r="376" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="20"/>
       <c r="D376" s="22"/>
       <c r="F376" s="6"/>
     </row>
-    <row r="377" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="20"/>
       <c r="D377" s="22"/>
       <c r="F377" s="6"/>
     </row>
-    <row r="378" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="20"/>
       <c r="D378" s="22"/>
       <c r="F378" s="6"/>
     </row>
-    <row r="379" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="20"/>
       <c r="D379" s="22"/>
       <c r="F379" s="6"/>
     </row>
-    <row r="380" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="20"/>
       <c r="D380" s="22"/>
       <c r="F380" s="6"/>
     </row>
-    <row r="381" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="20"/>
       <c r="D381" s="22"/>
       <c r="F381" s="6"/>
     </row>
-    <row r="382" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="20"/>
       <c r="D382" s="22"/>
       <c r="F382" s="6"/>
     </row>
-    <row r="383" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="20"/>
       <c r="D383" s="22"/>
       <c r="F383" s="6"/>
     </row>
-    <row r="384" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="20"/>
       <c r="D384" s="22"/>
       <c r="F384" s="6"/>
     </row>
-    <row r="385" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="20"/>
       <c r="D385" s="22"/>
       <c r="F385" s="6"/>
     </row>
-    <row r="386" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="20"/>
       <c r="D386" s="22"/>
       <c r="F386" s="6"/>
     </row>
-    <row r="387" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="20"/>
       <c r="D387" s="22"/>
       <c r="F387" s="6"/>
     </row>
-    <row r="388" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="20"/>
       <c r="D388" s="22"/>
       <c r="F388" s="6"/>
     </row>
-    <row r="389" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="20"/>
       <c r="D389" s="22"/>
       <c r="F389" s="6"/>
     </row>
-    <row r="390" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="20"/>
       <c r="D390" s="22"/>
       <c r="F390" s="6"/>
     </row>
-    <row r="391" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="20"/>
       <c r="D391" s="22"/>
       <c r="F391" s="6"/>
     </row>
-    <row r="392" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="20"/>
       <c r="D392" s="22"/>
       <c r="F392" s="6"/>
     </row>
-    <row r="393" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="20"/>
       <c r="D393" s="22"/>
       <c r="F393" s="6"/>
     </row>
-    <row r="394" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="20"/>
       <c r="D394" s="22"/>
       <c r="F394" s="6"/>
     </row>
-    <row r="395" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="20"/>
       <c r="D395" s="22"/>
       <c r="F395" s="6"/>
     </row>
-    <row r="396" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="20"/>
       <c r="D396" s="22"/>
       <c r="F396" s="6"/>
     </row>
-    <row r="397" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="20"/>
       <c r="D397" s="22"/>
       <c r="F397" s="6"/>
     </row>
-    <row r="398" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="20"/>
       <c r="D398" s="22"/>
       <c r="F398" s="6"/>
     </row>
-    <row r="399" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="20"/>
       <c r="D399" s="22"/>
       <c r="F399" s="6"/>
     </row>
-    <row r="400" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="20"/>
       <c r="D400" s="22"/>
       <c r="F400" s="6"/>
     </row>
-    <row r="401" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="20"/>
       <c r="D401" s="22"/>
       <c r="F401" s="6"/>
     </row>
-    <row r="402" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="20"/>
       <c r="D402" s="22"/>
       <c r="F402" s="6"/>
     </row>
-    <row r="403" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="20"/>
       <c r="D403" s="22"/>
       <c r="F403" s="6"/>
     </row>
-    <row r="404" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="20"/>
       <c r="D404" s="22"/>
       <c r="F404" s="6"/>
     </row>
-    <row r="405" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="20"/>
       <c r="D405" s="22"/>
       <c r="F405" s="6"/>
     </row>
-    <row r="406" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="20"/>
       <c r="D406" s="22"/>
       <c r="F406" s="6"/>
     </row>
-    <row r="407" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="20"/>
       <c r="D407" s="22"/>
       <c r="F407" s="6"/>
     </row>
-    <row r="408" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="20"/>
       <c r="D408" s="22"/>
       <c r="F408" s="6"/>
     </row>
-    <row r="409" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="20"/>
       <c r="D409" s="22"/>
       <c r="F409" s="6"/>
     </row>
-    <row r="410" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="20"/>
       <c r="D410" s="22"/>
       <c r="F410" s="6"/>
     </row>
-    <row r="411" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="20"/>
       <c r="D411" s="22"/>
       <c r="F411" s="6"/>
     </row>
-    <row r="412" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="20"/>
       <c r="D412" s="22"/>
       <c r="F412" s="6"/>
     </row>
-    <row r="413" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="20"/>
       <c r="D413" s="22"/>
       <c r="F413" s="6"/>
     </row>
-    <row r="414" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="20"/>
       <c r="D414" s="22"/>
       <c r="F414" s="6"/>
     </row>
-    <row r="415" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="20"/>
       <c r="D415" s="22"/>
       <c r="F415" s="6"/>
     </row>
-    <row r="416" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="20"/>
       <c r="D416" s="22"/>
       <c r="F416" s="6"/>
     </row>
-    <row r="417" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="20"/>
       <c r="D417" s="22"/>
       <c r="F417" s="6"/>
     </row>
-    <row r="418" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="20"/>
       <c r="D418" s="22"/>
       <c r="F418" s="6"/>
     </row>
-    <row r="419" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="20"/>
       <c r="D419" s="22"/>
       <c r="F419" s="6"/>
     </row>
-    <row r="420" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="20"/>
       <c r="D420" s="22"/>
       <c r="F420" s="6"/>
     </row>
-    <row r="421" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="20"/>
       <c r="D421" s="22"/>
       <c r="F421" s="6"/>
     </row>
-    <row r="422" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="20"/>
       <c r="D422" s="22"/>
       <c r="F422" s="6"/>
     </row>
-    <row r="423" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="20"/>
       <c r="D423" s="22"/>
       <c r="F423" s="6"/>
     </row>
-    <row r="424" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="20"/>
       <c r="D424" s="22"/>
       <c r="F424" s="6"/>
     </row>
-    <row r="425" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="20"/>
       <c r="D425" s="22"/>
       <c r="F425" s="6"/>
     </row>
-    <row r="426" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="20"/>
       <c r="D426" s="22"/>
       <c r="F426" s="6"/>
     </row>
-    <row r="427" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="20"/>
       <c r="D427" s="22"/>
       <c r="F427" s="6"/>
     </row>
-    <row r="428" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="20"/>
       <c r="D428" s="22"/>
       <c r="F428" s="6"/>
     </row>
-    <row r="429" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="20"/>
       <c r="D429" s="22"/>
       <c r="F429" s="6"/>
     </row>
-    <row r="430" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="20"/>
       <c r="D430" s="22"/>
       <c r="F430" s="6"/>
     </row>
-    <row r="431" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="20"/>
       <c r="D431" s="22"/>
       <c r="F431" s="6"/>
     </row>
-    <row r="432" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="20"/>
       <c r="D432" s="22"/>
       <c r="F432" s="6"/>
     </row>
-    <row r="433" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="20"/>
       <c r="D433" s="22"/>
       <c r="F433" s="6"/>
     </row>
-    <row r="434" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="20"/>
       <c r="D434" s="22"/>
       <c r="F434" s="6"/>
     </row>
-    <row r="435" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="20"/>
       <c r="D435" s="22"/>
       <c r="F435" s="6"/>
     </row>
-    <row r="436" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="20"/>
       <c r="D436" s="22"/>
       <c r="F436" s="6"/>
     </row>
-    <row r="437" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="20"/>
       <c r="D437" s="22"/>
       <c r="F437" s="6"/>
     </row>
-    <row r="438" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="20"/>
       <c r="D438" s="22"/>
       <c r="F438" s="6"/>
     </row>
-    <row r="439" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="20"/>
       <c r="D439" s="22"/>
       <c r="F439" s="6"/>
     </row>
-    <row r="440" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="20"/>
       <c r="D440" s="22"/>
       <c r="F440" s="6"/>
     </row>
-    <row r="441" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="20"/>
       <c r="D441" s="22"/>
       <c r="F441" s="6"/>
     </row>
-    <row r="442" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="20"/>
       <c r="D442" s="22"/>
       <c r="F442" s="6"/>
     </row>
-    <row r="443" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="20"/>
       <c r="D443" s="22"/>
       <c r="F443" s="6"/>
     </row>
-    <row r="444" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="20"/>
       <c r="D444" s="22"/>
       <c r="F444" s="6"/>
     </row>
-    <row r="445" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="20"/>
       <c r="D445" s="22"/>
       <c r="F445" s="6"/>
     </row>
-    <row r="446" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="20"/>
       <c r="D446" s="22"/>
       <c r="F446" s="6"/>
     </row>
-    <row r="447" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="20"/>
       <c r="D447" s="22"/>
       <c r="F447" s="6"/>
     </row>
-    <row r="448" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="20"/>
       <c r="D448" s="22"/>
       <c r="F448" s="6"/>
     </row>
-    <row r="449" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="20"/>
       <c r="D449" s="22"/>
       <c r="F449" s="6"/>
     </row>
-    <row r="450" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="20"/>
       <c r="D450" s="22"/>
       <c r="F450" s="6"/>
     </row>
-    <row r="451" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="20"/>
       <c r="D451" s="22"/>
       <c r="F451" s="6"/>
     </row>
-    <row r="452" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="20"/>
       <c r="D452" s="22"/>
       <c r="F452" s="6"/>
     </row>
-    <row r="453" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="20"/>
       <c r="D453" s="22"/>
       <c r="F453" s="6"/>
     </row>
-    <row r="454" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="20"/>
       <c r="D454" s="22"/>
       <c r="F454" s="6"/>
     </row>
-    <row r="455" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="20"/>
       <c r="D455" s="22"/>
       <c r="F455" s="6"/>
     </row>
-    <row r="456" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="20"/>
       <c r="D456" s="22"/>
       <c r="F456" s="6"/>
     </row>
-    <row r="457" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="20"/>
       <c r="D457" s="22"/>
       <c r="F457" s="6"/>
     </row>
-    <row r="458" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="20"/>
       <c r="D458" s="22"/>
       <c r="F458" s="6"/>
     </row>
-    <row r="459" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="20"/>
       <c r="D459" s="22"/>
       <c r="F459" s="6"/>
     </row>
-    <row r="460" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="20"/>
       <c r="D460" s="22"/>
       <c r="F460" s="6"/>
     </row>
-    <row r="461" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="20"/>
       <c r="D461" s="22"/>
       <c r="F461" s="6"/>
     </row>
-    <row r="462" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="20"/>
       <c r="D462" s="22"/>
       <c r="F462" s="6"/>
     </row>
-    <row r="463" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="20"/>
       <c r="D463" s="22"/>
       <c r="F463" s="6"/>
     </row>
-    <row r="464" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="20"/>
       <c r="D464" s="22"/>
       <c r="F464" s="6"/>
     </row>
-    <row r="465" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="20"/>
       <c r="D465" s="22"/>
       <c r="F465" s="6"/>
     </row>
-    <row r="466" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="20"/>
       <c r="D466" s="22"/>
       <c r="F466" s="6"/>
     </row>
-    <row r="467" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="20"/>
       <c r="D467" s="22"/>
       <c r="F467" s="6"/>
     </row>
-    <row r="468" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="20"/>
       <c r="D468" s="22"/>
       <c r="F468" s="6"/>
     </row>
-    <row r="469" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="20"/>
       <c r="D469" s="22"/>
       <c r="F469" s="6"/>
     </row>
-    <row r="470" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="20"/>
       <c r="D470" s="22"/>
       <c r="F470" s="6"/>
     </row>
-    <row r="471" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="20"/>
       <c r="D471" s="22"/>
       <c r="F471" s="6"/>
     </row>
-    <row r="472" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="20"/>
       <c r="D472" s="22"/>
       <c r="F472" s="6"/>
     </row>
-    <row r="473" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="20"/>
       <c r="D473" s="22"/>
       <c r="F473" s="6"/>
     </row>
-    <row r="474" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="20"/>
       <c r="D474" s="22"/>
       <c r="F474" s="6"/>
     </row>
-    <row r="475" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="20"/>
       <c r="D475" s="22"/>
       <c r="F475" s="6"/>
     </row>
-    <row r="476" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="20"/>
       <c r="D476" s="22"/>
       <c r="F476" s="6"/>
     </row>
-    <row r="477" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="20"/>
       <c r="D477" s="22"/>
       <c r="F477" s="6"/>
     </row>
-    <row r="478" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="20"/>
       <c r="D478" s="22"/>
       <c r="F478" s="6"/>
     </row>
-    <row r="479" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="20"/>
       <c r="D479" s="22"/>
       <c r="F479" s="6"/>
     </row>
-    <row r="480" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="20"/>
       <c r="D480" s="22"/>
       <c r="F480" s="6"/>
     </row>
-    <row r="481" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="20"/>
       <c r="D481" s="22"/>
       <c r="F481" s="6"/>
     </row>
-    <row r="482" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="20"/>
       <c r="D482" s="22"/>
       <c r="F482" s="6"/>
     </row>
-    <row r="483" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="20"/>
       <c r="D483" s="22"/>
       <c r="F483" s="6"/>
     </row>
-    <row r="484" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="20"/>
       <c r="D484" s="22"/>
       <c r="F484" s="6"/>
     </row>
-    <row r="485" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="20"/>
       <c r="D485" s="22"/>
       <c r="F485" s="6"/>
     </row>
-    <row r="486" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="20"/>
       <c r="D486" s="22"/>
       <c r="F486" s="6"/>
     </row>
-    <row r="487" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="20"/>
       <c r="D487" s="22"/>
       <c r="F487" s="6"/>
     </row>
-    <row r="488" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="20"/>
       <c r="D488" s="22"/>
       <c r="F488" s="6"/>
     </row>
-    <row r="489" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="20"/>
       <c r="D489" s="22"/>
       <c r="F489" s="6"/>
     </row>
-    <row r="490" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="20"/>
       <c r="D490" s="22"/>
       <c r="F490" s="6"/>
     </row>
-    <row r="491" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="20"/>
       <c r="D491" s="22"/>
       <c r="F491" s="6"/>
     </row>
-    <row r="492" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="20"/>
       <c r="D492" s="22"/>
       <c r="F492" s="6"/>
     </row>
-    <row r="493" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="20"/>
       <c r="D493" s="22"/>
       <c r="F493" s="6"/>
     </row>
-    <row r="494" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="20"/>
       <c r="D494" s="22"/>
       <c r="F494" s="6"/>
     </row>
-    <row r="495" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="20"/>
       <c r="D495" s="22"/>
       <c r="F495" s="6"/>
     </row>
-    <row r="496" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="20"/>
       <c r="D496" s="22"/>
       <c r="F496" s="6"/>
     </row>
-    <row r="497" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="20"/>
       <c r="D497" s="22"/>
       <c r="F497" s="6"/>
     </row>
-    <row r="498" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="20"/>
       <c r="D498" s="22"/>
       <c r="F498" s="6"/>
     </row>
-    <row r="499" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="20"/>
       <c r="D499" s="22"/>
       <c r="F499" s="6"/>
     </row>
-    <row r="500" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="20"/>
       <c r="D500" s="22"/>
       <c r="F500" s="6"/>
     </row>
-    <row r="501" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="20"/>
       <c r="D501" s="22"/>
       <c r="F501" s="6"/>
     </row>
-    <row r="502" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="20"/>
       <c r="D502" s="22"/>
       <c r="F502" s="6"/>
     </row>
-    <row r="503" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="20"/>
       <c r="D503" s="22"/>
       <c r="F503" s="6"/>
     </row>
-    <row r="504" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="20"/>
       <c r="D504" s="22"/>
       <c r="F504" s="6"/>
     </row>
-    <row r="505" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="20"/>
       <c r="D505" s="22"/>
       <c r="F505" s="6"/>
     </row>
-    <row r="506" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="20"/>
       <c r="D506" s="22"/>
       <c r="F506" s="6"/>
     </row>
-    <row r="507" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="20"/>
       <c r="D507" s="22"/>
       <c r="F507" s="6"/>
     </row>
-    <row r="508" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="20"/>
       <c r="D508" s="22"/>
       <c r="F508" s="6"/>
     </row>
-    <row r="509" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="20"/>
       <c r="D509" s="22"/>
       <c r="F509" s="6"/>
     </row>
-    <row r="510" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="20"/>
       <c r="D510" s="22"/>
       <c r="F510" s="6"/>
     </row>
-    <row r="511" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="20"/>
       <c r="D511" s="22"/>
       <c r="F511" s="6"/>
     </row>
-    <row r="512" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="20"/>
       <c r="D512" s="22"/>
       <c r="F512" s="6"/>
     </row>
-    <row r="513" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="20"/>
       <c r="D513" s="22"/>
       <c r="F513" s="6"/>
     </row>
-    <row r="514" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="20"/>
       <c r="D514" s="22"/>
       <c r="F514" s="6"/>
     </row>
-    <row r="515" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="20"/>
       <c r="D515" s="22"/>
       <c r="F515" s="6"/>
     </row>
-    <row r="516" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="20"/>
       <c r="D516" s="22"/>
       <c r="F516" s="6"/>
     </row>
-    <row r="517" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="20"/>
       <c r="D517" s="22"/>
       <c r="F517" s="6"/>
     </row>
-    <row r="518" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="20"/>
       <c r="D518" s="22"/>
       <c r="F518" s="6"/>
     </row>
-    <row r="519" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="20"/>
       <c r="D519" s="22"/>
       <c r="F519" s="6"/>
     </row>
-    <row r="520" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="20"/>
       <c r="D520" s="22"/>
       <c r="F520" s="6"/>
     </row>
-    <row r="521" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="20"/>
       <c r="D521" s="22"/>
       <c r="F521" s="6"/>
     </row>
-    <row r="522" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="20"/>
       <c r="D522" s="22"/>
       <c r="F522" s="6"/>
     </row>
-    <row r="523" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="20"/>
       <c r="D523" s="22"/>
       <c r="F523" s="6"/>
     </row>
-    <row r="524" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="20"/>
       <c r="D524" s="22"/>
       <c r="F524" s="6"/>
     </row>
-    <row r="525" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="20"/>
       <c r="D525" s="22"/>
       <c r="F525" s="6"/>
     </row>
-    <row r="526" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="20"/>
       <c r="D526" s="22"/>
       <c r="F526" s="6"/>
     </row>
-    <row r="527" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="20"/>
       <c r="D527" s="22"/>
       <c r="F527" s="6"/>
     </row>
-    <row r="528" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="20"/>
       <c r="D528" s="22"/>
       <c r="F528" s="6"/>
     </row>
-    <row r="529" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="20"/>
       <c r="D529" s="22"/>
       <c r="F529" s="6"/>
     </row>
-    <row r="530" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="20"/>
       <c r="D530" s="22"/>
       <c r="F530" s="6"/>
     </row>
-    <row r="531" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="20"/>
       <c r="D531" s="22"/>
       <c r="F531" s="6"/>
     </row>
-    <row r="532" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="20"/>
       <c r="D532" s="22"/>
       <c r="F532" s="6"/>
     </row>
-    <row r="533" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="20"/>
       <c r="D533" s="22"/>
       <c r="F533" s="6"/>
     </row>
-    <row r="534" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="20"/>
       <c r="D534" s="22"/>
       <c r="F534" s="6"/>
     </row>
-    <row r="535" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="20"/>
       <c r="D535" s="22"/>
       <c r="F535" s="6"/>
     </row>
-    <row r="536" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="20"/>
       <c r="D536" s="22"/>
       <c r="F536" s="6"/>
     </row>
-    <row r="537" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="20"/>
       <c r="D537" s="22"/>
       <c r="F537" s="6"/>
     </row>
-    <row r="538" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="20"/>
       <c r="D538" s="22"/>
       <c r="F538" s="6"/>
     </row>
-    <row r="539" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="20"/>
       <c r="D539" s="22"/>
       <c r="F539" s="6"/>
     </row>
-    <row r="540" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="20"/>
       <c r="D540" s="22"/>
       <c r="F540" s="6"/>
     </row>
-    <row r="541" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="20"/>
       <c r="D541" s="22"/>
       <c r="F541" s="6"/>
     </row>
-    <row r="542" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="20"/>
       <c r="D542" s="22"/>
       <c r="F542" s="6"/>
     </row>
-    <row r="543" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="20"/>
       <c r="D543" s="22"/>
       <c r="F543" s="6"/>
     </row>
-    <row r="544" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="20"/>
       <c r="D544" s="22"/>
       <c r="F544" s="6"/>
     </row>
-    <row r="545" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="20"/>
       <c r="D545" s="22"/>
       <c r="F545" s="6"/>
     </row>
-    <row r="546" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="20"/>
       <c r="D546" s="22"/>
       <c r="F546" s="6"/>
     </row>
-    <row r="547" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="20"/>
       <c r="D547" s="22"/>
       <c r="F547" s="6"/>
     </row>
-    <row r="548" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="20"/>
       <c r="D548" s="22"/>
       <c r="F548" s="6"/>
     </row>
-    <row r="549" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="20"/>
       <c r="D549" s="22"/>
       <c r="F549" s="6"/>
     </row>
-    <row r="550" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="20"/>
       <c r="D550" s="22"/>
       <c r="F550" s="6"/>
     </row>
-    <row r="551" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="20"/>
       <c r="D551" s="22"/>
       <c r="F551" s="6"/>
     </row>
-    <row r="552" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="20"/>
       <c r="D552" s="22"/>
       <c r="F552" s="6"/>
     </row>
-    <row r="553" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="20"/>
       <c r="D553" s="22"/>
       <c r="F553" s="6"/>
     </row>
-    <row r="554" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="20"/>
       <c r="D554" s="22"/>
       <c r="F554" s="6"/>
     </row>
-    <row r="555" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="20"/>
       <c r="D555" s="22"/>
       <c r="F555" s="6"/>
     </row>
-    <row r="556" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="20"/>
       <c r="D556" s="22"/>
       <c r="F556" s="6"/>
     </row>
-    <row r="557" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="20"/>
       <c r="D557" s="22"/>
       <c r="F557" s="6"/>
     </row>
-    <row r="558" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="20"/>
       <c r="D558" s="22"/>
       <c r="F558" s="6"/>
     </row>
-    <row r="559" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="20"/>
       <c r="D559" s="22"/>
       <c r="F559" s="6"/>
     </row>
-    <row r="560" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="20"/>
       <c r="D560" s="22"/>
       <c r="F560" s="6"/>
     </row>
-    <row r="561" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="20"/>
       <c r="D561" s="22"/>
       <c r="F561" s="6"/>
     </row>
-    <row r="562" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="20"/>
       <c r="D562" s="22"/>
       <c r="F562" s="6"/>
     </row>
-    <row r="563" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="20"/>
       <c r="D563" s="22"/>
       <c r="F563" s="6"/>
     </row>
-    <row r="564" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="20"/>
       <c r="D564" s="22"/>
       <c r="F564" s="6"/>
     </row>
-    <row r="565" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="20"/>
       <c r="D565" s="22"/>
       <c r="F565" s="6"/>
     </row>
-    <row r="566" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="20"/>
       <c r="D566" s="22"/>
       <c r="F566" s="6"/>
     </row>
-    <row r="567" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="20"/>
       <c r="D567" s="22"/>
       <c r="F567" s="6"/>
     </row>
-    <row r="568" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="20"/>
       <c r="D568" s="22"/>
       <c r="F568" s="6"/>
     </row>
-    <row r="569" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="20"/>
       <c r="D569" s="22"/>
       <c r="F569" s="6"/>
     </row>
-    <row r="570" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="20"/>
       <c r="D570" s="22"/>
       <c r="F570" s="6"/>
     </row>
-    <row r="571" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="20"/>
       <c r="D571" s="22"/>
       <c r="F571" s="6"/>
     </row>
-    <row r="572" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="20"/>
       <c r="D572" s="22"/>
       <c r="F572" s="6"/>
     </row>
-    <row r="573" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="20"/>
       <c r="D573" s="22"/>
       <c r="F573" s="6"/>
     </row>
-    <row r="574" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="20"/>
       <c r="D574" s="22"/>
       <c r="F574" s="6"/>
     </row>
-    <row r="575" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="20"/>
       <c r="D575" s="22"/>
       <c r="F575" s="6"/>
     </row>
-    <row r="576" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="20"/>
       <c r="D576" s="22"/>
       <c r="F576" s="6"/>
     </row>
-    <row r="577" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="20"/>
       <c r="D577" s="22"/>
       <c r="F577" s="6"/>
     </row>
-    <row r="578" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="20"/>
       <c r="D578" s="22"/>
       <c r="F578" s="6"/>
     </row>
-    <row r="579" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="20"/>
       <c r="D579" s="22"/>
       <c r="F579" s="6"/>
     </row>
-    <row r="580" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="20"/>
       <c r="D580" s="22"/>
       <c r="F580" s="6"/>
     </row>
-    <row r="581" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="20"/>
       <c r="D581" s="22"/>
       <c r="F581" s="6"/>
     </row>
-    <row r="582" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="20"/>
       <c r="D582" s="22"/>
       <c r="F582" s="6"/>
     </row>
-    <row r="583" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="20"/>
       <c r="D583" s="22"/>
       <c r="F583" s="6"/>
     </row>
-    <row r="584" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="20"/>
       <c r="D584" s="22"/>
       <c r="F584" s="6"/>
     </row>
-    <row r="585" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="20"/>
       <c r="D585" s="22"/>
       <c r="F585" s="6"/>
     </row>
-    <row r="586" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="20"/>
       <c r="D586" s="22"/>
       <c r="F586" s="6"/>
     </row>
-    <row r="587" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="20"/>
       <c r="D587" s="22"/>
       <c r="F587" s="6"/>
     </row>
-    <row r="588" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="20"/>
       <c r="D588" s="22"/>
       <c r="F588" s="6"/>
     </row>
-    <row r="589" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="20"/>
       <c r="D589" s="22"/>
       <c r="F589" s="6"/>
     </row>
-    <row r="590" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="20"/>
       <c r="D590" s="22"/>
       <c r="F590" s="6"/>
     </row>
-    <row r="591" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="20"/>
       <c r="D591" s="22"/>
       <c r="F591" s="6"/>
     </row>
-    <row r="592" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="20"/>
       <c r="D592" s="22"/>
       <c r="F592" s="6"/>
     </row>
-    <row r="593" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="20"/>
       <c r="D593" s="22"/>
       <c r="F593" s="6"/>
     </row>
-    <row r="594" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="20"/>
       <c r="D594" s="22"/>
       <c r="F594" s="6"/>
     </row>
-    <row r="595" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="20"/>
       <c r="D595" s="22"/>
       <c r="F595" s="6"/>
     </row>
-    <row r="596" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="20"/>
       <c r="D596" s="22"/>
       <c r="F596" s="6"/>
     </row>
-    <row r="597" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="20"/>
       <c r="D597" s="22"/>
       <c r="F597" s="6"/>
     </row>
-    <row r="598" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="20"/>
       <c r="D598" s="22"/>
       <c r="F598" s="6"/>
     </row>
-    <row r="599" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="20"/>
       <c r="D599" s="22"/>
       <c r="F599" s="6"/>
     </row>
-    <row r="600" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="20"/>
       <c r="D600" s="22"/>
       <c r="F600" s="6"/>
     </row>
-    <row r="601" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="20"/>
       <c r="D601" s="22"/>
       <c r="F601" s="6"/>
     </row>
-    <row r="602" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="20"/>
       <c r="D602" s="22"/>
       <c r="F602" s="6"/>
     </row>
-    <row r="603" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="20"/>
       <c r="D603" s="22"/>
       <c r="F603" s="6"/>
     </row>
-    <row r="604" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="20"/>
       <c r="D604" s="22"/>
       <c r="F604" s="6"/>
     </row>
-    <row r="605" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="20"/>
       <c r="D605" s="22"/>
       <c r="F605" s="6"/>
     </row>
-    <row r="606" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="20"/>
       <c r="D606" s="22"/>
       <c r="F606" s="6"/>
     </row>
-    <row r="607" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="20"/>
       <c r="D607" s="22"/>
       <c r="F607" s="6"/>
     </row>
-    <row r="608" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="20"/>
       <c r="D608" s="22"/>
       <c r="F608" s="6"/>
     </row>
-    <row r="609" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="20"/>
       <c r="D609" s="22"/>
       <c r="F609" s="6"/>
     </row>
-    <row r="610" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="20"/>
       <c r="D610" s="22"/>
       <c r="F610" s="6"/>
     </row>
-    <row r="611" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="20"/>
       <c r="D611" s="22"/>
       <c r="F611" s="6"/>
     </row>
-    <row r="612" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="20"/>
       <c r="D612" s="22"/>
       <c r="F612" s="6"/>
     </row>
-    <row r="613" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="20"/>
       <c r="D613" s="22"/>
       <c r="F613" s="6"/>
     </row>
-    <row r="614" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="20"/>
       <c r="D614" s="22"/>
       <c r="F614" s="6"/>
     </row>
-    <row r="615" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="20"/>
       <c r="D615" s="22"/>
       <c r="F615" s="6"/>
     </row>
-    <row r="616" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="20"/>
       <c r="D616" s="22"/>
       <c r="F616" s="6"/>
     </row>
-    <row r="617" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="20"/>
       <c r="D617" s="22"/>
       <c r="F617" s="6"/>
     </row>
-    <row r="618" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="20"/>
       <c r="D618" s="22"/>
       <c r="F618" s="6"/>
     </row>
-    <row r="619" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="20"/>
       <c r="D619" s="22"/>
       <c r="F619" s="6"/>
     </row>
-    <row r="620" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="20"/>
       <c r="D620" s="22"/>
       <c r="F620" s="6"/>
     </row>
-    <row r="621" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="20"/>
       <c r="D621" s="22"/>
       <c r="F621" s="6"/>
     </row>
-    <row r="622" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="20"/>
       <c r="D622" s="22"/>
       <c r="F622" s="6"/>
     </row>
-    <row r="623" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="20"/>
       <c r="D623" s="22"/>
       <c r="F623" s="6"/>
     </row>
-    <row r="624" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="20"/>
       <c r="D624" s="22"/>
       <c r="F624" s="6"/>
     </row>
-    <row r="625" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="20"/>
       <c r="D625" s="22"/>
       <c r="F625" s="6"/>
     </row>
-    <row r="626" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="20"/>
       <c r="D626" s="22"/>
       <c r="F626" s="6"/>
     </row>
-    <row r="627" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="20"/>
       <c r="D627" s="22"/>
       <c r="F627" s="6"/>
     </row>
-    <row r="628" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="20"/>
       <c r="D628" s="22"/>
       <c r="F628" s="6"/>
     </row>
-    <row r="629" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="20"/>
       <c r="D629" s="22"/>
       <c r="F629" s="6"/>
     </row>
-    <row r="630" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="20"/>
       <c r="D630" s="22"/>
       <c r="F630" s="6"/>
     </row>
-    <row r="631" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="20"/>
       <c r="D631" s="22"/>
       <c r="F631" s="6"/>
     </row>
-    <row r="632" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="20"/>
       <c r="D632" s="22"/>
       <c r="F632" s="6"/>
     </row>
-    <row r="633" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="20"/>
       <c r="D633" s="22"/>
       <c r="F633" s="6"/>
     </row>
-    <row r="634" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="20"/>
       <c r="D634" s="22"/>
       <c r="F634" s="6"/>
     </row>
-    <row r="635" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="20"/>
       <c r="D635" s="22"/>
       <c r="F635" s="6"/>
     </row>
-    <row r="636" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="20"/>
       <c r="D636" s="22"/>
       <c r="F636" s="6"/>
     </row>
-    <row r="637" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="20"/>
       <c r="D637" s="22"/>
       <c r="F637" s="6"/>
     </row>
-    <row r="638" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="20"/>
       <c r="D638" s="22"/>
       <c r="F638" s="6"/>
     </row>
-    <row r="639" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="20"/>
       <c r="D639" s="22"/>
       <c r="F639" s="6"/>
     </row>
-    <row r="640" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="20"/>
       <c r="D640" s="22"/>
       <c r="F640" s="6"/>
     </row>
-    <row r="641" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="20"/>
       <c r="D641" s="22"/>
       <c r="F641" s="6"/>
     </row>
-    <row r="642" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="20"/>
       <c r="D642" s="22"/>
       <c r="F642" s="6"/>
     </row>
-    <row r="643" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="20"/>
       <c r="D643" s="22"/>
       <c r="F643" s="6"/>
     </row>
-    <row r="644" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="20"/>
       <c r="D644" s="22"/>
       <c r="F644" s="6"/>
     </row>
-    <row r="645" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="20"/>
       <c r="D645" s="22"/>
       <c r="F645" s="6"/>
     </row>
-    <row r="646" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="20"/>
       <c r="D646" s="22"/>
       <c r="F646" s="6"/>
     </row>
-    <row r="647" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="20"/>
       <c r="D647" s="22"/>
       <c r="F647" s="6"/>
     </row>
-    <row r="648" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="20"/>
       <c r="D648" s="22"/>
       <c r="F648" s="6"/>
     </row>
-    <row r="649" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="20"/>
       <c r="D649" s="22"/>
       <c r="F649" s="6"/>
     </row>
-    <row r="650" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="20"/>
       <c r="D650" s="22"/>
       <c r="F650" s="6"/>
     </row>
-    <row r="651" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="20"/>
       <c r="D651" s="22"/>
       <c r="F651" s="6"/>
     </row>
-    <row r="652" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="20"/>
       <c r="D652" s="22"/>
       <c r="F652" s="6"/>
     </row>
-    <row r="653" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="20"/>
       <c r="D653" s="22"/>
       <c r="F653" s="6"/>
     </row>
-    <row r="654" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="20"/>
       <c r="D654" s="22"/>
       <c r="F654" s="6"/>
     </row>
-    <row r="655" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="20"/>
       <c r="D655" s="22"/>
       <c r="F655" s="6"/>
     </row>
-    <row r="656" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="20"/>
       <c r="D656" s="22"/>
       <c r="F656" s="6"/>
     </row>
-    <row r="657" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="20"/>
       <c r="D657" s="22"/>
       <c r="F657" s="6"/>
     </row>
-    <row r="658" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="20"/>
       <c r="D658" s="22"/>
       <c r="F658" s="6"/>
     </row>
-    <row r="659" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="20"/>
       <c r="D659" s="22"/>
       <c r="F659" s="6"/>
     </row>
-    <row r="660" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="20"/>
       <c r="D660" s="22"/>
       <c r="F660" s="6"/>
     </row>
-    <row r="661" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="20"/>
       <c r="D661" s="22"/>
       <c r="F661" s="6"/>
     </row>
-    <row r="662" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="20"/>
       <c r="D662" s="22"/>
       <c r="F662" s="6"/>
     </row>
-    <row r="663" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="20"/>
       <c r="D663" s="22"/>
       <c r="F663" s="6"/>
     </row>
-    <row r="664" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="20"/>
       <c r="D664" s="22"/>
       <c r="F664" s="6"/>
     </row>
-    <row r="665" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="20"/>
       <c r="D665" s="22"/>
       <c r="F665" s="6"/>
     </row>
-    <row r="666" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="20"/>
       <c r="D666" s="22"/>
       <c r="F666" s="6"/>
     </row>
-    <row r="667" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="20"/>
       <c r="D667" s="22"/>
       <c r="F667" s="6"/>
     </row>
-    <row r="668" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="20"/>
       <c r="D668" s="22"/>
       <c r="F668" s="6"/>
     </row>
-    <row r="669" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="20"/>
       <c r="D669" s="22"/>
       <c r="F669" s="6"/>
     </row>
-    <row r="670" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="20"/>
       <c r="D670" s="22"/>
       <c r="F670" s="6"/>
     </row>
-    <row r="671" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="20"/>
       <c r="D671" s="22"/>
       <c r="F671" s="6"/>
     </row>
-    <row r="672" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="20"/>
       <c r="D672" s="22"/>
       <c r="F672" s="6"/>
     </row>
-    <row r="673" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="20"/>
       <c r="D673" s="22"/>
       <c r="F673" s="6"/>
     </row>
-    <row r="674" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="20"/>
       <c r="D674" s="22"/>
       <c r="F674" s="6"/>
     </row>
-    <row r="675" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="20"/>
       <c r="D675" s="22"/>
       <c r="F675" s="6"/>
     </row>
-    <row r="676" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="20"/>
       <c r="D676" s="22"/>
       <c r="F676" s="6"/>
     </row>
-    <row r="677" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="20"/>
       <c r="D677" s="22"/>
       <c r="F677" s="6"/>
     </row>
-    <row r="678" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="20"/>
       <c r="D678" s="22"/>
       <c r="F678" s="6"/>
     </row>
-    <row r="679" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="20"/>
       <c r="D679" s="22"/>
       <c r="F679" s="6"/>
     </row>
-    <row r="680" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="20"/>
       <c r="D680" s="22"/>
       <c r="F680" s="6"/>
     </row>
-    <row r="681" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="20"/>
       <c r="D681" s="22"/>
       <c r="F681" s="6"/>
     </row>
-    <row r="682" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="20"/>
       <c r="D682" s="22"/>
       <c r="F682" s="6"/>
     </row>
-    <row r="683" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="20"/>
       <c r="D683" s="22"/>
       <c r="F683" s="6"/>
     </row>
-    <row r="684" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="20"/>
       <c r="D684" s="22"/>
       <c r="F684" s="6"/>
     </row>
-    <row r="685" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="20"/>
       <c r="D685" s="22"/>
       <c r="F685" s="6"/>
     </row>
-    <row r="686" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="20"/>
       <c r="D686" s="22"/>
       <c r="F686" s="6"/>
     </row>
-    <row r="687" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="20"/>
       <c r="D687" s="22"/>
       <c r="F687" s="6"/>
     </row>
-    <row r="688" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="20"/>
       <c r="D688" s="22"/>
       <c r="F688" s="6"/>
     </row>
-    <row r="689" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="20"/>
       <c r="D689" s="22"/>
       <c r="F689" s="6"/>
     </row>
-    <row r="690" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="20"/>
       <c r="D690" s="22"/>
       <c r="F690" s="6"/>
     </row>
-    <row r="691" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="20"/>
       <c r="D691" s="22"/>
       <c r="F691" s="6"/>
     </row>
-    <row r="692" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="20"/>
       <c r="D692" s="22"/>
       <c r="F692" s="6"/>
     </row>
-    <row r="693" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="20"/>
       <c r="D693" s="22"/>
       <c r="F693" s="6"/>
     </row>
-    <row r="694" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="20"/>
       <c r="D694" s="22"/>
       <c r="F694" s="6"/>
     </row>
-    <row r="695" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="20"/>
       <c r="D695" s="22"/>
       <c r="F695" s="6"/>
     </row>
-    <row r="696" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="20"/>
       <c r="D696" s="22"/>
       <c r="F696" s="6"/>
     </row>
-    <row r="697" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="20"/>
       <c r="D697" s="22"/>
       <c r="F697" s="6"/>
     </row>
-    <row r="698" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="20"/>
       <c r="D698" s="22"/>
       <c r="F698" s="6"/>
     </row>
-    <row r="699" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="20"/>
       <c r="D699" s="22"/>
       <c r="F699" s="6"/>
     </row>
-    <row r="700" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="20"/>
       <c r="D700" s="22"/>
       <c r="F700" s="6"/>
     </row>
-    <row r="701" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="20"/>
       <c r="D701" s="22"/>
       <c r="F701" s="6"/>
     </row>
-    <row r="702" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="20"/>
       <c r="D702" s="22"/>
       <c r="F702" s="6"/>
     </row>
-    <row r="703" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="20"/>
       <c r="D703" s="22"/>
       <c r="F703" s="6"/>
     </row>
-    <row r="704" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="20"/>
       <c r="D704" s="22"/>
       <c r="F704" s="6"/>
     </row>
-    <row r="705" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="20"/>
       <c r="D705" s="22"/>
       <c r="F705" s="6"/>
     </row>
-    <row r="706" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="20"/>
       <c r="D706" s="22"/>
       <c r="F706" s="6"/>
     </row>
-    <row r="707" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="20"/>
       <c r="D707" s="22"/>
       <c r="F707" s="6"/>
     </row>
-    <row r="708" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="20"/>
       <c r="D708" s="22"/>
       <c r="F708" s="6"/>
     </row>
-    <row r="709" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="20"/>
       <c r="D709" s="22"/>
       <c r="F709" s="6"/>
     </row>
-    <row r="710" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="20"/>
       <c r="D710" s="22"/>
       <c r="F710" s="6"/>
     </row>
-    <row r="711" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="20"/>
       <c r="D711" s="22"/>
       <c r="F711" s="6"/>
     </row>
-    <row r="712" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="20"/>
       <c r="D712" s="22"/>
       <c r="F712" s="6"/>
     </row>
-    <row r="713" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="20"/>
       <c r="D713" s="22"/>
       <c r="F713" s="6"/>
     </row>
-    <row r="714" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="20"/>
       <c r="D714" s="22"/>
       <c r="F714" s="6"/>
     </row>
-    <row r="715" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="20"/>
       <c r="D715" s="22"/>
       <c r="F715" s="6"/>
     </row>
-    <row r="716" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="20"/>
       <c r="D716" s="22"/>
       <c r="F716" s="6"/>
     </row>
-    <row r="717" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="20"/>
       <c r="D717" s="22"/>
       <c r="F717" s="6"/>
     </row>
-    <row r="718" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="20"/>
       <c r="D718" s="22"/>
       <c r="F718" s="6"/>
     </row>
-    <row r="719" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="20"/>
       <c r="D719" s="22"/>
       <c r="F719" s="6"/>
     </row>
-    <row r="720" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="20"/>
       <c r="D720" s="22"/>
       <c r="F720" s="6"/>
     </row>
-    <row r="721" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="20"/>
       <c r="D721" s="22"/>
       <c r="F721" s="6"/>
     </row>
-    <row r="722" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="20"/>
       <c r="D722" s="22"/>
       <c r="F722" s="6"/>
     </row>
-    <row r="723" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="20"/>
       <c r="D723" s="22"/>
       <c r="F723" s="6"/>
     </row>
-    <row r="724" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="20"/>
       <c r="D724" s="22"/>
       <c r="F724" s="6"/>
     </row>
-    <row r="725" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="20"/>
       <c r="D725" s="22"/>
       <c r="F725" s="6"/>
     </row>
-    <row r="726" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="20"/>
       <c r="D726" s="22"/>
       <c r="F726" s="6"/>
     </row>
-    <row r="727" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="20"/>
       <c r="D727" s="22"/>
       <c r="F727" s="6"/>
     </row>
-    <row r="728" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="20"/>
       <c r="D728" s="22"/>
       <c r="F728" s="6"/>
     </row>
-    <row r="729" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="20"/>
       <c r="D729" s="22"/>
       <c r="F729" s="6"/>
     </row>
-    <row r="730" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="20"/>
       <c r="D730" s="22"/>
       <c r="F730" s="6"/>
     </row>
-    <row r="731" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="20"/>
       <c r="D731" s="22"/>
       <c r="F731" s="6"/>
     </row>
-    <row r="732" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="20"/>
       <c r="D732" s="22"/>
       <c r="F732" s="6"/>
     </row>
-    <row r="733" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="20"/>
       <c r="D733" s="22"/>
       <c r="F733" s="6"/>
     </row>
-    <row r="734" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="20"/>
       <c r="D734" s="22"/>
       <c r="F734" s="6"/>
     </row>
-    <row r="735" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="20"/>
       <c r="D735" s="22"/>
       <c r="F735" s="6"/>
     </row>
-    <row r="736" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="20"/>
       <c r="D736" s="22"/>
       <c r="F736" s="6"/>
     </row>
-    <row r="737" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="20"/>
       <c r="D737" s="22"/>
       <c r="F737" s="6"/>
     </row>
-    <row r="738" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="20"/>
       <c r="D738" s="22"/>
       <c r="F738" s="6"/>
     </row>
-    <row r="739" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="20"/>
       <c r="D739" s="22"/>
       <c r="F739" s="6"/>
     </row>
-    <row r="740" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="20"/>
       <c r="D740" s="22"/>
       <c r="F740" s="6"/>
     </row>
-    <row r="741" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="20"/>
       <c r="D741" s="22"/>
       <c r="F741" s="6"/>
     </row>
-    <row r="742" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="20"/>
       <c r="D742" s="22"/>
       <c r="F742" s="6"/>
     </row>
-    <row r="743" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="20"/>
       <c r="D743" s="22"/>
       <c r="F743" s="6"/>
     </row>
-    <row r="744" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="20"/>
       <c r="D744" s="22"/>
       <c r="F744" s="6"/>
     </row>
-    <row r="745" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="20"/>
       <c r="D745" s="22"/>
       <c r="F745" s="6"/>
     </row>
-    <row r="746" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="20"/>
       <c r="D746" s="22"/>
       <c r="F746" s="6"/>
     </row>
-    <row r="747" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="20"/>
       <c r="D747" s="22"/>
       <c r="F747" s="6"/>
     </row>
-    <row r="748" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="20"/>
       <c r="D748" s="22"/>
       <c r="F748" s="6"/>
     </row>
-    <row r="749" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="20"/>
       <c r="D749" s="22"/>
       <c r="F749" s="6"/>
     </row>
-    <row r="750" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="20"/>
       <c r="D750" s="22"/>
       <c r="F750" s="6"/>
     </row>
-    <row r="751" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="20"/>
       <c r="D751" s="22"/>
       <c r="F751" s="6"/>
     </row>
-    <row r="752" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="20"/>
       <c r="D752" s="22"/>
       <c r="F752" s="6"/>
     </row>
-    <row r="753" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="20"/>
       <c r="D753" s="22"/>
       <c r="F753" s="6"/>
     </row>
-    <row r="754" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="20"/>
       <c r="D754" s="22"/>
       <c r="F754" s="6"/>
     </row>
-    <row r="755" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="20"/>
       <c r="D755" s="22"/>
       <c r="F755" s="6"/>
     </row>
-    <row r="756" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="20"/>
       <c r="D756" s="22"/>
       <c r="F756" s="6"/>
     </row>
-    <row r="757" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="20"/>
       <c r="D757" s="22"/>
       <c r="F757" s="6"/>
     </row>
-    <row r="758" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="20"/>
       <c r="D758" s="22"/>
       <c r="F758" s="6"/>
     </row>
-    <row r="759" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="20"/>
       <c r="D759" s="22"/>
       <c r="F759" s="6"/>
     </row>
-    <row r="760" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="20"/>
       <c r="D760" s="22"/>
       <c r="F760" s="6"/>
     </row>
-    <row r="761" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="20"/>
       <c r="D761" s="22"/>
       <c r="F761" s="6"/>
     </row>
-    <row r="762" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="20"/>
       <c r="D762" s="22"/>
       <c r="F762" s="6"/>
     </row>
-    <row r="763" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="20"/>
       <c r="D763" s="22"/>
       <c r="F763" s="6"/>
     </row>
-    <row r="764" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="20"/>
       <c r="D764" s="22"/>
       <c r="F764" s="6"/>
     </row>
-    <row r="765" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="20"/>
       <c r="D765" s="22"/>
       <c r="F765" s="6"/>
     </row>
-    <row r="766" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="20"/>
       <c r="D766" s="22"/>
       <c r="F766" s="6"/>
     </row>
-    <row r="767" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="20"/>
       <c r="D767" s="22"/>
       <c r="F767" s="6"/>
     </row>
-    <row r="768" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="20"/>
       <c r="D768" s="22"/>
       <c r="F768" s="6"/>
     </row>
-    <row r="769" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="20"/>
       <c r="D769" s="22"/>
       <c r="F769" s="6"/>
     </row>
-    <row r="770" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="20"/>
       <c r="D770" s="22"/>
       <c r="F770" s="6"/>
     </row>
-    <row r="771" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="20"/>
       <c r="D771" s="22"/>
       <c r="F771" s="6"/>
     </row>
-    <row r="772" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="20"/>
       <c r="D772" s="22"/>
       <c r="F772" s="6"/>
     </row>
-    <row r="773" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="20"/>
       <c r="D773" s="22"/>
       <c r="F773" s="6"/>
     </row>
-    <row r="774" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="20"/>
       <c r="D774" s="22"/>
       <c r="F774" s="6"/>
     </row>
-    <row r="775" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="20"/>
       <c r="D775" s="22"/>
       <c r="F775" s="6"/>
     </row>
-    <row r="776" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="20"/>
       <c r="D776" s="22"/>
       <c r="F776" s="6"/>
     </row>
-    <row r="777" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="20"/>
       <c r="D777" s="22"/>
       <c r="F777" s="6"/>
     </row>
-    <row r="778" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="20"/>
       <c r="D778" s="22"/>
       <c r="F778" s="6"/>
     </row>
-    <row r="779" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="20"/>
       <c r="D779" s="22"/>
       <c r="F779" s="6"/>
     </row>
-    <row r="780" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="20"/>
       <c r="D780" s="22"/>
       <c r="F780" s="6"/>
     </row>
-    <row r="781" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="20"/>
       <c r="D781" s="22"/>
       <c r="F781" s="6"/>
     </row>
-    <row r="782" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="20"/>
       <c r="D782" s="22"/>
       <c r="F782" s="6"/>
     </row>
-    <row r="783" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="20"/>
       <c r="D783" s="22"/>
       <c r="F783" s="6"/>
     </row>
-    <row r="784" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="20"/>
       <c r="D784" s="22"/>
       <c r="F784" s="6"/>
     </row>
-    <row r="785" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="20"/>
       <c r="D785" s="22"/>
       <c r="F785" s="6"/>
     </row>
-    <row r="786" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="20"/>
       <c r="D786" s="22"/>
       <c r="F786" s="6"/>
     </row>
-    <row r="787" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="20"/>
       <c r="D787" s="22"/>
       <c r="F787" s="6"/>
     </row>
-    <row r="788" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="20"/>
       <c r="D788" s="22"/>
       <c r="F788" s="6"/>
     </row>
-    <row r="789" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="20"/>
       <c r="D789" s="22"/>
       <c r="F789" s="6"/>
     </row>
-    <row r="790" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="20"/>
       <c r="D790" s="22"/>
       <c r="F790" s="6"/>
     </row>
-    <row r="791" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="20"/>
       <c r="D791" s="22"/>
       <c r="F791" s="6"/>
     </row>
-    <row r="792" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="20"/>
       <c r="D792" s="22"/>
       <c r="F792" s="6"/>
     </row>
-    <row r="793" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="20"/>
       <c r="D793" s="22"/>
       <c r="F793" s="6"/>
     </row>
-    <row r="794" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="20"/>
       <c r="D794" s="22"/>
       <c r="F794" s="6"/>
     </row>
-    <row r="795" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="20"/>
       <c r="D795" s="22"/>
       <c r="F795" s="6"/>
     </row>
-    <row r="796" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="20"/>
       <c r="D796" s="22"/>
       <c r="F796" s="6"/>
     </row>
-    <row r="797" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="20"/>
       <c r="D797" s="22"/>
       <c r="F797" s="6"/>
     </row>
-    <row r="798" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="20"/>
       <c r="D798" s="22"/>
       <c r="F798" s="6"/>
     </row>
-    <row r="799" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="20"/>
       <c r="D799" s="22"/>
       <c r="F799" s="6"/>
     </row>
-    <row r="800" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="20"/>
       <c r="D800" s="22"/>
       <c r="F800" s="6"/>
     </row>
-    <row r="801" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="20"/>
       <c r="D801" s="22"/>
       <c r="F801" s="6"/>
     </row>
-    <row r="802" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="20"/>
       <c r="D802" s="22"/>
       <c r="F802" s="6"/>
     </row>
-    <row r="803" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="20"/>
       <c r="D803" s="22"/>
       <c r="F803" s="6"/>
     </row>
-    <row r="804" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="20"/>
       <c r="D804" s="22"/>
       <c r="F804" s="6"/>
     </row>
-    <row r="805" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="20"/>
       <c r="D805" s="22"/>
       <c r="F805" s="6"/>
     </row>
-    <row r="806" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="20"/>
       <c r="D806" s="22"/>
       <c r="F806" s="6"/>
     </row>
-    <row r="807" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="20"/>
       <c r="D807" s="22"/>
       <c r="F807" s="6"/>
     </row>
-    <row r="808" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="20"/>
       <c r="D808" s="22"/>
       <c r="F808" s="6"/>
     </row>
-    <row r="809" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="20"/>
       <c r="D809" s="22"/>
       <c r="F809" s="6"/>
     </row>
-    <row r="810" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="20"/>
       <c r="D810" s="22"/>
       <c r="F810" s="6"/>
     </row>
-    <row r="811" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="20"/>
       <c r="D811" s="22"/>
       <c r="F811" s="6"/>
     </row>
-    <row r="812" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="20"/>
       <c r="D812" s="22"/>
       <c r="F812" s="6"/>
     </row>
-    <row r="813" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="20"/>
       <c r="D813" s="22"/>
       <c r="F813" s="6"/>
     </row>
-    <row r="814" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="20"/>
       <c r="D814" s="22"/>
       <c r="F814" s="6"/>
     </row>
-    <row r="815" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="20"/>
       <c r="D815" s="22"/>
       <c r="F815" s="6"/>
     </row>
-    <row r="816" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="20"/>
       <c r="D816" s="22"/>
       <c r="F816" s="6"/>
     </row>
-    <row r="817" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="20"/>
       <c r="D817" s="22"/>
       <c r="F817" s="6"/>
     </row>
-    <row r="818" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="20"/>
       <c r="D818" s="22"/>
       <c r="F818" s="6"/>
     </row>
-    <row r="819" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="20"/>
       <c r="D819" s="22"/>
       <c r="F819" s="6"/>
     </row>
-    <row r="820" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="20"/>
       <c r="D820" s="22"/>
       <c r="F820" s="6"/>
     </row>
-    <row r="821" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="20"/>
       <c r="D821" s="22"/>
       <c r="F821" s="6"/>
     </row>
-    <row r="822" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="20"/>
       <c r="D822" s="22"/>
       <c r="F822" s="6"/>
     </row>
-    <row r="823" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="20"/>
       <c r="D823" s="22"/>
       <c r="F823" s="6"/>
     </row>
-    <row r="824" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="20"/>
       <c r="D824" s="22"/>
       <c r="F824" s="6"/>
     </row>
-    <row r="825" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="20"/>
       <c r="D825" s="22"/>
       <c r="F825" s="6"/>
     </row>
-    <row r="826" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="20"/>
       <c r="D826" s="22"/>
       <c r="F826" s="6"/>
     </row>
-    <row r="827" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="20"/>
       <c r="D827" s="22"/>
       <c r="F827" s="6"/>
     </row>
-    <row r="828" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="20"/>
       <c r="D828" s="22"/>
       <c r="F828" s="6"/>
     </row>
-    <row r="829" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="20"/>
       <c r="D829" s="22"/>
       <c r="F829" s="6"/>
     </row>
-    <row r="830" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="20"/>
       <c r="D830" s="22"/>
       <c r="F830" s="6"/>
     </row>
-    <row r="831" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="20"/>
       <c r="D831" s="22"/>
       <c r="F831" s="6"/>
     </row>
-    <row r="832" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="20"/>
       <c r="D832" s="22"/>
       <c r="F832" s="6"/>
     </row>
-    <row r="833" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="20"/>
       <c r="D833" s="22"/>
       <c r="F833" s="6"/>
     </row>
-    <row r="834" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="20"/>
       <c r="D834" s="22"/>
       <c r="F834" s="6"/>
     </row>
-    <row r="835" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="20"/>
       <c r="D835" s="22"/>
       <c r="F835" s="6"/>
     </row>
-    <row r="836" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="20"/>
       <c r="D836" s="22"/>
       <c r="F836" s="6"/>
     </row>
-    <row r="837" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="20"/>
       <c r="D837" s="22"/>
       <c r="F837" s="6"/>
     </row>
-    <row r="838" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="20"/>
       <c r="D838" s="22"/>
       <c r="F838" s="6"/>
     </row>
-    <row r="839" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="20"/>
       <c r="D839" s="22"/>
       <c r="F839" s="6"/>
     </row>
-    <row r="840" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="20"/>
       <c r="D840" s="22"/>
       <c r="F840" s="6"/>
     </row>
-    <row r="841" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="20"/>
       <c r="D841" s="22"/>
       <c r="F841" s="6"/>
     </row>
-    <row r="842" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="20"/>
       <c r="D842" s="22"/>
       <c r="F842" s="6"/>
     </row>
-    <row r="843" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="20"/>
       <c r="D843" s="22"/>
       <c r="F843" s="6"/>
     </row>
-    <row r="844" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="20"/>
       <c r="D844" s="22"/>
       <c r="F844" s="6"/>
     </row>
-    <row r="845" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="20"/>
       <c r="D845" s="22"/>
       <c r="F845" s="6"/>
     </row>
-    <row r="846" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="20"/>
       <c r="D846" s="22"/>
       <c r="F846" s="6"/>
     </row>
-    <row r="847" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="20"/>
       <c r="D847" s="22"/>
       <c r="F847" s="6"/>
     </row>
-    <row r="848" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="20"/>
       <c r="D848" s="22"/>
       <c r="F848" s="6"/>
     </row>
-    <row r="849" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="20"/>
       <c r="D849" s="22"/>
       <c r="F849" s="6"/>
     </row>
-    <row r="850" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="20"/>
       <c r="D850" s="22"/>
       <c r="F850" s="6"/>
     </row>
-    <row r="851" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="20"/>
       <c r="D851" s="22"/>
       <c r="F851" s="6"/>
     </row>
-    <row r="852" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="20"/>
       <c r="D852" s="22"/>
       <c r="F852" s="6"/>
     </row>
-    <row r="853" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="20"/>
       <c r="D853" s="22"/>
       <c r="F853" s="6"/>
     </row>
-    <row r="854" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="20"/>
       <c r="D854" s="22"/>
       <c r="F854" s="6"/>
     </row>
-    <row r="855" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="20"/>
       <c r="D855" s="22"/>
       <c r="F855" s="6"/>
     </row>
-    <row r="856" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="20"/>
       <c r="D856" s="22"/>
       <c r="F856" s="6"/>
     </row>
-    <row r="857" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="20"/>
       <c r="D857" s="22"/>
       <c r="F857" s="6"/>
     </row>
-    <row r="858" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="20"/>
       <c r="D858" s="22"/>
       <c r="F858" s="6"/>
     </row>
-    <row r="859" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="20"/>
       <c r="D859" s="22"/>
       <c r="F859" s="6"/>
     </row>
-    <row r="860" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="20"/>
       <c r="D860" s="22"/>
       <c r="F860" s="6"/>
     </row>
-    <row r="861" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="20"/>
       <c r="D861" s="22"/>
       <c r="F861" s="6"/>
     </row>
-    <row r="862" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="20"/>
       <c r="D862" s="22"/>
       <c r="F862" s="6"/>
     </row>
-    <row r="863" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="20"/>
       <c r="D863" s="22"/>
       <c r="F863" s="6"/>
     </row>
-    <row r="864" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="20"/>
       <c r="D864" s="22"/>
       <c r="F864" s="6"/>
     </row>
-    <row r="865" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="20"/>
       <c r="D865" s="22"/>
       <c r="F865" s="6"/>
     </row>
-    <row r="866" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="20"/>
       <c r="D866" s="22"/>
       <c r="F866" s="6"/>
     </row>
-    <row r="867" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="20"/>
       <c r="D867" s="22"/>
       <c r="F867" s="6"/>
     </row>
-    <row r="868" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="20"/>
       <c r="D868" s="22"/>
       <c r="F868" s="6"/>
     </row>
-    <row r="869" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="20"/>
       <c r="D869" s="22"/>
       <c r="F869" s="6"/>
     </row>
-    <row r="870" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="20"/>
       <c r="D870" s="22"/>
       <c r="F870" s="6"/>
     </row>
-    <row r="871" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="20"/>
       <c r="D871" s="22"/>
       <c r="F871" s="6"/>
     </row>
-    <row r="872" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="20"/>
       <c r="D872" s="22"/>
       <c r="F872" s="6"/>
     </row>
-    <row r="873" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="20"/>
       <c r="D873" s="22"/>
       <c r="F873" s="6"/>
     </row>
-    <row r="874" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="20"/>
       <c r="D874" s="22"/>
       <c r="F874" s="6"/>
     </row>
-    <row r="875" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="20"/>
       <c r="D875" s="22"/>
       <c r="F875" s="6"/>
     </row>
-    <row r="876" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="20"/>
       <c r="D876" s="22"/>
       <c r="F876" s="6"/>
     </row>
-    <row r="877" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="20"/>
       <c r="D877" s="22"/>
       <c r="F877" s="6"/>
     </row>
-    <row r="878" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="20"/>
       <c r="D878" s="22"/>
       <c r="F878" s="6"/>
     </row>
-    <row r="879" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="20"/>
       <c r="D879" s="22"/>
       <c r="F879" s="6"/>
     </row>
-    <row r="880" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="20"/>
       <c r="D880" s="22"/>
       <c r="F880" s="6"/>
     </row>
-    <row r="881" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="20"/>
       <c r="D881" s="22"/>
       <c r="F881" s="6"/>
     </row>
-    <row r="882" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="20"/>
       <c r="D882" s="22"/>
       <c r="F882" s="6"/>
     </row>
-    <row r="883" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="20"/>
       <c r="D883" s="22"/>
       <c r="F883" s="6"/>
     </row>
-    <row r="884" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="20"/>
       <c r="D884" s="22"/>
       <c r="F884" s="6"/>
     </row>
-    <row r="885" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="20"/>
       <c r="D885" s="22"/>
       <c r="F885" s="6"/>
     </row>
-    <row r="886" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="20"/>
       <c r="D886" s="22"/>
       <c r="F886" s="6"/>
     </row>
-    <row r="887" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="20"/>
       <c r="D887" s="22"/>
       <c r="F887" s="6"/>
     </row>
-    <row r="888" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="20"/>
       <c r="D888" s="22"/>
       <c r="F888" s="6"/>
     </row>
-    <row r="889" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="20"/>
       <c r="D889" s="22"/>
       <c r="F889" s="6"/>
     </row>
-    <row r="890" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="20"/>
       <c r="D890" s="22"/>
       <c r="F890" s="6"/>
     </row>
-    <row r="891" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="20"/>
       <c r="D891" s="22"/>
       <c r="F891" s="6"/>
     </row>
-    <row r="892" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="20"/>
       <c r="D892" s="22"/>
       <c r="F892" s="6"/>
     </row>
-    <row r="893" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="20"/>
       <c r="D893" s="22"/>
       <c r="F893" s="6"/>
     </row>
-    <row r="894" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="20"/>
       <c r="D894" s="22"/>
       <c r="F894" s="6"/>
     </row>
-    <row r="895" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="20"/>
       <c r="D895" s="22"/>
       <c r="F895" s="6"/>
     </row>
-    <row r="896" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="20"/>
       <c r="D896" s="22"/>
       <c r="F896" s="6"/>
     </row>
-    <row r="897" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="20"/>
       <c r="D897" s="22"/>
       <c r="F897" s="6"/>
     </row>
-    <row r="898" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="20"/>
       <c r="D898" s="22"/>
       <c r="F898" s="6"/>
     </row>
-    <row r="899" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="20"/>
       <c r="D899" s="22"/>
       <c r="F899" s="6"/>
     </row>
-    <row r="900" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="20"/>
       <c r="D900" s="22"/>
       <c r="F900" s="6"/>
     </row>
-    <row r="901" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="20"/>
       <c r="D901" s="22"/>
       <c r="F901" s="6"/>
     </row>
-    <row r="902" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="20"/>
       <c r="D902" s="22"/>
       <c r="F902" s="6"/>
     </row>
-    <row r="903" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="20"/>
       <c r="D903" s="22"/>
       <c r="F903" s="6"/>
     </row>
-    <row r="904" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="20"/>
       <c r="D904" s="22"/>
       <c r="F904" s="6"/>
     </row>
-    <row r="905" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="20"/>
       <c r="D905" s="22"/>
       <c r="F905" s="6"/>
     </row>
-    <row r="906" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="20"/>
       <c r="D906" s="22"/>
       <c r="F906" s="6"/>
     </row>
-    <row r="907" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="20"/>
       <c r="D907" s="22"/>
       <c r="F907" s="6"/>
     </row>
-    <row r="908" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="20"/>
       <c r="D908" s="22"/>
       <c r="F908" s="6"/>
     </row>
-    <row r="909" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="20"/>
       <c r="D909" s="22"/>
       <c r="F909" s="6"/>
     </row>
-    <row r="910" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="20"/>
       <c r="D910" s="22"/>
       <c r="F910" s="6"/>
     </row>
-    <row r="911" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="20"/>
       <c r="D911" s="22"/>
       <c r="F911" s="6"/>
     </row>
-    <row r="912" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="20"/>
       <c r="D912" s="22"/>
       <c r="F912" s="6"/>
     </row>
-    <row r="913" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="20"/>
       <c r="D913" s="22"/>
       <c r="F913" s="6"/>
     </row>
-    <row r="914" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="20"/>
       <c r="D914" s="22"/>
       <c r="F914" s="6"/>
     </row>
-    <row r="915" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="20"/>
       <c r="D915" s="22"/>
       <c r="F915" s="6"/>
     </row>
-    <row r="916" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="20"/>
       <c r="D916" s="22"/>
       <c r="F916" s="6"/>
     </row>
-    <row r="917" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="20"/>
       <c r="D917" s="22"/>
       <c r="F917" s="6"/>
     </row>
-    <row r="918" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="20"/>
       <c r="D918" s="22"/>
       <c r="F918" s="6"/>
     </row>
-    <row r="919" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="20"/>
       <c r="D919" s="22"/>
       <c r="F919" s="6"/>
     </row>
-    <row r="920" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="20"/>
       <c r="D920" s="22"/>
       <c r="F920" s="6"/>
     </row>
-    <row r="921" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="20"/>
       <c r="D921" s="22"/>
       <c r="F921" s="6"/>
     </row>
-    <row r="922" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="20"/>
       <c r="D922" s="22"/>
       <c r="F922" s="6"/>
     </row>
-    <row r="923" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="20"/>
       <c r="D923" s="22"/>
       <c r="F923" s="6"/>
     </row>
-    <row r="924" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="20"/>
       <c r="D924" s="22"/>
       <c r="F924" s="6"/>
     </row>
-    <row r="925" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="20"/>
       <c r="D925" s="22"/>
       <c r="F925" s="6"/>
     </row>
-    <row r="926" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="20"/>
       <c r="D926" s="22"/>
       <c r="F926" s="6"/>
     </row>
-    <row r="927" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="20"/>
       <c r="D927" s="22"/>
       <c r="F927" s="6"/>
     </row>
-    <row r="928" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="20"/>
       <c r="D928" s="22"/>
       <c r="F928" s="6"/>
     </row>
-    <row r="929" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="20"/>
       <c r="D929" s="22"/>
       <c r="F929" s="6"/>
     </row>
-    <row r="930" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="20"/>
       <c r="D930" s="22"/>
       <c r="F930" s="6"/>
     </row>
-    <row r="931" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="20"/>
       <c r="D931" s="22"/>
       <c r="F931" s="6"/>
     </row>
-    <row r="932" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="20"/>
       <c r="D932" s="22"/>
       <c r="F932" s="6"/>
     </row>
-    <row r="933" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="20"/>
       <c r="D933" s="22"/>
       <c r="F933" s="6"/>
     </row>
-    <row r="934" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="20"/>
       <c r="D934" s="22"/>
       <c r="F934" s="6"/>
     </row>
-    <row r="935" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="20"/>
       <c r="D935" s="22"/>
       <c r="F935" s="6"/>
     </row>
-    <row r="936" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="20"/>
       <c r="D936" s="22"/>
       <c r="F936" s="6"/>
     </row>
-    <row r="937" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="20"/>
       <c r="D937" s="22"/>
       <c r="F937" s="6"/>
     </row>
-    <row r="938" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="20"/>
       <c r="D938" s="22"/>
       <c r="F938" s="6"/>
     </row>
-    <row r="939" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="20"/>
       <c r="D939" s="22"/>
       <c r="F939" s="6"/>
     </row>
-    <row r="940" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="20"/>
       <c r="D940" s="22"/>
       <c r="F940" s="6"/>
     </row>
-    <row r="941" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="20"/>
       <c r="D941" s="22"/>
       <c r="F941" s="6"/>
     </row>
-    <row r="942" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="20"/>
       <c r="D942" s="22"/>
       <c r="F942" s="6"/>
     </row>
-    <row r="943" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="20"/>
       <c r="D943" s="22"/>
       <c r="F943" s="6"/>
     </row>
-    <row r="944" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="20"/>
       <c r="D944" s="22"/>
       <c r="F944" s="6"/>
     </row>
-    <row r="945" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="20"/>
       <c r="D945" s="22"/>
       <c r="F945" s="6"/>
     </row>
-    <row r="946" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="20"/>
       <c r="D946" s="22"/>
       <c r="F946" s="6"/>
     </row>
-    <row r="947" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="20"/>
       <c r="D947" s="22"/>
       <c r="F947" s="6"/>
     </row>
-    <row r="948" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="20"/>
       <c r="D948" s="22"/>
       <c r="F948" s="6"/>
     </row>
-    <row r="949" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="20"/>
       <c r="D949" s="22"/>
       <c r="F949" s="6"/>
     </row>
-    <row r="950" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="20"/>
       <c r="D950" s="22"/>
       <c r="F950" s="6"/>
     </row>
-    <row r="951" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="20"/>
       <c r="D951" s="22"/>
       <c r="F951" s="6"/>
     </row>
-    <row r="952" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="20"/>
       <c r="D952" s="22"/>
       <c r="F952" s="6"/>
     </row>
-    <row r="953" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="20"/>
       <c r="D953" s="22"/>
       <c r="F953" s="6"/>
     </row>
-    <row r="954" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="20"/>
       <c r="D954" s="22"/>
       <c r="F954" s="6"/>
     </row>
-    <row r="955" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="20"/>
       <c r="D955" s="22"/>
       <c r="F955" s="6"/>
     </row>
-    <row r="956" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="20"/>
       <c r="D956" s="22"/>
       <c r="F956" s="6"/>
     </row>
-    <row r="957" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="20"/>
       <c r="D957" s="22"/>
       <c r="F957" s="6"/>
     </row>
-    <row r="958" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="20"/>
       <c r="D958" s="22"/>
       <c r="F958" s="6"/>
     </row>
-    <row r="959" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="20"/>
       <c r="D959" s="22"/>
       <c r="F959" s="6"/>
     </row>
-    <row r="960" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="20"/>
       <c r="D960" s="22"/>
       <c r="F960" s="6"/>
     </row>
-    <row r="961" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="20"/>
       <c r="D961" s="22"/>
       <c r="F961" s="6"/>
     </row>
-    <row r="962" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="20"/>
       <c r="D962" s="22"/>
       <c r="F962" s="6"/>
     </row>
-    <row r="963" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="20"/>
       <c r="D963" s="22"/>
       <c r="F963" s="6"/>
     </row>
-    <row r="964" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="20"/>
       <c r="D964" s="22"/>
       <c r="F964" s="6"/>
     </row>
-    <row r="965" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="20"/>
       <c r="D965" s="22"/>
       <c r="F965" s="6"/>
     </row>
-    <row r="966" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="20"/>
       <c r="D966" s="22"/>
       <c r="F966" s="6"/>
     </row>
-    <row r="967" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="20"/>
       <c r="D967" s="22"/>
       <c r="F967" s="6"/>
     </row>
-    <row r="968" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="20"/>
       <c r="D968" s="22"/>
       <c r="F968" s="6"/>
     </row>
-    <row r="969" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="20"/>
       <c r="D969" s="22"/>
       <c r="F969" s="6"/>
     </row>
-    <row r="970" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="20"/>
       <c r="D970" s="22"/>
       <c r="F970" s="6"/>
     </row>
-    <row r="971" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="20"/>
       <c r="D971" s="22"/>
       <c r="F971" s="6"/>
     </row>
-    <row r="972" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="20"/>
       <c r="D972" s="22"/>
       <c r="F972" s="6"/>
     </row>
-    <row r="973" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="20"/>
       <c r="D973" s="22"/>
       <c r="F973" s="6"/>
     </row>
-    <row r="974" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="20"/>
       <c r="D974" s="22"/>
       <c r="F974" s="6"/>
     </row>
-    <row r="975" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="20"/>
       <c r="D975" s="22"/>
       <c r="F975" s="6"/>
     </row>
-    <row r="976" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="20"/>
       <c r="D976" s="22"/>
       <c r="F976" s="6"/>
     </row>
-    <row r="977" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="20"/>
       <c r="D977" s="22"/>
       <c r="F977" s="6"/>
     </row>
-    <row r="978" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="20"/>
       <c r="D978" s="22"/>
       <c r="F978" s="6"/>
     </row>
-    <row r="979" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="20"/>
       <c r="D979" s="22"/>
       <c r="F979" s="6"/>
     </row>
-    <row r="980" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="20"/>
       <c r="D980" s="22"/>
       <c r="F980" s="6"/>
     </row>
-    <row r="981" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="20"/>
       <c r="D981" s="22"/>
       <c r="F981" s="6"/>
     </row>
-    <row r="982" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="20"/>
       <c r="D982" s="22"/>
       <c r="F982" s="6"/>
     </row>
-    <row r="983" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="20"/>
       <c r="D983" s="22"/>
       <c r="F983" s="6"/>
     </row>
-    <row r="984" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="20"/>
       <c r="D984" s="22"/>
       <c r="F984" s="6"/>
     </row>
-    <row r="985" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="20"/>
       <c r="D985" s="22"/>
       <c r="F985" s="6"/>
     </row>
-    <row r="986" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="20"/>
       <c r="D986" s="22"/>
       <c r="F986" s="6"/>
     </row>
-    <row r="987" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="20"/>
       <c r="D987" s="22"/>
       <c r="F987" s="6"/>
     </row>
-    <row r="988" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="20"/>
       <c r="D988" s="22"/>
       <c r="F988" s="6"/>
     </row>
-    <row r="989" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="20"/>
       <c r="D989" s="22"/>
       <c r="F989" s="6"/>
     </row>
-    <row r="990" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="20"/>
       <c r="D990" s="22"/>
       <c r="F990" s="6"/>
     </row>
-    <row r="991" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="20"/>
       <c r="D991" s="22"/>
       <c r="F991" s="6"/>
     </row>
-    <row r="992" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="20"/>
       <c r="D992" s="22"/>
       <c r="F992" s="6"/>
     </row>
-    <row r="993" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="20"/>
       <c r="D993" s="22"/>
       <c r="F993" s="6"/>
     </row>
-    <row r="994" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="20"/>
       <c r="D994" s="22"/>
       <c r="F994" s="6"/>
     </row>
-    <row r="995" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="20"/>
       <c r="D995" s="22"/>
       <c r="F995" s="6"/>
     </row>
-    <row r="996" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="20"/>
       <c r="D996" s="22"/>
       <c r="F996" s="6"/>
     </row>
-    <row r="997" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="20"/>
       <c r="D997" s="22"/>
       <c r="F997" s="6"/>
     </row>
-    <row r="998" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="20"/>
       <c r="D998" s="22"/>
       <c r="F998" s="6"/>
     </row>
-    <row r="999" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="20"/>
       <c r="D999" s="22"/>
       <c r="F999" s="6"/>
     </row>
-    <row r="1000" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="20"/>
       <c r="D1000" s="22"/>
       <c r="F1000" s="6"/>
     </row>
-    <row r="1001" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="20"/>
       <c r="D1001" s="22"/>
       <c r="F1001" s="6"/>
     </row>
-    <row r="1002" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1002" s="20"/>
       <c r="D1002" s="22"/>
       <c r="F1002" s="6"/>
     </row>
-    <row r="1003" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1003" s="20"/>
       <c r="D1003" s="22"/>
       <c r="F1003" s="6"/>
     </row>
-    <row r="1004" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="20"/>
       <c r="D1004" s="22"/>
       <c r="F1004" s="6"/>
     </row>
-    <row r="1005" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="20"/>
       <c r="D1005" s="22"/>
       <c r="F1005" s="6"/>
     </row>
-    <row r="1006" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="20"/>
       <c r="D1006" s="22"/>
       <c r="F1006" s="6"/>
     </row>
-    <row r="1007" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1007" s="20"/>
       <c r="D1007" s="22"/>
       <c r="F1007" s="6"/>
+    </row>
+    <row r="1008" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1008" s="20"/>
+      <c r="D1008" s="22"/>
+      <c r="F1008" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -12503,119 +12842,209 @@
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:M8 N5:Q7 R5:S8 T5:U6 V5:Z8 AA5:AB6 AC5:AG8 AH5:AI6 AJ5:AN8 AO5:AP6 AQ5:AU8 AV5:AW6 AX5:BB8 BC5:BD6 BE5:BI8 BJ5:BK6 BL5:BP8 BQ5:BR6 BS5:BW8 BX5:BX6 BZ6:CD8 CE6 H64:BX64 BZ64:CE64">
-    <cfRule type="expression" dxfId="22" priority="6">
+  <conditionalFormatting sqref="H5:M8 N5:Q7 R5:S8 T5:U6 V5:Z8 AA5:AB6 AC5:AG8 AH5:AI6 AJ5:AN8 AO5:AP6 AQ5:AU8 AV5:AW6 AX5:BB8 BC5:BD6 BE5:BI8 BJ5:BK6 BL5:BP8 BQ5:BR6 BS5:BW8 BX5:BX6 BZ6:CD8 CE6 H65:BX65 BZ65:CE65">
+    <cfRule type="expression" dxfId="40" priority="25">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY5:BY6 BZ5:CE5 CF5:CF6 BY64 CF64">
-    <cfRule type="expression" dxfId="21" priority="7">
+  <conditionalFormatting sqref="BY5:BY6 BZ5:CE5 CF5:CF6 BY65 CF65">
+    <cfRule type="expression" dxfId="39" priority="26">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:S9 V9:Z9 AC9:AG9 AJ9:AN9 AQ9:AU9 AX9:BB9 BE9:BI9 BL9:BP9 BS9:BW9 BZ9:CD9">
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="38" priority="27">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:S17 V10:Z17 AC10:AE17 AF10:AF12 AG10:AG17 AJ10:AN17 AQ10:AU17 AX10:BB17 BE10:BI17 BL10:BP17 BS10:BW17 BZ10:CD17 AF14:AF17">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="37" priority="28">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:S18 V18:Z18 AC18:AG18 AJ18:AN18 AQ18:AU18 AX18:BB18 BE18:BI18 BL18:BP18 BS18:BW18 BZ18:CD18">
-    <cfRule type="expression" dxfId="18" priority="10">
+    <cfRule type="expression" dxfId="36" priority="29">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55:L55 O55:S55 V55:Z55 AC55:AG55 AJ55:AN55 AQ55:AU55 AX55:BB55 BE55:BI55 BL55:BP55 BS55:BW55 BZ55:CD55">
-    <cfRule type="expression" dxfId="17" priority="11">
+  <conditionalFormatting sqref="H56:L56 O56:S56 V56:Z56 AC56:AG56 AJ56:AN56 AQ56:AU56 AX56:BB56 BE56:BI56 BL56:BP56 BS56:BW56 BZ56:CD56">
+    <cfRule type="expression" dxfId="35" priority="30">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL19:AN19 AQ19:AR24 AS19:AU31 AX19:AX26 AY19:BB22 BE19:BE27 BF19:BI21 BL19:BM37 BN19:BP40 AJ20:AJ23 AK21:AK23 AL21:AL25 AM22:AM29 AN22:AN33 BF23:BH27 BI23:BI32 AY24:AZ26 BA24:BB28 AJ25:AK25 AQ26:AR27 AJ27:AL29 AX28:AX36 AY28:AZ28 AQ29:AQ40 AR29:AR38 AY30:BA36 BB30:BB43 AJ31:AK47 AL31:AM33 BE32:BE43 BF32:BF45 BG32:BH32 AS33:AU38 BG34:BG39 BH34:BI35 AL35:AL50 AM36:AN39 BH37:BI39 AX38:BA46 BL39:BM52 AR40:AU40 BG41:BI41 BN42:BP52 BG43:BI52 AQ44 AR44:AS52 BB45:BB52 BE45 AN46:AN49 AQ46:AQ52 BE47:BF52 AX48:BA48 AJ49:AK50 AX50:BA52 AM51:AN52 AJ52:AL52 M55:N63 BL53:BP54 AQ53:AU54 BE54:BI54 AJ53:AN54 H19:S54 V19:Z54 AC19:AG54 BS19:BW54 BZ19:CD54 AX53:BB54 BE53:BG53 AN41:AN44 AM41:AM49 AT42:AU52 AU41 AQ42:AS42 BH28 BE29:BH30">
-    <cfRule type="expression" dxfId="16" priority="12">
+  <conditionalFormatting sqref="AL19:AN19 AQ19:AR24 AS19:AU31 AX19:AX26 AY19:BB22 BE19:BE27 BF19:BI21 BL19:BM37 BN19:BP40 AJ20:AJ23 AK21:AK23 AL21:AL25 AM22:AM29 AN22:AN33 BF23:BH27 BI23:BI32 AY24:AZ26 BA24:BB28 AJ25:AK25 AQ26:AR27 AJ27:AL29 AX28:AX32 AY28:AZ28 AQ29:AQ40 AR29:AR38 AY30:BA32 BB30:BB43 AJ31:AK47 AL31:AM33 BE32:BE43 BF32:BF45 BG32:BH32 AS33:AU38 BG34:BG39 BH34:BI35 AL35:AL50 AM36:AN39 BH37:BI39 AX38:BA46 BL39:BM52 AR40:AU40 BG41:BI41 BN42:BP52 BG43:BI52 AQ44 AR44:AS52 BB45:BB52 BE45 AN46:AN49 AQ46:AQ52 BE47:BF52 AX48:BA48 AJ49:AK50 AX50:BA52 AM51:AN52 AJ52:AL52 M56:N64 BL53:BP54 AQ53:AU54 AJ53:AN54 H19:S54 V19:Z54 AC19:AG54 BS19:BW54 BZ19:CD54 AX53:BB54 BE53:BG53 AN41:AN44 AM41:AM49 AT42:AU52 AU41 AQ42:AS42 BH28 BE29:BH30 AX34:BA36 BE54:BI54 BL55 BE55:BF55">
+    <cfRule type="expression" dxfId="34" priority="31">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56:L63 O56:S63 V56:Z63 AC56:AG63 AJ56:AN63 AQ56:AU63 AX56:BB63 BE56:BI63 BL56:BO63 BT56:BT57 BU56:BW56 BZ56:CD63 BP57:BP63 BS57 BV58:BW58 BS59:BS64 BT59:BU59 BT61 BT64:BW64">
-    <cfRule type="expression" dxfId="15" priority="13">
+  <conditionalFormatting sqref="H57:L64 O57:S64 V57:Z64 AC57:AG64 AJ57:AN64 AQ57:AU64 AX57:BB64 BE57:BI64 BL57:BO64 BT57:BT58 BU57:BW57 BZ57:CD64 BP58:BP64 BS58 BV59:BW59 BS60:BS65 BT60:BU60 BT62 BT65:BW65">
+    <cfRule type="expression" dxfId="33" priority="32">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T7:U63">
-    <cfRule type="expression" dxfId="14" priority="14">
+  <conditionalFormatting sqref="T7:U54 T56:U64">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>AND(TODAY()&gt;=T$5,TODAY()&lt;U$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA7:AB63">
-    <cfRule type="expression" dxfId="13" priority="15">
+  <conditionalFormatting sqref="AA7:AB54 AA56:AB64">
+    <cfRule type="expression" dxfId="31" priority="34">
       <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH7:AI18 AH20:AI23 AH25:AH47 AI25 AI27:AI47 AH49:AH52 AI49:AI50 AI52 AH53:AI63">
-    <cfRule type="expression" dxfId="12" priority="16">
+  <conditionalFormatting sqref="AH7:AI18 AH20:AI23 AH25:AH47 AI25 AI27:AI47 AH49:AH52 AI49:AI50 AI52 AH53:AI54 AH56:AI64">
+    <cfRule type="expression" dxfId="30" priority="35">
       <formula>AND(TODAY()&gt;=AH$5,TODAY()&lt;AI$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO7:AP20 AO22:AP24 AO26:AP27 AO29:AO33 AP29:AP34 AO36:AP39 AP44 AO46:AP49 AO51:AP63 AP41:AP42 AO41:AO44">
-    <cfRule type="expression" dxfId="11" priority="17">
+  <conditionalFormatting sqref="AO7:AP20 AO22:AP24 AO26:AP27 AO29:AO33 AP29:AP34 AO36:AP39 AP44 AO46:AP49 AO51:AP54 AP41:AP42 AO41:AO44 AO56:AP64">
+    <cfRule type="expression" dxfId="29" priority="36">
       <formula>AND(TODAY()&gt;=AO$5,TODAY()&lt;AP$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV7:AV31 AW7:AW26 AW28:AW52 AV33:AV52 AV53:AW63">
-    <cfRule type="expression" dxfId="10" priority="18">
+  <conditionalFormatting sqref="AV7:AV31 AW7:AW26 AW28:AW52 AV33:AV52 AV53:AW54 AV56:AW64">
+    <cfRule type="expression" dxfId="28" priority="37">
       <formula>AND(TODAY()&gt;=AV$5,TODAY()&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC7:BD27 BC45:BD45 BC47:BD63 BC29:BD43 BC28">
-    <cfRule type="expression" dxfId="9" priority="19">
+  <conditionalFormatting sqref="BC7:BD27 BC45:BD45 BC47:BD54 BC29:BD43 BC28 BC56:BD64">
+    <cfRule type="expression" dxfId="27" priority="38">
       <formula>AND(TODAY()&gt;=BC$5,TODAY()&lt;BD$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ7:BJ32 BK7:BK35 BJ34:BJ35 BJ37:BK37 BK39:BK52 BJ43:BJ52 BJ53:BK53 BJ55:BK63 BJ39:BJ41">
-    <cfRule type="expression" dxfId="8" priority="20">
+  <conditionalFormatting sqref="BJ7:BJ32 BK7:BK35 BJ34:BJ35 BJ37:BK37 BK39:BK52 BJ43:BJ52 BJ53:BK53 BJ56:BK64 BJ39:BJ41">
+    <cfRule type="expression" dxfId="26" priority="39">
       <formula>AND(TODAY()&gt;=BJ$5,TODAY()&lt;BK$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ57:BQ63 BR57 BR59:BR63 BQ7:BR55">
-    <cfRule type="expression" dxfId="7" priority="21">
+  <conditionalFormatting sqref="BQ58:BQ64 BR58 BR60:BR64 BQ7:BR54 BQ56:BR56">
+    <cfRule type="expression" dxfId="25" priority="40">
       <formula>AND(TODAY()&gt;=BQ$5,TODAY()&lt;BR$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BX58 BX60 BY60:BY63 BX62:BX63 BY55:BY58 BX55:BX56 BX7:BY54">
-    <cfRule type="expression" dxfId="6" priority="22">
+  <conditionalFormatting sqref="BX59 BX61 BY61:BY64 BX63:BX64 BY56:BY59 BX56:BX57 BX7:BY54">
+    <cfRule type="expression" dxfId="24" priority="41">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;BY$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE7:CF63">
-    <cfRule type="expression" dxfId="5" priority="23">
+  <conditionalFormatting sqref="CE7:CF54 CE56:CF64">
+    <cfRule type="expression" dxfId="23" priority="42">
       <formula>AND(TODAY()&gt;=CE$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW41">
-    <cfRule type="expression" dxfId="4" priority="24">
+    <cfRule type="expression" dxfId="22" priority="43">
       <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN41:BP41">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>AND(TODAY()&gt;=BN$5,TODAY()&lt;BO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG40:BI40">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>AND(TODAY()&gt;=BG$5,TODAY()&lt;BH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AR28">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>AND(TODAY()&gt;=AQ$5,TODAY()&lt;AR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO28:AP28">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>AND(TODAY()&gt;=AO$5,TODAY()&lt;AP$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ49:BA49">
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>AND(TODAY()&gt;=AZ$5,TODAY()&lt;BA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG33:BI33">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>AND(TODAY()&gt;=BG$5,TODAY()&lt;BH$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ33">
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>AND(TODAY()&gt;=BJ$5,TODAY()&lt;BK$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ55:AU55 AJ55:AN55 H55:S55 V55:Z55 AC55:AG55 AX55:BB55">
+    <cfRule type="expression" dxfId="14" priority="9">
+      <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T55:U55">
+    <cfRule type="expression" dxfId="13" priority="10">
+      <formula>AND(TODAY()&gt;=T$5,TODAY()&lt;U$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA55:AB55">
+    <cfRule type="expression" dxfId="12" priority="11">
+      <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH55:AI55">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>AND(TODAY()&gt;=AH$5,TODAY()&lt;AI$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO55:AP55">
+    <cfRule type="expression" dxfId="10" priority="13">
+      <formula>AND(TODAY()&gt;=AO$5,TODAY()&lt;AP$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV55:AW55">
+    <cfRule type="expression" dxfId="9" priority="14">
+      <formula>AND(TODAY()&gt;=AV$5,TODAY()&lt;AW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC55:BD55">
+    <cfRule type="expression" dxfId="8" priority="15">
+      <formula>AND(TODAY()&gt;=BC$5,TODAY()&lt;BD$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ55:BK55">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>AND(TODAY()&gt;=BJ$5,TODAY()&lt;BK$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM55:BP55 BS55:BW55 BZ55:CD55">
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ55:BR55">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>AND(TODAY()&gt;=BQ$5,TODAY()&lt;BR$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BX55:BY55">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;BY$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CE55:CF55">
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>AND(TODAY()&gt;=CE$5,TODAY()&lt;CF$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN20">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA33">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(TODAY()&gt;=BA$5,TODAY()&lt;BB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI55">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(TODAY()&gt;=BI$5,TODAY()&lt;BJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>

--- a/Diagramok/Kozosseg-gantt-diagram.xlsx
+++ b/Diagramok/Kozosseg-gantt-diagram.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brkri\Desktop\git\2022_IB153I-9_C\Diagramok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merlo\OneDrive\Asztali gép\Egyetem\5.félév\rendszerfelj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="1" r:id="rId1"/>
@@ -153,9 +153,6 @@
     <t>9.3.8.  Felhasználók kezeléséhez tartozó logika ( CRUD )</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3.9.  Felhasználók kereséséhez kapcsolódó GUI megvalósítása </t>
-  </si>
-  <si>
     <t>9.3.11.  Profilok kezeléshez kapcsolódó GUI megvalósítása</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
   </si>
   <si>
     <t>9.3.13.  Hirfolyam kezeléséhez tartozó üzleti logika (listázása, módosítása, létrehozása, törlése)</t>
-  </si>
-  <si>
-    <t>9.3.14.  Hirfolyam kezeléshez kapcsolódó GUI megvalósítás</t>
   </si>
   <si>
     <t>9.3.15.  Hirfolyam kezeléséhez szükséges adatok létrehozása az adatbázisban</t>
@@ -268,6 +262,12 @@
   </si>
   <si>
     <t>9.3.37 E-mail sablon készítése, és felhasználók korlátozása backendben</t>
+  </si>
+  <si>
+    <t>9.3.14.  Lájkolások számánának kimutatásához tartozó GUI megvalósítás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3.9. Bejelentkezéshez tartozó GUI megvalósítása </t>
   </si>
 </sst>
 </file>
@@ -1798,25 +1798,25 @@
   <dimension ref="A1:CF1008"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="86.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="30" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="86.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="30" width="2.5546875" customWidth="1"/>
     <col min="31" max="31" width="5" customWidth="1"/>
-    <col min="32" max="84" width="2.5703125" customWidth="1"/>
+    <col min="32" max="84" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="BX1" s="19"/>
     </row>
-    <row r="2" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20"/>
       <c r="B2" s="21" t="s">
         <v>10</v>
@@ -1902,7 +1902,7 @@
       <c r="F2" s="5"/>
       <c r="H2" s="23"/>
     </row>
-    <row r="3" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
       <c r="B3" s="24"/>
       <c r="C3" s="25" t="s">
@@ -1914,7 +1914,7 @@
       <c r="E3" s="112"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:84" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="H4" s="108">
         <f>H5</f>
@@ -2027,7 +2027,7 @@
       <c r="CE4" s="109"/>
       <c r="CF4" s="110"/>
     </row>
-    <row r="5" spans="1:84" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:84" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="26" t="s">
         <v>12</v>
@@ -2350,7 +2350,7 @@
         <v>44899</v>
       </c>
     </row>
-    <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="C6" s="33"/>
       <c r="F6" s="34"/>
@@ -2436,7 +2436,7 @@
       <c r="CE6" s="35"/>
       <c r="CF6" s="35"/>
     </row>
-    <row r="7" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="36" t="s">
         <v>16</v>
@@ -2527,7 +2527,7 @@
       <c r="CE7" s="41"/>
       <c r="CF7" s="41"/>
     </row>
-    <row r="8" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="42" t="s">
         <v>17</v>
@@ -2627,7 +2627,7 @@
       <c r="CE8" s="41"/>
       <c r="CF8" s="41"/>
     </row>
-    <row r="9" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:84" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="45" t="s">
         <v>18</v>
@@ -2718,7 +2718,7 @@
       <c r="CE9" s="39"/>
       <c r="CF9" s="39"/>
     </row>
-    <row r="10" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="49" t="s">
         <v>19</v>
@@ -2817,7 +2817,7 @@
       <c r="CE10" s="41"/>
       <c r="CF10" s="41"/>
     </row>
-    <row r="11" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="49" t="s">
         <v>20</v>
@@ -2913,7 +2913,7 @@
       <c r="CE11" s="41"/>
       <c r="CF11" s="41"/>
     </row>
-    <row r="12" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="49" t="s">
         <v>21</v>
@@ -3009,7 +3009,7 @@
       <c r="CE12" s="41"/>
       <c r="CF12" s="41"/>
     </row>
-    <row r="13" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="49" t="s">
         <v>22</v>
@@ -3105,7 +3105,7 @@
       <c r="CE13" s="41"/>
       <c r="CF13" s="41"/>
     </row>
-    <row r="14" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="49" t="s">
         <v>23</v>
@@ -3201,7 +3201,7 @@
       <c r="CE14" s="41"/>
       <c r="CF14" s="41"/>
     </row>
-    <row r="15" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="49" t="s">
         <v>24</v>
@@ -3297,7 +3297,7 @@
       <c r="CE15" s="41"/>
       <c r="CF15" s="41"/>
     </row>
-    <row r="16" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="49" t="s">
         <v>25</v>
@@ -3393,7 +3393,7 @@
       <c r="CE16" s="41"/>
       <c r="CF16" s="41"/>
     </row>
-    <row r="17" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="49" t="s">
         <v>26</v>
@@ -3489,7 +3489,7 @@
       <c r="CE17" s="41"/>
       <c r="CF17" s="41"/>
     </row>
-    <row r="18" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="66" t="s">
         <v>27</v>
@@ -3580,7 +3580,7 @@
       <c r="CE18" s="69"/>
       <c r="CF18" s="69"/>
     </row>
-    <row r="19" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="70" t="s">
         <v>28</v>
@@ -3676,7 +3676,7 @@
       <c r="CE19" s="41"/>
       <c r="CF19" s="41"/>
     </row>
-    <row r="20" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="70" t="s">
         <v>29</v>
@@ -3772,7 +3772,7 @@
       <c r="CE20" s="41"/>
       <c r="CF20" s="41"/>
     </row>
-    <row r="21" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="70" t="s">
         <v>30</v>
@@ -3868,7 +3868,7 @@
       <c r="CE21" s="41"/>
       <c r="CF21" s="41"/>
     </row>
-    <row r="22" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="70" t="s">
         <v>31</v>
@@ -3964,7 +3964,7 @@
       <c r="CE22" s="41"/>
       <c r="CF22" s="41"/>
     </row>
-    <row r="23" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="70" t="s">
         <v>32</v>
@@ -4060,7 +4060,7 @@
       <c r="CE23" s="41"/>
       <c r="CF23" s="41"/>
     </row>
-    <row r="24" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="70" t="s">
         <v>33</v>
@@ -4156,7 +4156,7 @@
       <c r="CE24" s="41"/>
       <c r="CF24" s="41"/>
     </row>
-    <row r="25" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -4257,7 +4257,7 @@
       <c r="CE25" s="41"/>
       <c r="CF25" s="41"/>
     </row>
-    <row r="26" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="70" t="s">
         <v>35</v>
@@ -4353,10 +4353,10 @@
       <c r="CE26" s="41"/>
       <c r="CF26" s="41"/>
     </row>
-    <row r="27" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="70" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C27" s="71" t="s">
         <v>9</v>
@@ -4449,10 +4449,10 @@
       <c r="CE27" s="41"/>
       <c r="CF27" s="41"/>
     </row>
-    <row r="28" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C28" s="71" t="s">
         <v>8</v>
@@ -4545,10 +4545,10 @@
       <c r="CE28" s="41"/>
       <c r="CF28" s="41"/>
     </row>
-    <row r="29" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="71" t="s">
         <v>7</v>
@@ -4641,10 +4641,10 @@
       <c r="CE29" s="41"/>
       <c r="CF29" s="41"/>
     </row>
-    <row r="30" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="71" t="s">
         <v>1</v>
@@ -4737,10 +4737,10 @@
       <c r="CE30" s="41"/>
       <c r="CF30" s="41"/>
     </row>
-    <row r="31" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="71" t="s">
         <v>5</v>
@@ -4833,10 +4833,10 @@
       <c r="CE31" s="41"/>
       <c r="CF31" s="41"/>
     </row>
-    <row r="32" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="70" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C32" s="71" t="s">
         <v>9</v>
@@ -4929,10 +4929,10 @@
       <c r="CE32" s="41"/>
       <c r="CF32" s="41"/>
     </row>
-    <row r="33" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C33" s="71" t="s">
         <v>6</v>
@@ -5025,10 +5025,10 @@
       <c r="CE33" s="41"/>
       <c r="CF33" s="41"/>
     </row>
-    <row r="34" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C34" s="71" t="s">
         <v>5</v>
@@ -5121,10 +5121,10 @@
       <c r="CE34" s="41"/>
       <c r="CF34" s="41"/>
     </row>
-    <row r="35" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" s="71" t="s">
         <v>7</v>
@@ -5217,10 +5217,10 @@
       <c r="CE35" s="41"/>
       <c r="CF35" s="41"/>
     </row>
-    <row r="36" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="70" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C36" s="71" t="s">
         <v>1</v>
@@ -5313,10 +5313,10 @@
       <c r="CE36" s="41"/>
       <c r="CF36" s="41"/>
     </row>
-    <row r="37" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C37" s="71" t="s">
         <v>5</v>
@@ -5409,10 +5409,10 @@
       <c r="CE37" s="41"/>
       <c r="CF37" s="41"/>
     </row>
-    <row r="38" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C38" s="71" t="s">
         <v>7</v>
@@ -5505,10 +5505,10 @@
       <c r="CE38" s="41"/>
       <c r="CF38" s="41"/>
     </row>
-    <row r="39" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C39" s="71" t="s">
         <v>1</v>
@@ -5601,10 +5601,10 @@
       <c r="CE39" s="41"/>
       <c r="CF39" s="41"/>
     </row>
-    <row r="40" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="70" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C40" s="71" t="s">
         <v>8</v>
@@ -5697,10 +5697,10 @@
       <c r="CE40" s="41"/>
       <c r="CF40" s="41"/>
     </row>
-    <row r="41" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C41" s="71" t="s">
         <v>8</v>
@@ -5793,10 +5793,10 @@
       <c r="CE41" s="41"/>
       <c r="CF41" s="41"/>
     </row>
-    <row r="42" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="70" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C42" s="71" t="s">
         <v>2</v>
@@ -5889,10 +5889,10 @@
       <c r="CE42" s="41"/>
       <c r="CF42" s="41"/>
     </row>
-    <row r="43" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" s="71" t="s">
         <v>5</v>
@@ -5985,10 +5985,10 @@
       <c r="CE43" s="41"/>
       <c r="CF43" s="41"/>
     </row>
-    <row r="44" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="70" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C44" s="71" t="s">
         <v>1</v>
@@ -6081,10 +6081,10 @@
       <c r="CE44" s="41"/>
       <c r="CF44" s="41"/>
     </row>
-    <row r="45" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="70" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C45" s="71" t="s">
         <v>3</v>
@@ -6177,10 +6177,10 @@
       <c r="CE45" s="41"/>
       <c r="CF45" s="41"/>
     </row>
-    <row r="46" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="70" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C46" s="71" t="s">
         <v>2</v>
@@ -6273,10 +6273,10 @@
       <c r="CE46" s="41"/>
       <c r="CF46" s="41"/>
     </row>
-    <row r="47" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C47" s="71" t="s">
         <v>6</v>
@@ -6369,10 +6369,10 @@
       <c r="CE47" s="41"/>
       <c r="CF47" s="41"/>
     </row>
-    <row r="48" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="70" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C48" s="71" t="s">
         <v>9</v>
@@ -6465,10 +6465,10 @@
       <c r="CE48" s="41"/>
       <c r="CF48" s="41"/>
     </row>
-    <row r="49" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="70" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" s="71" t="s">
         <v>8</v>
@@ -6561,10 +6561,10 @@
       <c r="CE49" s="41"/>
       <c r="CF49" s="41"/>
     </row>
-    <row r="50" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="70" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" s="71" t="s">
         <v>9</v>
@@ -6657,10 +6657,10 @@
       <c r="CE50" s="41"/>
       <c r="CF50" s="41"/>
     </row>
-    <row r="51" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="70" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="71" t="s">
         <v>7</v>
@@ -6753,10 +6753,10 @@
       <c r="CE51" s="41"/>
       <c r="CF51" s="41"/>
     </row>
-    <row r="52" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="70" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="71" t="s">
         <v>4</v>
@@ -6850,10 +6850,10 @@
       <c r="CE52" s="41"/>
       <c r="CF52" s="41"/>
     </row>
-    <row r="53" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="104" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C53" s="100" t="s">
         <v>8</v>
@@ -6946,10 +6946,10 @@
       <c r="CE53" s="41"/>
       <c r="CF53" s="41"/>
     </row>
-    <row r="54" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="99" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C54" s="100" t="s">
         <v>8</v>
@@ -7042,10 +7042,10 @@
       <c r="CE54" s="41"/>
       <c r="CF54" s="41"/>
     </row>
-    <row r="55" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="99" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C55" s="100" t="s">
         <v>6</v>
@@ -7138,10 +7138,10 @@
       <c r="CE55" s="41"/>
       <c r="CF55" s="41"/>
     </row>
-    <row r="56" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="80" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="81"/>
       <c r="D56" s="82"/>
@@ -7229,10 +7229,10 @@
       <c r="CE56" s="39"/>
       <c r="CF56" s="39"/>
     </row>
-    <row r="57" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="83" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="84" t="s">
         <v>3</v>
@@ -7328,10 +7328,10 @@
       <c r="CE57" s="41"/>
       <c r="CF57" s="41"/>
     </row>
-    <row r="58" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="83" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58" s="84" t="s">
         <v>6</v>
@@ -7424,10 +7424,10 @@
       <c r="CE58" s="41"/>
       <c r="CF58" s="41"/>
     </row>
-    <row r="59" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="83" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59" s="84" t="s">
         <v>7</v>
@@ -7520,10 +7520,10 @@
       <c r="CE59" s="41"/>
       <c r="CF59" s="41"/>
     </row>
-    <row r="60" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="83" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C60" s="84" t="s">
         <v>9</v>
@@ -7616,10 +7616,10 @@
       <c r="CE60" s="41"/>
       <c r="CF60" s="41"/>
     </row>
-    <row r="61" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="83" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C61" s="84" t="s">
         <v>5</v>
@@ -7712,10 +7712,10 @@
       <c r="CE61" s="41"/>
       <c r="CF61" s="41"/>
     </row>
-    <row r="62" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="83" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C62" s="84" t="s">
         <v>1</v>
@@ -7808,10 +7808,10 @@
       <c r="CE62" s="41"/>
       <c r="CF62" s="41"/>
     </row>
-    <row r="63" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="83" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C63" s="84" t="s">
         <v>8</v>
@@ -7904,10 +7904,10 @@
       <c r="CE63" s="41"/>
       <c r="CF63" s="41"/>
     </row>
-    <row r="64" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="87" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C64" s="88" t="s">
         <v>2</v>
@@ -8000,10 +8000,10 @@
       <c r="CE64" s="41"/>
       <c r="CF64" s="41"/>
     </row>
-    <row r="65" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:84" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="90" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C65" s="91"/>
       <c r="D65" s="92"/>
@@ -8091,13 +8091,13 @@
       <c r="CE65" s="35"/>
       <c r="CF65" s="35"/>
     </row>
-    <row r="66" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
       <c r="B66" s="95"/>
       <c r="D66" s="22"/>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="95"/>
       <c r="C67" s="96"/>
@@ -8105,4735 +8105,4730 @@
       <c r="E67" s="97"/>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="95"/>
       <c r="C68" s="98"/>
       <c r="D68" s="22"/>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="20"/>
       <c r="B69" s="95"/>
       <c r="D69" s="22"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="20"/>
       <c r="B70" s="95"/>
       <c r="D70" s="22"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="20"/>
       <c r="B71" s="95"/>
       <c r="D71" s="22"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="20"/>
       <c r="B72" s="95"/>
       <c r="D72" s="22"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="20"/>
       <c r="B73" s="95"/>
       <c r="D73" s="22"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20"/>
       <c r="B74" s="95"/>
       <c r="D74" s="22"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20"/>
       <c r="B75" s="95"/>
       <c r="D75" s="22"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="20"/>
       <c r="B76" s="95"/>
       <c r="D76" s="22"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="20"/>
       <c r="B77" s="95"/>
       <c r="D77" s="22"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="20"/>
       <c r="B78" s="95"/>
       <c r="D78" s="22"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="20"/>
       <c r="B79" s="95"/>
       <c r="D79" s="22"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
       <c r="B80" s="95"/>
       <c r="D80" s="22"/>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="20"/>
       <c r="B81" s="95"/>
       <c r="D81" s="22"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="20"/>
       <c r="B82" s="95"/>
       <c r="D82" s="22"/>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="20"/>
       <c r="B83" s="95"/>
       <c r="D83" s="22"/>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="20"/>
       <c r="D84" s="22"/>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="20"/>
       <c r="D85" s="22"/>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="20"/>
       <c r="D86" s="22"/>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="20"/>
       <c r="D87" s="22"/>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="20"/>
       <c r="D88" s="22"/>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="20"/>
       <c r="D89" s="22"/>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="20"/>
       <c r="D90" s="22"/>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="20"/>
       <c r="D91" s="22"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="20"/>
       <c r="D92" s="22"/>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="20"/>
       <c r="D93" s="22"/>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="20"/>
       <c r="D94" s="22"/>
       <c r="F94" s="6"/>
     </row>
-    <row r="95" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="20"/>
       <c r="D95" s="22"/>
       <c r="F95" s="6"/>
     </row>
-    <row r="96" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="20"/>
       <c r="D96" s="22"/>
       <c r="F96" s="6"/>
     </row>
-    <row r="97" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="20"/>
       <c r="D97" s="22"/>
       <c r="F97" s="6"/>
     </row>
-    <row r="98" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="20"/>
       <c r="D98" s="22"/>
       <c r="F98" s="6"/>
     </row>
-    <row r="99" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="20"/>
       <c r="D99" s="22"/>
       <c r="F99" s="6"/>
     </row>
-    <row r="100" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="20"/>
       <c r="D100" s="22"/>
       <c r="F100" s="6"/>
     </row>
-    <row r="101" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="20"/>
       <c r="D101" s="22"/>
       <c r="F101" s="6"/>
     </row>
-    <row r="102" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="20"/>
       <c r="D102" s="22"/>
       <c r="F102" s="6"/>
     </row>
-    <row r="103" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="20"/>
       <c r="D103" s="22"/>
       <c r="F103" s="6"/>
     </row>
-    <row r="104" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="20"/>
       <c r="D104" s="22"/>
       <c r="F104" s="6"/>
     </row>
-    <row r="105" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="20"/>
       <c r="D105" s="22"/>
       <c r="F105" s="6"/>
     </row>
-    <row r="106" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="20"/>
       <c r="D106" s="22"/>
       <c r="F106" s="6"/>
     </row>
-    <row r="107" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="20"/>
       <c r="D107" s="22"/>
       <c r="F107" s="6"/>
     </row>
-    <row r="108" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="20"/>
       <c r="D108" s="22"/>
       <c r="F108" s="6"/>
     </row>
-    <row r="109" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="20"/>
       <c r="D109" s="22"/>
       <c r="F109" s="6"/>
     </row>
-    <row r="110" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="20"/>
       <c r="D110" s="22"/>
       <c r="F110" s="6"/>
     </row>
-    <row r="111" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="20"/>
       <c r="D111" s="22"/>
       <c r="F111" s="6"/>
     </row>
-    <row r="112" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="20"/>
       <c r="D112" s="22"/>
       <c r="F112" s="6"/>
     </row>
-    <row r="113" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="20"/>
       <c r="D113" s="22"/>
       <c r="F113" s="6"/>
     </row>
-    <row r="114" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="20"/>
       <c r="D114" s="22"/>
       <c r="F114" s="6"/>
     </row>
-    <row r="115" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="20"/>
       <c r="D115" s="22"/>
       <c r="F115" s="6"/>
     </row>
-    <row r="116" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="20"/>
       <c r="D116" s="22"/>
       <c r="F116" s="6"/>
     </row>
-    <row r="117" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="20"/>
       <c r="D117" s="22"/>
       <c r="F117" s="6"/>
     </row>
-    <row r="118" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20"/>
       <c r="D118" s="22"/>
       <c r="F118" s="6"/>
     </row>
-    <row r="119" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="20"/>
       <c r="D119" s="22"/>
       <c r="F119" s="6"/>
     </row>
-    <row r="120" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="20"/>
       <c r="D120" s="22"/>
       <c r="F120" s="6"/>
     </row>
-    <row r="121" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="20"/>
       <c r="D121" s="22"/>
       <c r="F121" s="6"/>
     </row>
-    <row r="122" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="20"/>
       <c r="D122" s="22"/>
       <c r="F122" s="6"/>
     </row>
-    <row r="123" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="20"/>
       <c r="D123" s="22"/>
       <c r="F123" s="6"/>
     </row>
-    <row r="124" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="20"/>
       <c r="D124" s="22"/>
       <c r="F124" s="6"/>
     </row>
-    <row r="125" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20"/>
       <c r="D125" s="22"/>
       <c r="F125" s="6"/>
     </row>
-    <row r="126" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="20"/>
       <c r="D126" s="22"/>
       <c r="F126" s="6"/>
     </row>
-    <row r="127" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="20"/>
       <c r="D127" s="22"/>
       <c r="F127" s="6"/>
     </row>
-    <row r="128" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="20"/>
       <c r="D128" s="22"/>
       <c r="F128" s="6"/>
     </row>
-    <row r="129" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="20"/>
       <c r="D129" s="22"/>
       <c r="F129" s="6"/>
     </row>
-    <row r="130" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="20"/>
       <c r="D130" s="22"/>
       <c r="F130" s="6"/>
     </row>
-    <row r="131" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="20"/>
       <c r="D131" s="22"/>
       <c r="F131" s="6"/>
     </row>
-    <row r="132" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="20"/>
       <c r="D132" s="22"/>
       <c r="F132" s="6"/>
     </row>
-    <row r="133" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="20"/>
       <c r="D133" s="22"/>
       <c r="F133" s="6"/>
     </row>
-    <row r="134" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="20"/>
       <c r="D134" s="22"/>
       <c r="F134" s="6"/>
     </row>
-    <row r="135" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="20"/>
       <c r="D135" s="22"/>
       <c r="F135" s="6"/>
     </row>
-    <row r="136" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="20"/>
       <c r="D136" s="22"/>
       <c r="F136" s="6"/>
     </row>
-    <row r="137" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="20"/>
       <c r="D137" s="22"/>
       <c r="F137" s="6"/>
     </row>
-    <row r="138" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="20"/>
       <c r="D138" s="22"/>
       <c r="F138" s="6"/>
     </row>
-    <row r="139" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="20"/>
       <c r="D139" s="22"/>
       <c r="F139" s="6"/>
     </row>
-    <row r="140" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="20"/>
       <c r="D140" s="22"/>
       <c r="F140" s="6"/>
     </row>
-    <row r="141" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="20"/>
       <c r="D141" s="22"/>
       <c r="F141" s="6"/>
     </row>
-    <row r="142" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="20"/>
       <c r="D142" s="22"/>
       <c r="F142" s="6"/>
     </row>
-    <row r="143" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="20"/>
       <c r="D143" s="22"/>
       <c r="F143" s="6"/>
     </row>
-    <row r="144" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="20"/>
       <c r="D144" s="22"/>
       <c r="F144" s="6"/>
     </row>
-    <row r="145" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="20"/>
       <c r="D145" s="22"/>
       <c r="F145" s="6"/>
     </row>
-    <row r="146" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="20"/>
       <c r="D146" s="22"/>
       <c r="F146" s="6"/>
     </row>
-    <row r="147" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="20"/>
       <c r="D147" s="22"/>
       <c r="F147" s="6"/>
     </row>
-    <row r="148" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="20"/>
       <c r="D148" s="22"/>
       <c r="F148" s="6"/>
     </row>
-    <row r="149" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="20"/>
       <c r="D149" s="22"/>
       <c r="F149" s="6"/>
     </row>
-    <row r="150" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="20"/>
       <c r="D150" s="22"/>
       <c r="F150" s="6"/>
     </row>
-    <row r="151" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="20"/>
       <c r="D151" s="22"/>
       <c r="F151" s="6"/>
     </row>
-    <row r="152" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="20"/>
       <c r="D152" s="22"/>
       <c r="F152" s="6"/>
     </row>
-    <row r="153" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="20"/>
       <c r="D153" s="22"/>
       <c r="F153" s="6"/>
     </row>
-    <row r="154" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="20"/>
       <c r="D154" s="22"/>
       <c r="F154" s="6"/>
     </row>
-    <row r="155" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="20"/>
       <c r="D155" s="22"/>
       <c r="F155" s="6"/>
     </row>
-    <row r="156" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="20"/>
       <c r="D156" s="22"/>
       <c r="F156" s="6"/>
     </row>
-    <row r="157" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="20"/>
       <c r="D157" s="22"/>
       <c r="F157" s="6"/>
     </row>
-    <row r="158" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="20"/>
       <c r="D158" s="22"/>
       <c r="F158" s="6"/>
     </row>
-    <row r="159" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="20"/>
       <c r="D159" s="22"/>
       <c r="F159" s="6"/>
     </row>
-    <row r="160" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="20"/>
       <c r="D160" s="22"/>
       <c r="F160" s="6"/>
     </row>
-    <row r="161" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="20"/>
       <c r="D161" s="22"/>
       <c r="F161" s="6"/>
     </row>
-    <row r="162" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="20"/>
       <c r="D162" s="22"/>
       <c r="F162" s="6"/>
     </row>
-    <row r="163" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="20"/>
       <c r="D163" s="22"/>
       <c r="F163" s="6"/>
     </row>
-    <row r="164" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="20"/>
       <c r="D164" s="22"/>
       <c r="F164" s="6"/>
     </row>
-    <row r="165" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="20"/>
       <c r="D165" s="22"/>
       <c r="F165" s="6"/>
     </row>
-    <row r="166" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="20"/>
       <c r="D166" s="22"/>
       <c r="F166" s="6"/>
     </row>
-    <row r="167" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="20"/>
       <c r="D167" s="22"/>
       <c r="F167" s="6"/>
     </row>
-    <row r="168" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="20"/>
       <c r="D168" s="22"/>
       <c r="F168" s="6"/>
     </row>
-    <row r="169" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="20"/>
       <c r="D169" s="22"/>
       <c r="F169" s="6"/>
     </row>
-    <row r="170" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="20"/>
       <c r="D170" s="22"/>
       <c r="F170" s="6"/>
     </row>
-    <row r="171" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="20"/>
       <c r="D171" s="22"/>
       <c r="F171" s="6"/>
     </row>
-    <row r="172" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="20"/>
       <c r="D172" s="22"/>
       <c r="F172" s="6"/>
     </row>
-    <row r="173" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="20"/>
       <c r="D173" s="22"/>
       <c r="F173" s="6"/>
     </row>
-    <row r="174" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="20"/>
       <c r="D174" s="22"/>
       <c r="F174" s="6"/>
     </row>
-    <row r="175" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="20"/>
       <c r="D175" s="22"/>
       <c r="F175" s="6"/>
     </row>
-    <row r="176" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="20"/>
       <c r="D176" s="22"/>
       <c r="F176" s="6"/>
     </row>
-    <row r="177" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="20"/>
       <c r="D177" s="22"/>
       <c r="F177" s="6"/>
     </row>
-    <row r="178" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="20"/>
       <c r="D178" s="22"/>
       <c r="F178" s="6"/>
     </row>
-    <row r="179" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="20"/>
       <c r="D179" s="22"/>
       <c r="F179" s="6"/>
     </row>
-    <row r="180" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="20"/>
       <c r="D180" s="22"/>
       <c r="F180" s="6"/>
     </row>
-    <row r="181" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="20"/>
       <c r="D181" s="22"/>
       <c r="F181" s="6"/>
     </row>
-    <row r="182" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="20"/>
       <c r="D182" s="22"/>
       <c r="F182" s="6"/>
     </row>
-    <row r="183" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="20"/>
       <c r="D183" s="22"/>
       <c r="F183" s="6"/>
     </row>
-    <row r="184" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="20"/>
       <c r="D184" s="22"/>
       <c r="F184" s="6"/>
     </row>
-    <row r="185" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="20"/>
       <c r="D185" s="22"/>
       <c r="F185" s="6"/>
     </row>
-    <row r="186" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="20"/>
       <c r="D186" s="22"/>
       <c r="F186" s="6"/>
     </row>
-    <row r="187" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="20"/>
       <c r="D187" s="22"/>
       <c r="F187" s="6"/>
     </row>
-    <row r="188" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="20"/>
       <c r="D188" s="22"/>
       <c r="F188" s="6"/>
     </row>
-    <row r="189" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="20"/>
       <c r="D189" s="22"/>
       <c r="F189" s="6"/>
     </row>
-    <row r="190" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="20"/>
       <c r="D190" s="22"/>
       <c r="F190" s="6"/>
     </row>
-    <row r="191" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="20"/>
       <c r="D191" s="22"/>
       <c r="F191" s="6"/>
     </row>
-    <row r="192" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="20"/>
       <c r="D192" s="22"/>
       <c r="F192" s="6"/>
     </row>
-    <row r="193" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
       <c r="D193" s="22"/>
       <c r="F193" s="6"/>
     </row>
-    <row r="194" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
       <c r="D194" s="22"/>
       <c r="F194" s="6"/>
     </row>
-    <row r="195" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
       <c r="D195" s="22"/>
       <c r="F195" s="6"/>
     </row>
-    <row r="196" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
       <c r="D196" s="22"/>
       <c r="F196" s="6"/>
     </row>
-    <row r="197" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="20"/>
       <c r="D197" s="22"/>
       <c r="F197" s="6"/>
     </row>
-    <row r="198" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="20"/>
       <c r="D198" s="22"/>
       <c r="F198" s="6"/>
     </row>
-    <row r="199" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="20"/>
       <c r="D199" s="22"/>
       <c r="F199" s="6"/>
     </row>
-    <row r="200" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
       <c r="D200" s="22"/>
       <c r="F200" s="6"/>
     </row>
-    <row r="201" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
       <c r="D201" s="22"/>
       <c r="F201" s="6"/>
     </row>
-    <row r="202" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
       <c r="D202" s="22"/>
       <c r="F202" s="6"/>
     </row>
-    <row r="203" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
       <c r="D203" s="22"/>
       <c r="F203" s="6"/>
     </row>
-    <row r="204" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
       <c r="D204" s="22"/>
       <c r="F204" s="6"/>
     </row>
-    <row r="205" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="20"/>
       <c r="D205" s="22"/>
       <c r="F205" s="6"/>
     </row>
-    <row r="206" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="20"/>
       <c r="D206" s="22"/>
       <c r="F206" s="6"/>
     </row>
-    <row r="207" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="20"/>
       <c r="D207" s="22"/>
       <c r="F207" s="6"/>
     </row>
-    <row r="208" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="20"/>
       <c r="D208" s="22"/>
       <c r="F208" s="6"/>
     </row>
-    <row r="209" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="20"/>
       <c r="D209" s="22"/>
       <c r="F209" s="6"/>
     </row>
-    <row r="210" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="20"/>
       <c r="D210" s="22"/>
       <c r="F210" s="6"/>
     </row>
-    <row r="211" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="20"/>
       <c r="D211" s="22"/>
       <c r="F211" s="6"/>
     </row>
-    <row r="212" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="20"/>
       <c r="D212" s="22"/>
       <c r="F212" s="6"/>
     </row>
-    <row r="213" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="20"/>
       <c r="D213" s="22"/>
       <c r="F213" s="6"/>
     </row>
-    <row r="214" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="20"/>
       <c r="D214" s="22"/>
       <c r="F214" s="6"/>
     </row>
-    <row r="215" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="20"/>
       <c r="D215" s="22"/>
       <c r="F215" s="6"/>
     </row>
-    <row r="216" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="20"/>
       <c r="D216" s="22"/>
       <c r="F216" s="6"/>
     </row>
-    <row r="217" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="20"/>
       <c r="D217" s="22"/>
       <c r="F217" s="6"/>
     </row>
-    <row r="218" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="20"/>
       <c r="D218" s="22"/>
       <c r="F218" s="6"/>
     </row>
-    <row r="219" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="20"/>
       <c r="D219" s="22"/>
       <c r="F219" s="6"/>
     </row>
-    <row r="220" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="20"/>
       <c r="D220" s="22"/>
       <c r="F220" s="6"/>
     </row>
-    <row r="221" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="20"/>
       <c r="D221" s="22"/>
       <c r="F221" s="6"/>
     </row>
-    <row r="222" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="20"/>
       <c r="D222" s="22"/>
       <c r="F222" s="6"/>
     </row>
-    <row r="223" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="20"/>
       <c r="D223" s="22"/>
       <c r="F223" s="6"/>
     </row>
-    <row r="224" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="20"/>
       <c r="D224" s="22"/>
       <c r="F224" s="6"/>
     </row>
-    <row r="225" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="20"/>
       <c r="D225" s="22"/>
       <c r="F225" s="6"/>
     </row>
-    <row r="226" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="20"/>
       <c r="D226" s="22"/>
       <c r="F226" s="6"/>
     </row>
-    <row r="227" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="20"/>
       <c r="D227" s="22"/>
       <c r="F227" s="6"/>
     </row>
-    <row r="228" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="20"/>
       <c r="D228" s="22"/>
       <c r="F228" s="6"/>
     </row>
-    <row r="229" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="20"/>
       <c r="D229" s="22"/>
       <c r="F229" s="6"/>
     </row>
-    <row r="230" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="20"/>
       <c r="D230" s="22"/>
       <c r="F230" s="6"/>
     </row>
-    <row r="231" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="20"/>
       <c r="D231" s="22"/>
       <c r="F231" s="6"/>
     </row>
-    <row r="232" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="20"/>
       <c r="D232" s="22"/>
       <c r="F232" s="6"/>
     </row>
-    <row r="233" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="20"/>
       <c r="D233" s="22"/>
       <c r="F233" s="6"/>
     </row>
-    <row r="234" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="20"/>
       <c r="D234" s="22"/>
       <c r="F234" s="6"/>
     </row>
-    <row r="235" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="20"/>
       <c r="D235" s="22"/>
       <c r="F235" s="6"/>
     </row>
-    <row r="236" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="20"/>
       <c r="D236" s="22"/>
       <c r="F236" s="6"/>
     </row>
-    <row r="237" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="20"/>
       <c r="D237" s="22"/>
       <c r="F237" s="6"/>
     </row>
-    <row r="238" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="20"/>
       <c r="D238" s="22"/>
       <c r="F238" s="6"/>
     </row>
-    <row r="239" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="20"/>
       <c r="D239" s="22"/>
       <c r="F239" s="6"/>
     </row>
-    <row r="240" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="20"/>
       <c r="D240" s="22"/>
       <c r="F240" s="6"/>
     </row>
-    <row r="241" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="20"/>
       <c r="D241" s="22"/>
       <c r="F241" s="6"/>
     </row>
-    <row r="242" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="20"/>
       <c r="D242" s="22"/>
       <c r="F242" s="6"/>
     </row>
-    <row r="243" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="20"/>
       <c r="D243" s="22"/>
       <c r="F243" s="6"/>
     </row>
-    <row r="244" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="20"/>
       <c r="D244" s="22"/>
       <c r="F244" s="6"/>
     </row>
-    <row r="245" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="20"/>
       <c r="D245" s="22"/>
       <c r="F245" s="6"/>
     </row>
-    <row r="246" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="20"/>
       <c r="D246" s="22"/>
       <c r="F246" s="6"/>
     </row>
-    <row r="247" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="20"/>
       <c r="D247" s="22"/>
       <c r="F247" s="6"/>
     </row>
-    <row r="248" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="20"/>
       <c r="D248" s="22"/>
       <c r="F248" s="6"/>
     </row>
-    <row r="249" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="20"/>
       <c r="D249" s="22"/>
       <c r="F249" s="6"/>
     </row>
-    <row r="250" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="20"/>
       <c r="D250" s="22"/>
       <c r="F250" s="6"/>
     </row>
-    <row r="251" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="20"/>
       <c r="D251" s="22"/>
       <c r="F251" s="6"/>
     </row>
-    <row r="252" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="20"/>
       <c r="D252" s="22"/>
       <c r="F252" s="6"/>
     </row>
-    <row r="253" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="20"/>
       <c r="D253" s="22"/>
       <c r="F253" s="6"/>
     </row>
-    <row r="254" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="20"/>
       <c r="D254" s="22"/>
       <c r="F254" s="6"/>
     </row>
-    <row r="255" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="20"/>
       <c r="D255" s="22"/>
       <c r="F255" s="6"/>
     </row>
-    <row r="256" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="20"/>
       <c r="D256" s="22"/>
       <c r="F256" s="6"/>
     </row>
-    <row r="257" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="20"/>
       <c r="D257" s="22"/>
       <c r="F257" s="6"/>
     </row>
-    <row r="258" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="20"/>
       <c r="D258" s="22"/>
       <c r="F258" s="6"/>
     </row>
-    <row r="259" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="20"/>
       <c r="D259" s="22"/>
       <c r="F259" s="6"/>
     </row>
-    <row r="260" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="20"/>
       <c r="D260" s="22"/>
       <c r="F260" s="6"/>
     </row>
-    <row r="261" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="20"/>
       <c r="D261" s="22"/>
       <c r="F261" s="6"/>
     </row>
-    <row r="262" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="20"/>
       <c r="D262" s="22"/>
       <c r="F262" s="6"/>
     </row>
-    <row r="263" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="20"/>
       <c r="D263" s="22"/>
       <c r="F263" s="6"/>
     </row>
-    <row r="264" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="20"/>
       <c r="D264" s="22"/>
       <c r="F264" s="6"/>
     </row>
-    <row r="265" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="20"/>
       <c r="D265" s="22"/>
       <c r="F265" s="6"/>
     </row>
-    <row r="266" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="20"/>
       <c r="D266" s="22"/>
       <c r="F266" s="6"/>
     </row>
-    <row r="267" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="20"/>
       <c r="D267" s="22"/>
       <c r="F267" s="6"/>
     </row>
-    <row r="268" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="20"/>
       <c r="D268" s="22"/>
       <c r="F268" s="6"/>
     </row>
-    <row r="269" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="20"/>
       <c r="D269" s="22"/>
       <c r="F269" s="6"/>
     </row>
-    <row r="270" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="20"/>
       <c r="D270" s="22"/>
       <c r="F270" s="6"/>
     </row>
-    <row r="271" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="20"/>
       <c r="D271" s="22"/>
       <c r="F271" s="6"/>
     </row>
-    <row r="272" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="20"/>
       <c r="D272" s="22"/>
       <c r="F272" s="6"/>
     </row>
-    <row r="273" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="20"/>
       <c r="D273" s="22"/>
       <c r="F273" s="6"/>
     </row>
-    <row r="274" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="20"/>
       <c r="D274" s="22"/>
       <c r="F274" s="6"/>
     </row>
-    <row r="275" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="20"/>
       <c r="D275" s="22"/>
       <c r="F275" s="6"/>
     </row>
-    <row r="276" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="20"/>
       <c r="D276" s="22"/>
       <c r="F276" s="6"/>
     </row>
-    <row r="277" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="20"/>
       <c r="D277" s="22"/>
       <c r="F277" s="6"/>
     </row>
-    <row r="278" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="20"/>
       <c r="D278" s="22"/>
       <c r="F278" s="6"/>
     </row>
-    <row r="279" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="20"/>
       <c r="D279" s="22"/>
       <c r="F279" s="6"/>
     </row>
-    <row r="280" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="20"/>
       <c r="D280" s="22"/>
       <c r="F280" s="6"/>
     </row>
-    <row r="281" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="20"/>
       <c r="D281" s="22"/>
       <c r="F281" s="6"/>
     </row>
-    <row r="282" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="20"/>
       <c r="D282" s="22"/>
       <c r="F282" s="6"/>
     </row>
-    <row r="283" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="20"/>
       <c r="D283" s="22"/>
       <c r="F283" s="6"/>
     </row>
-    <row r="284" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="20"/>
       <c r="D284" s="22"/>
       <c r="F284" s="6"/>
     </row>
-    <row r="285" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="20"/>
       <c r="D285" s="22"/>
       <c r="F285" s="6"/>
     </row>
-    <row r="286" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="20"/>
       <c r="D286" s="22"/>
       <c r="F286" s="6"/>
     </row>
-    <row r="287" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="20"/>
       <c r="D287" s="22"/>
       <c r="F287" s="6"/>
     </row>
-    <row r="288" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="20"/>
       <c r="D288" s="22"/>
       <c r="F288" s="6"/>
     </row>
-    <row r="289" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="20"/>
       <c r="D289" s="22"/>
       <c r="F289" s="6"/>
     </row>
-    <row r="290" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="20"/>
       <c r="D290" s="22"/>
       <c r="F290" s="6"/>
     </row>
-    <row r="291" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="20"/>
       <c r="D291" s="22"/>
       <c r="F291" s="6"/>
     </row>
-    <row r="292" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="20"/>
       <c r="D292" s="22"/>
       <c r="F292" s="6"/>
     </row>
-    <row r="293" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="20"/>
       <c r="D293" s="22"/>
       <c r="F293" s="6"/>
     </row>
-    <row r="294" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="20"/>
       <c r="D294" s="22"/>
       <c r="F294" s="6"/>
     </row>
-    <row r="295" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="20"/>
       <c r="D295" s="22"/>
       <c r="F295" s="6"/>
     </row>
-    <row r="296" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="20"/>
       <c r="D296" s="22"/>
       <c r="F296" s="6"/>
     </row>
-    <row r="297" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="20"/>
       <c r="D297" s="22"/>
       <c r="F297" s="6"/>
     </row>
-    <row r="298" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="20"/>
       <c r="D298" s="22"/>
       <c r="F298" s="6"/>
     </row>
-    <row r="299" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="20"/>
       <c r="D299" s="22"/>
       <c r="F299" s="6"/>
     </row>
-    <row r="300" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="20"/>
       <c r="D300" s="22"/>
       <c r="F300" s="6"/>
     </row>
-    <row r="301" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="20"/>
       <c r="D301" s="22"/>
       <c r="F301" s="6"/>
     </row>
-    <row r="302" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="20"/>
       <c r="D302" s="22"/>
       <c r="F302" s="6"/>
     </row>
-    <row r="303" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="20"/>
       <c r="D303" s="22"/>
       <c r="F303" s="6"/>
     </row>
-    <row r="304" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="20"/>
       <c r="D304" s="22"/>
       <c r="F304" s="6"/>
     </row>
-    <row r="305" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="20"/>
       <c r="D305" s="22"/>
       <c r="F305" s="6"/>
     </row>
-    <row r="306" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="20"/>
       <c r="D306" s="22"/>
       <c r="F306" s="6"/>
     </row>
-    <row r="307" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="20"/>
       <c r="D307" s="22"/>
       <c r="F307" s="6"/>
     </row>
-    <row r="308" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="20"/>
       <c r="D308" s="22"/>
       <c r="F308" s="6"/>
     </row>
-    <row r="309" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="20"/>
       <c r="D309" s="22"/>
       <c r="F309" s="6"/>
     </row>
-    <row r="310" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="20"/>
       <c r="D310" s="22"/>
       <c r="F310" s="6"/>
     </row>
-    <row r="311" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="20"/>
       <c r="D311" s="22"/>
       <c r="F311" s="6"/>
     </row>
-    <row r="312" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="20"/>
       <c r="D312" s="22"/>
       <c r="F312" s="6"/>
     </row>
-    <row r="313" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="20"/>
       <c r="D313" s="22"/>
       <c r="F313" s="6"/>
     </row>
-    <row r="314" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="20"/>
       <c r="D314" s="22"/>
       <c r="F314" s="6"/>
     </row>
-    <row r="315" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="20"/>
       <c r="D315" s="22"/>
       <c r="F315" s="6"/>
     </row>
-    <row r="316" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="20"/>
       <c r="D316" s="22"/>
       <c r="F316" s="6"/>
     </row>
-    <row r="317" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="20"/>
       <c r="D317" s="22"/>
       <c r="F317" s="6"/>
     </row>
-    <row r="318" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="20"/>
       <c r="D318" s="22"/>
       <c r="F318" s="6"/>
     </row>
-    <row r="319" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="20"/>
       <c r="D319" s="22"/>
       <c r="F319" s="6"/>
     </row>
-    <row r="320" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="20"/>
       <c r="D320" s="22"/>
       <c r="F320" s="6"/>
     </row>
-    <row r="321" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="20"/>
       <c r="D321" s="22"/>
       <c r="F321" s="6"/>
     </row>
-    <row r="322" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="20"/>
       <c r="D322" s="22"/>
       <c r="F322" s="6"/>
     </row>
-    <row r="323" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="20"/>
       <c r="D323" s="22"/>
       <c r="F323" s="6"/>
     </row>
-    <row r="324" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="20"/>
       <c r="D324" s="22"/>
       <c r="F324" s="6"/>
     </row>
-    <row r="325" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="20"/>
       <c r="D325" s="22"/>
       <c r="F325" s="6"/>
     </row>
-    <row r="326" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="20"/>
       <c r="D326" s="22"/>
       <c r="F326" s="6"/>
     </row>
-    <row r="327" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="20"/>
       <c r="D327" s="22"/>
       <c r="F327" s="6"/>
     </row>
-    <row r="328" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="20"/>
       <c r="D328" s="22"/>
       <c r="F328" s="6"/>
     </row>
-    <row r="329" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="20"/>
       <c r="D329" s="22"/>
       <c r="F329" s="6"/>
     </row>
-    <row r="330" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="20"/>
       <c r="D330" s="22"/>
       <c r="F330" s="6"/>
     </row>
-    <row r="331" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="20"/>
       <c r="D331" s="22"/>
       <c r="F331" s="6"/>
     </row>
-    <row r="332" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="20"/>
       <c r="D332" s="22"/>
       <c r="F332" s="6"/>
     </row>
-    <row r="333" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="20"/>
       <c r="D333" s="22"/>
       <c r="F333" s="6"/>
     </row>
-    <row r="334" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="20"/>
       <c r="D334" s="22"/>
       <c r="F334" s="6"/>
     </row>
-    <row r="335" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="20"/>
       <c r="D335" s="22"/>
       <c r="F335" s="6"/>
     </row>
-    <row r="336" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="20"/>
       <c r="D336" s="22"/>
       <c r="F336" s="6"/>
     </row>
-    <row r="337" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="20"/>
       <c r="D337" s="22"/>
       <c r="F337" s="6"/>
     </row>
-    <row r="338" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="20"/>
       <c r="D338" s="22"/>
       <c r="F338" s="6"/>
     </row>
-    <row r="339" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="20"/>
       <c r="D339" s="22"/>
       <c r="F339" s="6"/>
     </row>
-    <row r="340" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="20"/>
       <c r="D340" s="22"/>
       <c r="F340" s="6"/>
     </row>
-    <row r="341" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="20"/>
       <c r="D341" s="22"/>
       <c r="F341" s="6"/>
     </row>
-    <row r="342" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="20"/>
       <c r="D342" s="22"/>
       <c r="F342" s="6"/>
     </row>
-    <row r="343" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="20"/>
       <c r="D343" s="22"/>
       <c r="F343" s="6"/>
     </row>
-    <row r="344" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="20"/>
       <c r="D344" s="22"/>
       <c r="F344" s="6"/>
     </row>
-    <row r="345" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="20"/>
       <c r="D345" s="22"/>
       <c r="F345" s="6"/>
     </row>
-    <row r="346" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="20"/>
       <c r="D346" s="22"/>
       <c r="F346" s="6"/>
     </row>
-    <row r="347" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="20"/>
       <c r="D347" s="22"/>
       <c r="F347" s="6"/>
     </row>
-    <row r="348" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="20"/>
       <c r="D348" s="22"/>
       <c r="F348" s="6"/>
     </row>
-    <row r="349" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="20"/>
       <c r="D349" s="22"/>
       <c r="F349" s="6"/>
     </row>
-    <row r="350" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="20"/>
       <c r="D350" s="22"/>
       <c r="F350" s="6"/>
     </row>
-    <row r="351" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="20"/>
       <c r="D351" s="22"/>
       <c r="F351" s="6"/>
     </row>
-    <row r="352" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="20"/>
       <c r="D352" s="22"/>
       <c r="F352" s="6"/>
     </row>
-    <row r="353" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="20"/>
       <c r="D353" s="22"/>
       <c r="F353" s="6"/>
     </row>
-    <row r="354" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="20"/>
       <c r="D354" s="22"/>
       <c r="F354" s="6"/>
     </row>
-    <row r="355" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="20"/>
       <c r="D355" s="22"/>
       <c r="F355" s="6"/>
     </row>
-    <row r="356" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="20"/>
       <c r="D356" s="22"/>
       <c r="F356" s="6"/>
     </row>
-    <row r="357" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="20"/>
       <c r="D357" s="22"/>
       <c r="F357" s="6"/>
     </row>
-    <row r="358" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="20"/>
       <c r="D358" s="22"/>
       <c r="F358" s="6"/>
     </row>
-    <row r="359" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="20"/>
       <c r="D359" s="22"/>
       <c r="F359" s="6"/>
     </row>
-    <row r="360" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="20"/>
       <c r="D360" s="22"/>
       <c r="F360" s="6"/>
     </row>
-    <row r="361" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="20"/>
       <c r="D361" s="22"/>
       <c r="F361" s="6"/>
     </row>
-    <row r="362" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="20"/>
       <c r="D362" s="22"/>
       <c r="F362" s="6"/>
     </row>
-    <row r="363" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="20"/>
       <c r="D363" s="22"/>
       <c r="F363" s="6"/>
     </row>
-    <row r="364" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="20"/>
       <c r="D364" s="22"/>
       <c r="F364" s="6"/>
     </row>
-    <row r="365" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="20"/>
       <c r="D365" s="22"/>
       <c r="F365" s="6"/>
     </row>
-    <row r="366" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="20"/>
       <c r="D366" s="22"/>
       <c r="F366" s="6"/>
     </row>
-    <row r="367" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="20"/>
       <c r="D367" s="22"/>
       <c r="F367" s="6"/>
     </row>
-    <row r="368" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="20"/>
       <c r="D368" s="22"/>
       <c r="F368" s="6"/>
     </row>
-    <row r="369" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="20"/>
       <c r="D369" s="22"/>
       <c r="F369" s="6"/>
     </row>
-    <row r="370" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="20"/>
       <c r="D370" s="22"/>
       <c r="F370" s="6"/>
     </row>
-    <row r="371" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="20"/>
       <c r="D371" s="22"/>
       <c r="F371" s="6"/>
     </row>
-    <row r="372" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="20"/>
       <c r="D372" s="22"/>
       <c r="F372" s="6"/>
     </row>
-    <row r="373" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="20"/>
       <c r="D373" s="22"/>
       <c r="F373" s="6"/>
     </row>
-    <row r="374" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="20"/>
       <c r="D374" s="22"/>
       <c r="F374" s="6"/>
     </row>
-    <row r="375" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="20"/>
       <c r="D375" s="22"/>
       <c r="F375" s="6"/>
     </row>
-    <row r="376" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="20"/>
       <c r="D376" s="22"/>
       <c r="F376" s="6"/>
     </row>
-    <row r="377" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="20"/>
       <c r="D377" s="22"/>
       <c r="F377" s="6"/>
     </row>
-    <row r="378" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="20"/>
       <c r="D378" s="22"/>
       <c r="F378" s="6"/>
     </row>
-    <row r="379" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="20"/>
       <c r="D379" s="22"/>
       <c r="F379" s="6"/>
     </row>
-    <row r="380" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="20"/>
       <c r="D380" s="22"/>
       <c r="F380" s="6"/>
     </row>
-    <row r="381" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="20"/>
       <c r="D381" s="22"/>
       <c r="F381" s="6"/>
     </row>
-    <row r="382" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="20"/>
       <c r="D382" s="22"/>
       <c r="F382" s="6"/>
     </row>
-    <row r="383" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="20"/>
       <c r="D383" s="22"/>
       <c r="F383" s="6"/>
     </row>
-    <row r="384" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="20"/>
       <c r="D384" s="22"/>
       <c r="F384" s="6"/>
     </row>
-    <row r="385" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="20"/>
       <c r="D385" s="22"/>
       <c r="F385" s="6"/>
     </row>
-    <row r="386" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="20"/>
       <c r="D386" s="22"/>
       <c r="F386" s="6"/>
     </row>
-    <row r="387" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="20"/>
       <c r="D387" s="22"/>
       <c r="F387" s="6"/>
     </row>
-    <row r="388" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="20"/>
       <c r="D388" s="22"/>
       <c r="F388" s="6"/>
     </row>
-    <row r="389" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="20"/>
       <c r="D389" s="22"/>
       <c r="F389" s="6"/>
     </row>
-    <row r="390" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="20"/>
       <c r="D390" s="22"/>
       <c r="F390" s="6"/>
     </row>
-    <row r="391" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="20"/>
       <c r="D391" s="22"/>
       <c r="F391" s="6"/>
     </row>
-    <row r="392" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="20"/>
       <c r="D392" s="22"/>
       <c r="F392" s="6"/>
     </row>
-    <row r="393" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="20"/>
       <c r="D393" s="22"/>
       <c r="F393" s="6"/>
     </row>
-    <row r="394" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="20"/>
       <c r="D394" s="22"/>
       <c r="F394" s="6"/>
     </row>
-    <row r="395" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="20"/>
       <c r="D395" s="22"/>
       <c r="F395" s="6"/>
     </row>
-    <row r="396" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="20"/>
       <c r="D396" s="22"/>
       <c r="F396" s="6"/>
     </row>
-    <row r="397" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="20"/>
       <c r="D397" s="22"/>
       <c r="F397" s="6"/>
     </row>
-    <row r="398" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="20"/>
       <c r="D398" s="22"/>
       <c r="F398" s="6"/>
     </row>
-    <row r="399" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="20"/>
       <c r="D399" s="22"/>
       <c r="F399" s="6"/>
     </row>
-    <row r="400" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="20"/>
       <c r="D400" s="22"/>
       <c r="F400" s="6"/>
     </row>
-    <row r="401" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="20"/>
       <c r="D401" s="22"/>
       <c r="F401" s="6"/>
     </row>
-    <row r="402" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="20"/>
       <c r="D402" s="22"/>
       <c r="F402" s="6"/>
     </row>
-    <row r="403" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="20"/>
       <c r="D403" s="22"/>
       <c r="F403" s="6"/>
     </row>
-    <row r="404" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="20"/>
       <c r="D404" s="22"/>
       <c r="F404" s="6"/>
     </row>
-    <row r="405" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="20"/>
       <c r="D405" s="22"/>
       <c r="F405" s="6"/>
     </row>
-    <row r="406" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="20"/>
       <c r="D406" s="22"/>
       <c r="F406" s="6"/>
     </row>
-    <row r="407" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="20"/>
       <c r="D407" s="22"/>
       <c r="F407" s="6"/>
     </row>
-    <row r="408" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="20"/>
       <c r="D408" s="22"/>
       <c r="F408" s="6"/>
     </row>
-    <row r="409" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="20"/>
       <c r="D409" s="22"/>
       <c r="F409" s="6"/>
     </row>
-    <row r="410" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="20"/>
       <c r="D410" s="22"/>
       <c r="F410" s="6"/>
     </row>
-    <row r="411" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="20"/>
       <c r="D411" s="22"/>
       <c r="F411" s="6"/>
     </row>
-    <row r="412" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="20"/>
       <c r="D412" s="22"/>
       <c r="F412" s="6"/>
     </row>
-    <row r="413" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="20"/>
       <c r="D413" s="22"/>
       <c r="F413" s="6"/>
     </row>
-    <row r="414" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="20"/>
       <c r="D414" s="22"/>
       <c r="F414" s="6"/>
     </row>
-    <row r="415" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="20"/>
       <c r="D415" s="22"/>
       <c r="F415" s="6"/>
     </row>
-    <row r="416" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="20"/>
       <c r="D416" s="22"/>
       <c r="F416" s="6"/>
     </row>
-    <row r="417" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="20"/>
       <c r="D417" s="22"/>
       <c r="F417" s="6"/>
     </row>
-    <row r="418" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="20"/>
       <c r="D418" s="22"/>
       <c r="F418" s="6"/>
     </row>
-    <row r="419" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="20"/>
       <c r="D419" s="22"/>
       <c r="F419" s="6"/>
     </row>
-    <row r="420" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="20"/>
       <c r="D420" s="22"/>
       <c r="F420" s="6"/>
     </row>
-    <row r="421" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="20"/>
       <c r="D421" s="22"/>
       <c r="F421" s="6"/>
     </row>
-    <row r="422" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="20"/>
       <c r="D422" s="22"/>
       <c r="F422" s="6"/>
     </row>
-    <row r="423" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="20"/>
       <c r="D423" s="22"/>
       <c r="F423" s="6"/>
     </row>
-    <row r="424" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="20"/>
       <c r="D424" s="22"/>
       <c r="F424" s="6"/>
     </row>
-    <row r="425" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="20"/>
       <c r="D425" s="22"/>
       <c r="F425" s="6"/>
     </row>
-    <row r="426" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="20"/>
       <c r="D426" s="22"/>
       <c r="F426" s="6"/>
     </row>
-    <row r="427" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="20"/>
       <c r="D427" s="22"/>
       <c r="F427" s="6"/>
     </row>
-    <row r="428" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="20"/>
       <c r="D428" s="22"/>
       <c r="F428" s="6"/>
     </row>
-    <row r="429" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="20"/>
       <c r="D429" s="22"/>
       <c r="F429" s="6"/>
     </row>
-    <row r="430" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="20"/>
       <c r="D430" s="22"/>
       <c r="F430" s="6"/>
     </row>
-    <row r="431" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="20"/>
       <c r="D431" s="22"/>
       <c r="F431" s="6"/>
     </row>
-    <row r="432" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="20"/>
       <c r="D432" s="22"/>
       <c r="F432" s="6"/>
     </row>
-    <row r="433" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="20"/>
       <c r="D433" s="22"/>
       <c r="F433" s="6"/>
     </row>
-    <row r="434" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="20"/>
       <c r="D434" s="22"/>
       <c r="F434" s="6"/>
     </row>
-    <row r="435" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="20"/>
       <c r="D435" s="22"/>
       <c r="F435" s="6"/>
     </row>
-    <row r="436" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="20"/>
       <c r="D436" s="22"/>
       <c r="F436" s="6"/>
     </row>
-    <row r="437" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="20"/>
       <c r="D437" s="22"/>
       <c r="F437" s="6"/>
     </row>
-    <row r="438" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="20"/>
       <c r="D438" s="22"/>
       <c r="F438" s="6"/>
     </row>
-    <row r="439" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="20"/>
       <c r="D439" s="22"/>
       <c r="F439" s="6"/>
     </row>
-    <row r="440" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="20"/>
       <c r="D440" s="22"/>
       <c r="F440" s="6"/>
     </row>
-    <row r="441" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="20"/>
       <c r="D441" s="22"/>
       <c r="F441" s="6"/>
     </row>
-    <row r="442" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="20"/>
       <c r="D442" s="22"/>
       <c r="F442" s="6"/>
     </row>
-    <row r="443" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="20"/>
       <c r="D443" s="22"/>
       <c r="F443" s="6"/>
     </row>
-    <row r="444" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="20"/>
       <c r="D444" s="22"/>
       <c r="F444" s="6"/>
     </row>
-    <row r="445" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="20"/>
       <c r="D445" s="22"/>
       <c r="F445" s="6"/>
     </row>
-    <row r="446" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="20"/>
       <c r="D446" s="22"/>
       <c r="F446" s="6"/>
     </row>
-    <row r="447" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="20"/>
       <c r="D447" s="22"/>
       <c r="F447" s="6"/>
     </row>
-    <row r="448" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="20"/>
       <c r="D448" s="22"/>
       <c r="F448" s="6"/>
     </row>
-    <row r="449" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="20"/>
       <c r="D449" s="22"/>
       <c r="F449" s="6"/>
     </row>
-    <row r="450" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="20"/>
       <c r="D450" s="22"/>
       <c r="F450" s="6"/>
     </row>
-    <row r="451" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="20"/>
       <c r="D451" s="22"/>
       <c r="F451" s="6"/>
     </row>
-    <row r="452" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="20"/>
       <c r="D452" s="22"/>
       <c r="F452" s="6"/>
     </row>
-    <row r="453" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="20"/>
       <c r="D453" s="22"/>
       <c r="F453" s="6"/>
     </row>
-    <row r="454" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="20"/>
       <c r="D454" s="22"/>
       <c r="F454" s="6"/>
     </row>
-    <row r="455" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="20"/>
       <c r="D455" s="22"/>
       <c r="F455" s="6"/>
     </row>
-    <row r="456" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="20"/>
       <c r="D456" s="22"/>
       <c r="F456" s="6"/>
     </row>
-    <row r="457" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="20"/>
       <c r="D457" s="22"/>
       <c r="F457" s="6"/>
     </row>
-    <row r="458" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="20"/>
       <c r="D458" s="22"/>
       <c r="F458" s="6"/>
     </row>
-    <row r="459" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="20"/>
       <c r="D459" s="22"/>
       <c r="F459" s="6"/>
     </row>
-    <row r="460" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="20"/>
       <c r="D460" s="22"/>
       <c r="F460" s="6"/>
     </row>
-    <row r="461" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="20"/>
       <c r="D461" s="22"/>
       <c r="F461" s="6"/>
     </row>
-    <row r="462" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="20"/>
       <c r="D462" s="22"/>
       <c r="F462" s="6"/>
     </row>
-    <row r="463" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="20"/>
       <c r="D463" s="22"/>
       <c r="F463" s="6"/>
     </row>
-    <row r="464" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="20"/>
       <c r="D464" s="22"/>
       <c r="F464" s="6"/>
     </row>
-    <row r="465" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="20"/>
       <c r="D465" s="22"/>
       <c r="F465" s="6"/>
     </row>
-    <row r="466" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="20"/>
       <c r="D466" s="22"/>
       <c r="F466" s="6"/>
     </row>
-    <row r="467" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="20"/>
       <c r="D467" s="22"/>
       <c r="F467" s="6"/>
     </row>
-    <row r="468" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="20"/>
       <c r="D468" s="22"/>
       <c r="F468" s="6"/>
     </row>
-    <row r="469" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="20"/>
       <c r="D469" s="22"/>
       <c r="F469" s="6"/>
     </row>
-    <row r="470" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="20"/>
       <c r="D470" s="22"/>
       <c r="F470" s="6"/>
     </row>
-    <row r="471" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="20"/>
       <c r="D471" s="22"/>
       <c r="F471" s="6"/>
     </row>
-    <row r="472" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="20"/>
       <c r="D472" s="22"/>
       <c r="F472" s="6"/>
     </row>
-    <row r="473" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="20"/>
       <c r="D473" s="22"/>
       <c r="F473" s="6"/>
     </row>
-    <row r="474" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="20"/>
       <c r="D474" s="22"/>
       <c r="F474" s="6"/>
     </row>
-    <row r="475" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="20"/>
       <c r="D475" s="22"/>
       <c r="F475" s="6"/>
     </row>
-    <row r="476" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="20"/>
       <c r="D476" s="22"/>
       <c r="F476" s="6"/>
     </row>
-    <row r="477" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="20"/>
       <c r="D477" s="22"/>
       <c r="F477" s="6"/>
     </row>
-    <row r="478" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="20"/>
       <c r="D478" s="22"/>
       <c r="F478" s="6"/>
     </row>
-    <row r="479" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="20"/>
       <c r="D479" s="22"/>
       <c r="F479" s="6"/>
     </row>
-    <row r="480" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="20"/>
       <c r="D480" s="22"/>
       <c r="F480" s="6"/>
     </row>
-    <row r="481" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="20"/>
       <c r="D481" s="22"/>
       <c r="F481" s="6"/>
     </row>
-    <row r="482" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="20"/>
       <c r="D482" s="22"/>
       <c r="F482" s="6"/>
     </row>
-    <row r="483" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="20"/>
       <c r="D483" s="22"/>
       <c r="F483" s="6"/>
     </row>
-    <row r="484" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="20"/>
       <c r="D484" s="22"/>
       <c r="F484" s="6"/>
     </row>
-    <row r="485" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="20"/>
       <c r="D485" s="22"/>
       <c r="F485" s="6"/>
     </row>
-    <row r="486" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="20"/>
       <c r="D486" s="22"/>
       <c r="F486" s="6"/>
     </row>
-    <row r="487" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="20"/>
       <c r="D487" s="22"/>
       <c r="F487" s="6"/>
     </row>
-    <row r="488" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="20"/>
       <c r="D488" s="22"/>
       <c r="F488" s="6"/>
     </row>
-    <row r="489" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="20"/>
       <c r="D489" s="22"/>
       <c r="F489" s="6"/>
     </row>
-    <row r="490" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="20"/>
       <c r="D490" s="22"/>
       <c r="F490" s="6"/>
     </row>
-    <row r="491" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="20"/>
       <c r="D491" s="22"/>
       <c r="F491" s="6"/>
     </row>
-    <row r="492" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="20"/>
       <c r="D492" s="22"/>
       <c r="F492" s="6"/>
     </row>
-    <row r="493" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="20"/>
       <c r="D493" s="22"/>
       <c r="F493" s="6"/>
     </row>
-    <row r="494" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="20"/>
       <c r="D494" s="22"/>
       <c r="F494" s="6"/>
     </row>
-    <row r="495" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="20"/>
       <c r="D495" s="22"/>
       <c r="F495" s="6"/>
     </row>
-    <row r="496" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="20"/>
       <c r="D496" s="22"/>
       <c r="F496" s="6"/>
     </row>
-    <row r="497" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="20"/>
       <c r="D497" s="22"/>
       <c r="F497" s="6"/>
     </row>
-    <row r="498" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="20"/>
       <c r="D498" s="22"/>
       <c r="F498" s="6"/>
     </row>
-    <row r="499" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="20"/>
       <c r="D499" s="22"/>
       <c r="F499" s="6"/>
     </row>
-    <row r="500" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="20"/>
       <c r="D500" s="22"/>
       <c r="F500" s="6"/>
     </row>
-    <row r="501" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="20"/>
       <c r="D501" s="22"/>
       <c r="F501" s="6"/>
     </row>
-    <row r="502" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="20"/>
       <c r="D502" s="22"/>
       <c r="F502" s="6"/>
     </row>
-    <row r="503" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="20"/>
       <c r="D503" s="22"/>
       <c r="F503" s="6"/>
     </row>
-    <row r="504" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="20"/>
       <c r="D504" s="22"/>
       <c r="F504" s="6"/>
     </row>
-    <row r="505" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="20"/>
       <c r="D505" s="22"/>
       <c r="F505" s="6"/>
     </row>
-    <row r="506" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="20"/>
       <c r="D506" s="22"/>
       <c r="F506" s="6"/>
     </row>
-    <row r="507" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="20"/>
       <c r="D507" s="22"/>
       <c r="F507" s="6"/>
     </row>
-    <row r="508" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="20"/>
       <c r="D508" s="22"/>
       <c r="F508" s="6"/>
     </row>
-    <row r="509" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="20"/>
       <c r="D509" s="22"/>
       <c r="F509" s="6"/>
     </row>
-    <row r="510" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="20"/>
       <c r="D510" s="22"/>
       <c r="F510" s="6"/>
     </row>
-    <row r="511" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="20"/>
       <c r="D511" s="22"/>
       <c r="F511" s="6"/>
     </row>
-    <row r="512" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="20"/>
       <c r="D512" s="22"/>
       <c r="F512" s="6"/>
     </row>
-    <row r="513" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="20"/>
       <c r="D513" s="22"/>
       <c r="F513" s="6"/>
     </row>
-    <row r="514" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="20"/>
       <c r="D514" s="22"/>
       <c r="F514" s="6"/>
     </row>
-    <row r="515" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="20"/>
       <c r="D515" s="22"/>
       <c r="F515" s="6"/>
     </row>
-    <row r="516" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="20"/>
       <c r="D516" s="22"/>
       <c r="F516" s="6"/>
     </row>
-    <row r="517" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="20"/>
       <c r="D517" s="22"/>
       <c r="F517" s="6"/>
     </row>
-    <row r="518" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="20"/>
       <c r="D518" s="22"/>
       <c r="F518" s="6"/>
     </row>
-    <row r="519" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="20"/>
       <c r="D519" s="22"/>
       <c r="F519" s="6"/>
     </row>
-    <row r="520" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="20"/>
       <c r="D520" s="22"/>
       <c r="F520" s="6"/>
     </row>
-    <row r="521" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="20"/>
       <c r="D521" s="22"/>
       <c r="F521" s="6"/>
     </row>
-    <row r="522" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="20"/>
       <c r="D522" s="22"/>
       <c r="F522" s="6"/>
     </row>
-    <row r="523" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="20"/>
       <c r="D523" s="22"/>
       <c r="F523" s="6"/>
     </row>
-    <row r="524" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="20"/>
       <c r="D524" s="22"/>
       <c r="F524" s="6"/>
     </row>
-    <row r="525" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="20"/>
       <c r="D525" s="22"/>
       <c r="F525" s="6"/>
     </row>
-    <row r="526" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="20"/>
       <c r="D526" s="22"/>
       <c r="F526" s="6"/>
     </row>
-    <row r="527" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="20"/>
       <c r="D527" s="22"/>
       <c r="F527" s="6"/>
     </row>
-    <row r="528" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="20"/>
       <c r="D528" s="22"/>
       <c r="F528" s="6"/>
     </row>
-    <row r="529" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="20"/>
       <c r="D529" s="22"/>
       <c r="F529" s="6"/>
     </row>
-    <row r="530" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="20"/>
       <c r="D530" s="22"/>
       <c r="F530" s="6"/>
     </row>
-    <row r="531" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="20"/>
       <c r="D531" s="22"/>
       <c r="F531" s="6"/>
     </row>
-    <row r="532" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="20"/>
       <c r="D532" s="22"/>
       <c r="F532" s="6"/>
     </row>
-    <row r="533" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="20"/>
       <c r="D533" s="22"/>
       <c r="F533" s="6"/>
     </row>
-    <row r="534" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="20"/>
       <c r="D534" s="22"/>
       <c r="F534" s="6"/>
     </row>
-    <row r="535" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="20"/>
       <c r="D535" s="22"/>
       <c r="F535" s="6"/>
     </row>
-    <row r="536" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="20"/>
       <c r="D536" s="22"/>
       <c r="F536" s="6"/>
     </row>
-    <row r="537" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="20"/>
       <c r="D537" s="22"/>
       <c r="F537" s="6"/>
     </row>
-    <row r="538" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="20"/>
       <c r="D538" s="22"/>
       <c r="F538" s="6"/>
     </row>
-    <row r="539" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="20"/>
       <c r="D539" s="22"/>
       <c r="F539" s="6"/>
     </row>
-    <row r="540" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="20"/>
       <c r="D540" s="22"/>
       <c r="F540" s="6"/>
     </row>
-    <row r="541" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="20"/>
       <c r="D541" s="22"/>
       <c r="F541" s="6"/>
     </row>
-    <row r="542" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="20"/>
       <c r="D542" s="22"/>
       <c r="F542" s="6"/>
     </row>
-    <row r="543" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="20"/>
       <c r="D543" s="22"/>
       <c r="F543" s="6"/>
     </row>
-    <row r="544" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="20"/>
       <c r="D544" s="22"/>
       <c r="F544" s="6"/>
     </row>
-    <row r="545" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="20"/>
       <c r="D545" s="22"/>
       <c r="F545" s="6"/>
     </row>
-    <row r="546" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="20"/>
       <c r="D546" s="22"/>
       <c r="F546" s="6"/>
     </row>
-    <row r="547" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="20"/>
       <c r="D547" s="22"/>
       <c r="F547" s="6"/>
     </row>
-    <row r="548" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="20"/>
       <c r="D548" s="22"/>
       <c r="F548" s="6"/>
     </row>
-    <row r="549" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="20"/>
       <c r="D549" s="22"/>
       <c r="F549" s="6"/>
     </row>
-    <row r="550" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="20"/>
       <c r="D550" s="22"/>
       <c r="F550" s="6"/>
     </row>
-    <row r="551" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="20"/>
       <c r="D551" s="22"/>
       <c r="F551" s="6"/>
     </row>
-    <row r="552" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="20"/>
       <c r="D552" s="22"/>
       <c r="F552" s="6"/>
     </row>
-    <row r="553" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="20"/>
       <c r="D553" s="22"/>
       <c r="F553" s="6"/>
     </row>
-    <row r="554" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="20"/>
       <c r="D554" s="22"/>
       <c r="F554" s="6"/>
     </row>
-    <row r="555" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="20"/>
       <c r="D555" s="22"/>
       <c r="F555" s="6"/>
     </row>
-    <row r="556" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="20"/>
       <c r="D556" s="22"/>
       <c r="F556" s="6"/>
     </row>
-    <row r="557" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="20"/>
       <c r="D557" s="22"/>
       <c r="F557" s="6"/>
     </row>
-    <row r="558" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="20"/>
       <c r="D558" s="22"/>
       <c r="F558" s="6"/>
     </row>
-    <row r="559" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="20"/>
       <c r="D559" s="22"/>
       <c r="F559" s="6"/>
     </row>
-    <row r="560" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="20"/>
       <c r="D560" s="22"/>
       <c r="F560" s="6"/>
     </row>
-    <row r="561" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="20"/>
       <c r="D561" s="22"/>
       <c r="F561" s="6"/>
     </row>
-    <row r="562" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="20"/>
       <c r="D562" s="22"/>
       <c r="F562" s="6"/>
     </row>
-    <row r="563" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="20"/>
       <c r="D563" s="22"/>
       <c r="F563" s="6"/>
     </row>
-    <row r="564" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="20"/>
       <c r="D564" s="22"/>
       <c r="F564" s="6"/>
     </row>
-    <row r="565" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="20"/>
       <c r="D565" s="22"/>
       <c r="F565" s="6"/>
     </row>
-    <row r="566" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="20"/>
       <c r="D566" s="22"/>
       <c r="F566" s="6"/>
     </row>
-    <row r="567" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="20"/>
       <c r="D567" s="22"/>
       <c r="F567" s="6"/>
     </row>
-    <row r="568" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="20"/>
       <c r="D568" s="22"/>
       <c r="F568" s="6"/>
     </row>
-    <row r="569" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="20"/>
       <c r="D569" s="22"/>
       <c r="F569" s="6"/>
     </row>
-    <row r="570" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="20"/>
       <c r="D570" s="22"/>
       <c r="F570" s="6"/>
     </row>
-    <row r="571" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="20"/>
       <c r="D571" s="22"/>
       <c r="F571" s="6"/>
     </row>
-    <row r="572" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="20"/>
       <c r="D572" s="22"/>
       <c r="F572" s="6"/>
     </row>
-    <row r="573" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="20"/>
       <c r="D573" s="22"/>
       <c r="F573" s="6"/>
     </row>
-    <row r="574" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="20"/>
       <c r="D574" s="22"/>
       <c r="F574" s="6"/>
     </row>
-    <row r="575" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="20"/>
       <c r="D575" s="22"/>
       <c r="F575" s="6"/>
     </row>
-    <row r="576" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="20"/>
       <c r="D576" s="22"/>
       <c r="F576" s="6"/>
     </row>
-    <row r="577" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="20"/>
       <c r="D577" s="22"/>
       <c r="F577" s="6"/>
     </row>
-    <row r="578" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="20"/>
       <c r="D578" s="22"/>
       <c r="F578" s="6"/>
     </row>
-    <row r="579" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="20"/>
       <c r="D579" s="22"/>
       <c r="F579" s="6"/>
     </row>
-    <row r="580" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="20"/>
       <c r="D580" s="22"/>
       <c r="F580" s="6"/>
     </row>
-    <row r="581" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="20"/>
       <c r="D581" s="22"/>
       <c r="F581" s="6"/>
     </row>
-    <row r="582" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="20"/>
       <c r="D582" s="22"/>
       <c r="F582" s="6"/>
     </row>
-    <row r="583" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="20"/>
       <c r="D583" s="22"/>
       <c r="F583" s="6"/>
     </row>
-    <row r="584" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="20"/>
       <c r="D584" s="22"/>
       <c r="F584" s="6"/>
     </row>
-    <row r="585" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="20"/>
       <c r="D585" s="22"/>
       <c r="F585" s="6"/>
     </row>
-    <row r="586" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="20"/>
       <c r="D586" s="22"/>
       <c r="F586" s="6"/>
     </row>
-    <row r="587" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="20"/>
       <c r="D587" s="22"/>
       <c r="F587" s="6"/>
     </row>
-    <row r="588" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="20"/>
       <c r="D588" s="22"/>
       <c r="F588" s="6"/>
     </row>
-    <row r="589" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="20"/>
       <c r="D589" s="22"/>
       <c r="F589" s="6"/>
     </row>
-    <row r="590" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="20"/>
       <c r="D590" s="22"/>
       <c r="F590" s="6"/>
     </row>
-    <row r="591" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="20"/>
       <c r="D591" s="22"/>
       <c r="F591" s="6"/>
     </row>
-    <row r="592" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="20"/>
       <c r="D592" s="22"/>
       <c r="F592" s="6"/>
     </row>
-    <row r="593" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="20"/>
       <c r="D593" s="22"/>
       <c r="F593" s="6"/>
     </row>
-    <row r="594" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="20"/>
       <c r="D594" s="22"/>
       <c r="F594" s="6"/>
     </row>
-    <row r="595" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="20"/>
       <c r="D595" s="22"/>
       <c r="F595" s="6"/>
     </row>
-    <row r="596" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="20"/>
       <c r="D596" s="22"/>
       <c r="F596" s="6"/>
     </row>
-    <row r="597" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="20"/>
       <c r="D597" s="22"/>
       <c r="F597" s="6"/>
     </row>
-    <row r="598" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="20"/>
       <c r="D598" s="22"/>
       <c r="F598" s="6"/>
     </row>
-    <row r="599" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="20"/>
       <c r="D599" s="22"/>
       <c r="F599" s="6"/>
     </row>
-    <row r="600" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="20"/>
       <c r="D600" s="22"/>
       <c r="F600" s="6"/>
     </row>
-    <row r="601" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="20"/>
       <c r="D601" s="22"/>
       <c r="F601" s="6"/>
     </row>
-    <row r="602" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="20"/>
       <c r="D602" s="22"/>
       <c r="F602" s="6"/>
     </row>
-    <row r="603" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="20"/>
       <c r="D603" s="22"/>
       <c r="F603" s="6"/>
     </row>
-    <row r="604" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="20"/>
       <c r="D604" s="22"/>
       <c r="F604" s="6"/>
     </row>
-    <row r="605" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="20"/>
       <c r="D605" s="22"/>
       <c r="F605" s="6"/>
     </row>
-    <row r="606" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="20"/>
       <c r="D606" s="22"/>
       <c r="F606" s="6"/>
     </row>
-    <row r="607" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="20"/>
       <c r="D607" s="22"/>
       <c r="F607" s="6"/>
     </row>
-    <row r="608" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="20"/>
       <c r="D608" s="22"/>
       <c r="F608" s="6"/>
     </row>
-    <row r="609" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="20"/>
       <c r="D609" s="22"/>
       <c r="F609" s="6"/>
     </row>
-    <row r="610" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="20"/>
       <c r="D610" s="22"/>
       <c r="F610" s="6"/>
     </row>
-    <row r="611" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="20"/>
       <c r="D611" s="22"/>
       <c r="F611" s="6"/>
     </row>
-    <row r="612" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="20"/>
       <c r="D612" s="22"/>
       <c r="F612" s="6"/>
     </row>
-    <row r="613" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="20"/>
       <c r="D613" s="22"/>
       <c r="F613" s="6"/>
     </row>
-    <row r="614" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="20"/>
       <c r="D614" s="22"/>
       <c r="F614" s="6"/>
     </row>
-    <row r="615" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="20"/>
       <c r="D615" s="22"/>
       <c r="F615" s="6"/>
     </row>
-    <row r="616" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="20"/>
       <c r="D616" s="22"/>
       <c r="F616" s="6"/>
     </row>
-    <row r="617" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="20"/>
       <c r="D617" s="22"/>
       <c r="F617" s="6"/>
     </row>
-    <row r="618" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="20"/>
       <c r="D618" s="22"/>
       <c r="F618" s="6"/>
     </row>
-    <row r="619" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="20"/>
       <c r="D619" s="22"/>
       <c r="F619" s="6"/>
     </row>
-    <row r="620" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="20"/>
       <c r="D620" s="22"/>
       <c r="F620" s="6"/>
     </row>
-    <row r="621" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="20"/>
       <c r="D621" s="22"/>
       <c r="F621" s="6"/>
     </row>
-    <row r="622" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="20"/>
       <c r="D622" s="22"/>
       <c r="F622" s="6"/>
     </row>
-    <row r="623" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="20"/>
       <c r="D623" s="22"/>
       <c r="F623" s="6"/>
     </row>
-    <row r="624" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="20"/>
       <c r="D624" s="22"/>
       <c r="F624" s="6"/>
     </row>
-    <row r="625" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="20"/>
       <c r="D625" s="22"/>
       <c r="F625" s="6"/>
     </row>
-    <row r="626" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="20"/>
       <c r="D626" s="22"/>
       <c r="F626" s="6"/>
     </row>
-    <row r="627" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="20"/>
       <c r="D627" s="22"/>
       <c r="F627" s="6"/>
     </row>
-    <row r="628" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="20"/>
       <c r="D628" s="22"/>
       <c r="F628" s="6"/>
     </row>
-    <row r="629" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="20"/>
       <c r="D629" s="22"/>
       <c r="F629" s="6"/>
     </row>
-    <row r="630" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="20"/>
       <c r="D630" s="22"/>
       <c r="F630" s="6"/>
     </row>
-    <row r="631" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="20"/>
       <c r="D631" s="22"/>
       <c r="F631" s="6"/>
     </row>
-    <row r="632" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="20"/>
       <c r="D632" s="22"/>
       <c r="F632" s="6"/>
     </row>
-    <row r="633" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="20"/>
       <c r="D633" s="22"/>
       <c r="F633" s="6"/>
     </row>
-    <row r="634" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="20"/>
       <c r="D634" s="22"/>
       <c r="F634" s="6"/>
     </row>
-    <row r="635" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="20"/>
       <c r="D635" s="22"/>
       <c r="F635" s="6"/>
     </row>
-    <row r="636" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="20"/>
       <c r="D636" s="22"/>
       <c r="F636" s="6"/>
     </row>
-    <row r="637" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="20"/>
       <c r="D637" s="22"/>
       <c r="F637" s="6"/>
     </row>
-    <row r="638" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="20"/>
       <c r="D638" s="22"/>
       <c r="F638" s="6"/>
     </row>
-    <row r="639" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="20"/>
       <c r="D639" s="22"/>
       <c r="F639" s="6"/>
     </row>
-    <row r="640" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="20"/>
       <c r="D640" s="22"/>
       <c r="F640" s="6"/>
     </row>
-    <row r="641" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="20"/>
       <c r="D641" s="22"/>
       <c r="F641" s="6"/>
     </row>
-    <row r="642" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="20"/>
       <c r="D642" s="22"/>
       <c r="F642" s="6"/>
     </row>
-    <row r="643" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="20"/>
       <c r="D643" s="22"/>
       <c r="F643" s="6"/>
     </row>
-    <row r="644" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="20"/>
       <c r="D644" s="22"/>
       <c r="F644" s="6"/>
     </row>
-    <row r="645" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="20"/>
       <c r="D645" s="22"/>
       <c r="F645" s="6"/>
     </row>
-    <row r="646" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="20"/>
       <c r="D646" s="22"/>
       <c r="F646" s="6"/>
     </row>
-    <row r="647" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="20"/>
       <c r="D647" s="22"/>
       <c r="F647" s="6"/>
     </row>
-    <row r="648" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="20"/>
       <c r="D648" s="22"/>
       <c r="F648" s="6"/>
     </row>
-    <row r="649" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="20"/>
       <c r="D649" s="22"/>
       <c r="F649" s="6"/>
     </row>
-    <row r="650" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="20"/>
       <c r="D650" s="22"/>
       <c r="F650" s="6"/>
     </row>
-    <row r="651" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="20"/>
       <c r="D651" s="22"/>
       <c r="F651" s="6"/>
     </row>
-    <row r="652" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="20"/>
       <c r="D652" s="22"/>
       <c r="F652" s="6"/>
     </row>
-    <row r="653" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="20"/>
       <c r="D653" s="22"/>
       <c r="F653" s="6"/>
     </row>
-    <row r="654" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="20"/>
       <c r="D654" s="22"/>
       <c r="F654" s="6"/>
     </row>
-    <row r="655" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="20"/>
       <c r="D655" s="22"/>
       <c r="F655" s="6"/>
     </row>
-    <row r="656" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="20"/>
       <c r="D656" s="22"/>
       <c r="F656" s="6"/>
     </row>
-    <row r="657" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="20"/>
       <c r="D657" s="22"/>
       <c r="F657" s="6"/>
     </row>
-    <row r="658" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="20"/>
       <c r="D658" s="22"/>
       <c r="F658" s="6"/>
     </row>
-    <row r="659" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="20"/>
       <c r="D659" s="22"/>
       <c r="F659" s="6"/>
     </row>
-    <row r="660" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="20"/>
       <c r="D660" s="22"/>
       <c r="F660" s="6"/>
     </row>
-    <row r="661" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="20"/>
       <c r="D661" s="22"/>
       <c r="F661" s="6"/>
     </row>
-    <row r="662" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="20"/>
       <c r="D662" s="22"/>
       <c r="F662" s="6"/>
     </row>
-    <row r="663" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="20"/>
       <c r="D663" s="22"/>
       <c r="F663" s="6"/>
     </row>
-    <row r="664" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="20"/>
       <c r="D664" s="22"/>
       <c r="F664" s="6"/>
     </row>
-    <row r="665" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="20"/>
       <c r="D665" s="22"/>
       <c r="F665" s="6"/>
     </row>
-    <row r="666" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="20"/>
       <c r="D666" s="22"/>
       <c r="F666" s="6"/>
     </row>
-    <row r="667" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="20"/>
       <c r="D667" s="22"/>
       <c r="F667" s="6"/>
     </row>
-    <row r="668" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="20"/>
       <c r="D668" s="22"/>
       <c r="F668" s="6"/>
     </row>
-    <row r="669" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="20"/>
       <c r="D669" s="22"/>
       <c r="F669" s="6"/>
     </row>
-    <row r="670" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="20"/>
       <c r="D670" s="22"/>
       <c r="F670" s="6"/>
     </row>
-    <row r="671" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="20"/>
       <c r="D671" s="22"/>
       <c r="F671" s="6"/>
     </row>
-    <row r="672" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="20"/>
       <c r="D672" s="22"/>
       <c r="F672" s="6"/>
     </row>
-    <row r="673" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="20"/>
       <c r="D673" s="22"/>
       <c r="F673" s="6"/>
     </row>
-    <row r="674" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="20"/>
       <c r="D674" s="22"/>
       <c r="F674" s="6"/>
     </row>
-    <row r="675" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="20"/>
       <c r="D675" s="22"/>
       <c r="F675" s="6"/>
     </row>
-    <row r="676" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="20"/>
       <c r="D676" s="22"/>
       <c r="F676" s="6"/>
     </row>
-    <row r="677" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="20"/>
       <c r="D677" s="22"/>
       <c r="F677" s="6"/>
     </row>
-    <row r="678" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="20"/>
       <c r="D678" s="22"/>
       <c r="F678" s="6"/>
     </row>
-    <row r="679" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="20"/>
       <c r="D679" s="22"/>
       <c r="F679" s="6"/>
     </row>
-    <row r="680" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="20"/>
       <c r="D680" s="22"/>
       <c r="F680" s="6"/>
     </row>
-    <row r="681" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="20"/>
       <c r="D681" s="22"/>
       <c r="F681" s="6"/>
     </row>
-    <row r="682" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="20"/>
       <c r="D682" s="22"/>
       <c r="F682" s="6"/>
     </row>
-    <row r="683" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="20"/>
       <c r="D683" s="22"/>
       <c r="F683" s="6"/>
     </row>
-    <row r="684" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="20"/>
       <c r="D684" s="22"/>
       <c r="F684" s="6"/>
     </row>
-    <row r="685" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="20"/>
       <c r="D685" s="22"/>
       <c r="F685" s="6"/>
     </row>
-    <row r="686" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="20"/>
       <c r="D686" s="22"/>
       <c r="F686" s="6"/>
     </row>
-    <row r="687" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="20"/>
       <c r="D687" s="22"/>
       <c r="F687" s="6"/>
     </row>
-    <row r="688" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="20"/>
       <c r="D688" s="22"/>
       <c r="F688" s="6"/>
     </row>
-    <row r="689" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="20"/>
       <c r="D689" s="22"/>
       <c r="F689" s="6"/>
     </row>
-    <row r="690" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="20"/>
       <c r="D690" s="22"/>
       <c r="F690" s="6"/>
     </row>
-    <row r="691" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="20"/>
       <c r="D691" s="22"/>
       <c r="F691" s="6"/>
     </row>
-    <row r="692" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="20"/>
       <c r="D692" s="22"/>
       <c r="F692" s="6"/>
     </row>
-    <row r="693" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="20"/>
       <c r="D693" s="22"/>
       <c r="F693" s="6"/>
     </row>
-    <row r="694" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="20"/>
       <c r="D694" s="22"/>
       <c r="F694" s="6"/>
     </row>
-    <row r="695" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="20"/>
       <c r="D695" s="22"/>
       <c r="F695" s="6"/>
     </row>
-    <row r="696" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="20"/>
       <c r="D696" s="22"/>
       <c r="F696" s="6"/>
     </row>
-    <row r="697" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="20"/>
       <c r="D697" s="22"/>
       <c r="F697" s="6"/>
     </row>
-    <row r="698" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="20"/>
       <c r="D698" s="22"/>
       <c r="F698" s="6"/>
     </row>
-    <row r="699" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="20"/>
       <c r="D699" s="22"/>
       <c r="F699" s="6"/>
     </row>
-    <row r="700" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="20"/>
       <c r="D700" s="22"/>
       <c r="F700" s="6"/>
     </row>
-    <row r="701" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="20"/>
       <c r="D701" s="22"/>
       <c r="F701" s="6"/>
     </row>
-    <row r="702" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="20"/>
       <c r="D702" s="22"/>
       <c r="F702" s="6"/>
     </row>
-    <row r="703" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="20"/>
       <c r="D703" s="22"/>
       <c r="F703" s="6"/>
     </row>
-    <row r="704" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="20"/>
       <c r="D704" s="22"/>
       <c r="F704" s="6"/>
     </row>
-    <row r="705" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="20"/>
       <c r="D705" s="22"/>
       <c r="F705" s="6"/>
     </row>
-    <row r="706" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="20"/>
       <c r="D706" s="22"/>
       <c r="F706" s="6"/>
     </row>
-    <row r="707" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="20"/>
       <c r="D707" s="22"/>
       <c r="F707" s="6"/>
     </row>
-    <row r="708" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="20"/>
       <c r="D708" s="22"/>
       <c r="F708" s="6"/>
     </row>
-    <row r="709" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="20"/>
       <c r="D709" s="22"/>
       <c r="F709" s="6"/>
     </row>
-    <row r="710" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="20"/>
       <c r="D710" s="22"/>
       <c r="F710" s="6"/>
     </row>
-    <row r="711" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="20"/>
       <c r="D711" s="22"/>
       <c r="F711" s="6"/>
     </row>
-    <row r="712" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="20"/>
       <c r="D712" s="22"/>
       <c r="F712" s="6"/>
     </row>
-    <row r="713" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="20"/>
       <c r="D713" s="22"/>
       <c r="F713" s="6"/>
     </row>
-    <row r="714" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="20"/>
       <c r="D714" s="22"/>
       <c r="F714" s="6"/>
     </row>
-    <row r="715" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="20"/>
       <c r="D715" s="22"/>
       <c r="F715" s="6"/>
     </row>
-    <row r="716" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="20"/>
       <c r="D716" s="22"/>
       <c r="F716" s="6"/>
     </row>
-    <row r="717" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="20"/>
       <c r="D717" s="22"/>
       <c r="F717" s="6"/>
     </row>
-    <row r="718" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="20"/>
       <c r="D718" s="22"/>
       <c r="F718" s="6"/>
     </row>
-    <row r="719" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="20"/>
       <c r="D719" s="22"/>
       <c r="F719" s="6"/>
     </row>
-    <row r="720" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="20"/>
       <c r="D720" s="22"/>
       <c r="F720" s="6"/>
     </row>
-    <row r="721" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="20"/>
       <c r="D721" s="22"/>
       <c r="F721" s="6"/>
     </row>
-    <row r="722" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="20"/>
       <c r="D722" s="22"/>
       <c r="F722" s="6"/>
     </row>
-    <row r="723" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="20"/>
       <c r="D723" s="22"/>
       <c r="F723" s="6"/>
     </row>
-    <row r="724" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="20"/>
       <c r="D724" s="22"/>
       <c r="F724" s="6"/>
     </row>
-    <row r="725" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="20"/>
       <c r="D725" s="22"/>
       <c r="F725" s="6"/>
     </row>
-    <row r="726" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="20"/>
       <c r="D726" s="22"/>
       <c r="F726" s="6"/>
     </row>
-    <row r="727" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="20"/>
       <c r="D727" s="22"/>
       <c r="F727" s="6"/>
     </row>
-    <row r="728" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="20"/>
       <c r="D728" s="22"/>
       <c r="F728" s="6"/>
     </row>
-    <row r="729" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="20"/>
       <c r="D729" s="22"/>
       <c r="F729" s="6"/>
     </row>
-    <row r="730" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="20"/>
       <c r="D730" s="22"/>
       <c r="F730" s="6"/>
     </row>
-    <row r="731" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="20"/>
       <c r="D731" s="22"/>
       <c r="F731" s="6"/>
     </row>
-    <row r="732" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="20"/>
       <c r="D732" s="22"/>
       <c r="F732" s="6"/>
     </row>
-    <row r="733" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="20"/>
       <c r="D733" s="22"/>
       <c r="F733" s="6"/>
     </row>
-    <row r="734" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="20"/>
       <c r="D734" s="22"/>
       <c r="F734" s="6"/>
     </row>
-    <row r="735" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="20"/>
       <c r="D735" s="22"/>
       <c r="F735" s="6"/>
     </row>
-    <row r="736" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="20"/>
       <c r="D736" s="22"/>
       <c r="F736" s="6"/>
     </row>
-    <row r="737" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="20"/>
       <c r="D737" s="22"/>
       <c r="F737" s="6"/>
     </row>
-    <row r="738" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="20"/>
       <c r="D738" s="22"/>
       <c r="F738" s="6"/>
     </row>
-    <row r="739" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="20"/>
       <c r="D739" s="22"/>
       <c r="F739" s="6"/>
     </row>
-    <row r="740" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="20"/>
       <c r="D740" s="22"/>
       <c r="F740" s="6"/>
     </row>
-    <row r="741" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="20"/>
       <c r="D741" s="22"/>
       <c r="F741" s="6"/>
     </row>
-    <row r="742" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="20"/>
       <c r="D742" s="22"/>
       <c r="F742" s="6"/>
     </row>
-    <row r="743" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="20"/>
       <c r="D743" s="22"/>
       <c r="F743" s="6"/>
     </row>
-    <row r="744" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="20"/>
       <c r="D744" s="22"/>
       <c r="F744" s="6"/>
     </row>
-    <row r="745" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="20"/>
       <c r="D745" s="22"/>
       <c r="F745" s="6"/>
     </row>
-    <row r="746" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="20"/>
       <c r="D746" s="22"/>
       <c r="F746" s="6"/>
     </row>
-    <row r="747" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="20"/>
       <c r="D747" s="22"/>
       <c r="F747" s="6"/>
     </row>
-    <row r="748" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="20"/>
       <c r="D748" s="22"/>
       <c r="F748" s="6"/>
     </row>
-    <row r="749" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="20"/>
       <c r="D749" s="22"/>
       <c r="F749" s="6"/>
     </row>
-    <row r="750" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="20"/>
       <c r="D750" s="22"/>
       <c r="F750" s="6"/>
     </row>
-    <row r="751" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="20"/>
       <c r="D751" s="22"/>
       <c r="F751" s="6"/>
     </row>
-    <row r="752" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="20"/>
       <c r="D752" s="22"/>
       <c r="F752" s="6"/>
     </row>
-    <row r="753" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="20"/>
       <c r="D753" s="22"/>
       <c r="F753" s="6"/>
     </row>
-    <row r="754" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="20"/>
       <c r="D754" s="22"/>
       <c r="F754" s="6"/>
     </row>
-    <row r="755" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="20"/>
       <c r="D755" s="22"/>
       <c r="F755" s="6"/>
     </row>
-    <row r="756" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="20"/>
       <c r="D756" s="22"/>
       <c r="F756" s="6"/>
     </row>
-    <row r="757" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="20"/>
       <c r="D757" s="22"/>
       <c r="F757" s="6"/>
     </row>
-    <row r="758" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="20"/>
       <c r="D758" s="22"/>
       <c r="F758" s="6"/>
     </row>
-    <row r="759" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="20"/>
       <c r="D759" s="22"/>
       <c r="F759" s="6"/>
     </row>
-    <row r="760" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="20"/>
       <c r="D760" s="22"/>
       <c r="F760" s="6"/>
     </row>
-    <row r="761" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="20"/>
       <c r="D761" s="22"/>
       <c r="F761" s="6"/>
     </row>
-    <row r="762" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="20"/>
       <c r="D762" s="22"/>
       <c r="F762" s="6"/>
     </row>
-    <row r="763" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="20"/>
       <c r="D763" s="22"/>
       <c r="F763" s="6"/>
     </row>
-    <row r="764" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="20"/>
       <c r="D764" s="22"/>
       <c r="F764" s="6"/>
     </row>
-    <row r="765" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="20"/>
       <c r="D765" s="22"/>
       <c r="F765" s="6"/>
     </row>
-    <row r="766" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="20"/>
       <c r="D766" s="22"/>
       <c r="F766" s="6"/>
     </row>
-    <row r="767" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="20"/>
       <c r="D767" s="22"/>
       <c r="F767" s="6"/>
     </row>
-    <row r="768" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="20"/>
       <c r="D768" s="22"/>
       <c r="F768" s="6"/>
     </row>
-    <row r="769" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="20"/>
       <c r="D769" s="22"/>
       <c r="F769" s="6"/>
     </row>
-    <row r="770" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="20"/>
       <c r="D770" s="22"/>
       <c r="F770" s="6"/>
     </row>
-    <row r="771" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="20"/>
       <c r="D771" s="22"/>
       <c r="F771" s="6"/>
     </row>
-    <row r="772" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="20"/>
       <c r="D772" s="22"/>
       <c r="F772" s="6"/>
     </row>
-    <row r="773" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="20"/>
       <c r="D773" s="22"/>
       <c r="F773" s="6"/>
     </row>
-    <row r="774" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="20"/>
       <c r="D774" s="22"/>
       <c r="F774" s="6"/>
     </row>
-    <row r="775" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="20"/>
       <c r="D775" s="22"/>
       <c r="F775" s="6"/>
     </row>
-    <row r="776" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="20"/>
       <c r="D776" s="22"/>
       <c r="F776" s="6"/>
     </row>
-    <row r="777" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="20"/>
       <c r="D777" s="22"/>
       <c r="F777" s="6"/>
     </row>
-    <row r="778" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="20"/>
       <c r="D778" s="22"/>
       <c r="F778" s="6"/>
     </row>
-    <row r="779" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="20"/>
       <c r="D779" s="22"/>
       <c r="F779" s="6"/>
     </row>
-    <row r="780" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="20"/>
       <c r="D780" s="22"/>
       <c r="F780" s="6"/>
     </row>
-    <row r="781" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="20"/>
       <c r="D781" s="22"/>
       <c r="F781" s="6"/>
     </row>
-    <row r="782" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="20"/>
       <c r="D782" s="22"/>
       <c r="F782" s="6"/>
     </row>
-    <row r="783" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="20"/>
       <c r="D783" s="22"/>
       <c r="F783" s="6"/>
     </row>
-    <row r="784" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="20"/>
       <c r="D784" s="22"/>
       <c r="F784" s="6"/>
     </row>
-    <row r="785" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="20"/>
       <c r="D785" s="22"/>
       <c r="F785" s="6"/>
     </row>
-    <row r="786" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="20"/>
       <c r="D786" s="22"/>
       <c r="F786" s="6"/>
     </row>
-    <row r="787" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="20"/>
       <c r="D787" s="22"/>
       <c r="F787" s="6"/>
     </row>
-    <row r="788" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="20"/>
       <c r="D788" s="22"/>
       <c r="F788" s="6"/>
     </row>
-    <row r="789" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="20"/>
       <c r="D789" s="22"/>
       <c r="F789" s="6"/>
     </row>
-    <row r="790" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="20"/>
       <c r="D790" s="22"/>
       <c r="F790" s="6"/>
     </row>
-    <row r="791" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="20"/>
       <c r="D791" s="22"/>
       <c r="F791" s="6"/>
     </row>
-    <row r="792" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="20"/>
       <c r="D792" s="22"/>
       <c r="F792" s="6"/>
     </row>
-    <row r="793" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="20"/>
       <c r="D793" s="22"/>
       <c r="F793" s="6"/>
     </row>
-    <row r="794" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="20"/>
       <c r="D794" s="22"/>
       <c r="F794" s="6"/>
     </row>
-    <row r="795" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="20"/>
       <c r="D795" s="22"/>
       <c r="F795" s="6"/>
     </row>
-    <row r="796" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="20"/>
       <c r="D796" s="22"/>
       <c r="F796" s="6"/>
     </row>
-    <row r="797" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="20"/>
       <c r="D797" s="22"/>
       <c r="F797" s="6"/>
     </row>
-    <row r="798" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="20"/>
       <c r="D798" s="22"/>
       <c r="F798" s="6"/>
     </row>
-    <row r="799" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="20"/>
       <c r="D799" s="22"/>
       <c r="F799" s="6"/>
     </row>
-    <row r="800" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="20"/>
       <c r="D800" s="22"/>
       <c r="F800" s="6"/>
     </row>
-    <row r="801" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="20"/>
       <c r="D801" s="22"/>
       <c r="F801" s="6"/>
     </row>
-    <row r="802" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="20"/>
       <c r="D802" s="22"/>
       <c r="F802" s="6"/>
     </row>
-    <row r="803" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="20"/>
       <c r="D803" s="22"/>
       <c r="F803" s="6"/>
     </row>
-    <row r="804" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="20"/>
       <c r="D804" s="22"/>
       <c r="F804" s="6"/>
     </row>
-    <row r="805" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="20"/>
       <c r="D805" s="22"/>
       <c r="F805" s="6"/>
     </row>
-    <row r="806" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="20"/>
       <c r="D806" s="22"/>
       <c r="F806" s="6"/>
     </row>
-    <row r="807" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="20"/>
       <c r="D807" s="22"/>
       <c r="F807" s="6"/>
     </row>
-    <row r="808" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="20"/>
       <c r="D808" s="22"/>
       <c r="F808" s="6"/>
     </row>
-    <row r="809" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="20"/>
       <c r="D809" s="22"/>
       <c r="F809" s="6"/>
     </row>
-    <row r="810" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="20"/>
       <c r="D810" s="22"/>
       <c r="F810" s="6"/>
     </row>
-    <row r="811" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="20"/>
       <c r="D811" s="22"/>
       <c r="F811" s="6"/>
     </row>
-    <row r="812" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="20"/>
       <c r="D812" s="22"/>
       <c r="F812" s="6"/>
     </row>
-    <row r="813" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="20"/>
       <c r="D813" s="22"/>
       <c r="F813" s="6"/>
     </row>
-    <row r="814" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="20"/>
       <c r="D814" s="22"/>
       <c r="F814" s="6"/>
     </row>
-    <row r="815" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="20"/>
       <c r="D815" s="22"/>
       <c r="F815" s="6"/>
     </row>
-    <row r="816" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="20"/>
       <c r="D816" s="22"/>
       <c r="F816" s="6"/>
     </row>
-    <row r="817" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="20"/>
       <c r="D817" s="22"/>
       <c r="F817" s="6"/>
     </row>
-    <row r="818" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="20"/>
       <c r="D818" s="22"/>
       <c r="F818" s="6"/>
     </row>
-    <row r="819" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="20"/>
       <c r="D819" s="22"/>
       <c r="F819" s="6"/>
     </row>
-    <row r="820" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="20"/>
       <c r="D820" s="22"/>
       <c r="F820" s="6"/>
     </row>
-    <row r="821" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="20"/>
       <c r="D821" s="22"/>
       <c r="F821" s="6"/>
     </row>
-    <row r="822" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="20"/>
       <c r="D822" s="22"/>
       <c r="F822" s="6"/>
     </row>
-    <row r="823" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="20"/>
       <c r="D823" s="22"/>
       <c r="F823" s="6"/>
     </row>
-    <row r="824" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="20"/>
       <c r="D824" s="22"/>
       <c r="F824" s="6"/>
     </row>
-    <row r="825" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="20"/>
       <c r="D825" s="22"/>
       <c r="F825" s="6"/>
     </row>
-    <row r="826" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="20"/>
       <c r="D826" s="22"/>
       <c r="F826" s="6"/>
     </row>
-    <row r="827" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="20"/>
       <c r="D827" s="22"/>
       <c r="F827" s="6"/>
     </row>
-    <row r="828" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="20"/>
       <c r="D828" s="22"/>
       <c r="F828" s="6"/>
     </row>
-    <row r="829" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="20"/>
       <c r="D829" s="22"/>
       <c r="F829" s="6"/>
     </row>
-    <row r="830" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="20"/>
       <c r="D830" s="22"/>
       <c r="F830" s="6"/>
     </row>
-    <row r="831" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="20"/>
       <c r="D831" s="22"/>
       <c r="F831" s="6"/>
     </row>
-    <row r="832" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="20"/>
       <c r="D832" s="22"/>
       <c r="F832" s="6"/>
     </row>
-    <row r="833" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="20"/>
       <c r="D833" s="22"/>
       <c r="F833" s="6"/>
     </row>
-    <row r="834" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="20"/>
       <c r="D834" s="22"/>
       <c r="F834" s="6"/>
     </row>
-    <row r="835" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="20"/>
       <c r="D835" s="22"/>
       <c r="F835" s="6"/>
     </row>
-    <row r="836" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="20"/>
       <c r="D836" s="22"/>
       <c r="F836" s="6"/>
     </row>
-    <row r="837" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="20"/>
       <c r="D837" s="22"/>
       <c r="F837" s="6"/>
     </row>
-    <row r="838" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="20"/>
       <c r="D838" s="22"/>
       <c r="F838" s="6"/>
     </row>
-    <row r="839" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="20"/>
       <c r="D839" s="22"/>
       <c r="F839" s="6"/>
     </row>
-    <row r="840" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="20"/>
       <c r="D840" s="22"/>
       <c r="F840" s="6"/>
     </row>
-    <row r="841" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="20"/>
       <c r="D841" s="22"/>
       <c r="F841" s="6"/>
     </row>
-    <row r="842" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="20"/>
       <c r="D842" s="22"/>
       <c r="F842" s="6"/>
     </row>
-    <row r="843" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="20"/>
       <c r="D843" s="22"/>
       <c r="F843" s="6"/>
     </row>
-    <row r="844" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="20"/>
       <c r="D844" s="22"/>
       <c r="F844" s="6"/>
     </row>
-    <row r="845" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="20"/>
       <c r="D845" s="22"/>
       <c r="F845" s="6"/>
     </row>
-    <row r="846" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="20"/>
       <c r="D846" s="22"/>
       <c r="F846" s="6"/>
     </row>
-    <row r="847" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="20"/>
       <c r="D847" s="22"/>
       <c r="F847" s="6"/>
     </row>
-    <row r="848" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="20"/>
       <c r="D848" s="22"/>
       <c r="F848" s="6"/>
     </row>
-    <row r="849" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="20"/>
       <c r="D849" s="22"/>
       <c r="F849" s="6"/>
     </row>
-    <row r="850" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="20"/>
       <c r="D850" s="22"/>
       <c r="F850" s="6"/>
     </row>
-    <row r="851" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="20"/>
       <c r="D851" s="22"/>
       <c r="F851" s="6"/>
     </row>
-    <row r="852" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="20"/>
       <c r="D852" s="22"/>
       <c r="F852" s="6"/>
     </row>
-    <row r="853" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="20"/>
       <c r="D853" s="22"/>
       <c r="F853" s="6"/>
     </row>
-    <row r="854" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="20"/>
       <c r="D854" s="22"/>
       <c r="F854" s="6"/>
     </row>
-    <row r="855" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="20"/>
       <c r="D855" s="22"/>
       <c r="F855" s="6"/>
     </row>
-    <row r="856" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="20"/>
       <c r="D856" s="22"/>
       <c r="F856" s="6"/>
     </row>
-    <row r="857" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="20"/>
       <c r="D857" s="22"/>
       <c r="F857" s="6"/>
     </row>
-    <row r="858" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="20"/>
       <c r="D858" s="22"/>
       <c r="F858" s="6"/>
     </row>
-    <row r="859" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="20"/>
       <c r="D859" s="22"/>
       <c r="F859" s="6"/>
     </row>
-    <row r="860" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="20"/>
       <c r="D860" s="22"/>
       <c r="F860" s="6"/>
     </row>
-    <row r="861" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="20"/>
       <c r="D861" s="22"/>
       <c r="F861" s="6"/>
     </row>
-    <row r="862" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="20"/>
       <c r="D862" s="22"/>
       <c r="F862" s="6"/>
     </row>
-    <row r="863" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="20"/>
       <c r="D863" s="22"/>
       <c r="F863" s="6"/>
     </row>
-    <row r="864" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="20"/>
       <c r="D864" s="22"/>
       <c r="F864" s="6"/>
     </row>
-    <row r="865" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="20"/>
       <c r="D865" s="22"/>
       <c r="F865" s="6"/>
     </row>
-    <row r="866" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="20"/>
       <c r="D866" s="22"/>
       <c r="F866" s="6"/>
     </row>
-    <row r="867" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="20"/>
       <c r="D867" s="22"/>
       <c r="F867" s="6"/>
     </row>
-    <row r="868" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="20"/>
       <c r="D868" s="22"/>
       <c r="F868" s="6"/>
     </row>
-    <row r="869" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="20"/>
       <c r="D869" s="22"/>
       <c r="F869" s="6"/>
     </row>
-    <row r="870" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="20"/>
       <c r="D870" s="22"/>
       <c r="F870" s="6"/>
     </row>
-    <row r="871" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="20"/>
       <c r="D871" s="22"/>
       <c r="F871" s="6"/>
     </row>
-    <row r="872" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="20"/>
       <c r="D872" s="22"/>
       <c r="F872" s="6"/>
     </row>
-    <row r="873" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="20"/>
       <c r="D873" s="22"/>
       <c r="F873" s="6"/>
     </row>
-    <row r="874" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="20"/>
       <c r="D874" s="22"/>
       <c r="F874" s="6"/>
     </row>
-    <row r="875" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="20"/>
       <c r="D875" s="22"/>
       <c r="F875" s="6"/>
     </row>
-    <row r="876" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="20"/>
       <c r="D876" s="22"/>
       <c r="F876" s="6"/>
     </row>
-    <row r="877" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="20"/>
       <c r="D877" s="22"/>
       <c r="F877" s="6"/>
     </row>
-    <row r="878" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="20"/>
       <c r="D878" s="22"/>
       <c r="F878" s="6"/>
     </row>
-    <row r="879" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="20"/>
       <c r="D879" s="22"/>
       <c r="F879" s="6"/>
     </row>
-    <row r="880" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="20"/>
       <c r="D880" s="22"/>
       <c r="F880" s="6"/>
     </row>
-    <row r="881" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="20"/>
       <c r="D881" s="22"/>
       <c r="F881" s="6"/>
     </row>
-    <row r="882" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="20"/>
       <c r="D882" s="22"/>
       <c r="F882" s="6"/>
     </row>
-    <row r="883" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="20"/>
       <c r="D883" s="22"/>
       <c r="F883" s="6"/>
     </row>
-    <row r="884" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="20"/>
       <c r="D884" s="22"/>
       <c r="F884" s="6"/>
     </row>
-    <row r="885" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="20"/>
       <c r="D885" s="22"/>
       <c r="F885" s="6"/>
     </row>
-    <row r="886" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="20"/>
       <c r="D886" s="22"/>
       <c r="F886" s="6"/>
     </row>
-    <row r="887" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="20"/>
       <c r="D887" s="22"/>
       <c r="F887" s="6"/>
     </row>
-    <row r="888" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="20"/>
       <c r="D888" s="22"/>
       <c r="F888" s="6"/>
     </row>
-    <row r="889" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="20"/>
       <c r="D889" s="22"/>
       <c r="F889" s="6"/>
     </row>
-    <row r="890" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="20"/>
       <c r="D890" s="22"/>
       <c r="F890" s="6"/>
     </row>
-    <row r="891" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="20"/>
       <c r="D891" s="22"/>
       <c r="F891" s="6"/>
     </row>
-    <row r="892" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="20"/>
       <c r="D892" s="22"/>
       <c r="F892" s="6"/>
     </row>
-    <row r="893" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="20"/>
       <c r="D893" s="22"/>
       <c r="F893" s="6"/>
     </row>
-    <row r="894" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="20"/>
       <c r="D894" s="22"/>
       <c r="F894" s="6"/>
     </row>
-    <row r="895" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="20"/>
       <c r="D895" s="22"/>
       <c r="F895" s="6"/>
     </row>
-    <row r="896" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="20"/>
       <c r="D896" s="22"/>
       <c r="F896" s="6"/>
     </row>
-    <row r="897" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="20"/>
       <c r="D897" s="22"/>
       <c r="F897" s="6"/>
     </row>
-    <row r="898" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="20"/>
       <c r="D898" s="22"/>
       <c r="F898" s="6"/>
     </row>
-    <row r="899" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="20"/>
       <c r="D899" s="22"/>
       <c r="F899" s="6"/>
     </row>
-    <row r="900" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="20"/>
       <c r="D900" s="22"/>
       <c r="F900" s="6"/>
     </row>
-    <row r="901" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="20"/>
       <c r="D901" s="22"/>
       <c r="F901" s="6"/>
     </row>
-    <row r="902" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="20"/>
       <c r="D902" s="22"/>
       <c r="F902" s="6"/>
     </row>
-    <row r="903" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="20"/>
       <c r="D903" s="22"/>
       <c r="F903" s="6"/>
     </row>
-    <row r="904" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="20"/>
       <c r="D904" s="22"/>
       <c r="F904" s="6"/>
     </row>
-    <row r="905" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="20"/>
       <c r="D905" s="22"/>
       <c r="F905" s="6"/>
     </row>
-    <row r="906" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="20"/>
       <c r="D906" s="22"/>
       <c r="F906" s="6"/>
     </row>
-    <row r="907" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="20"/>
       <c r="D907" s="22"/>
       <c r="F907" s="6"/>
     </row>
-    <row r="908" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="20"/>
       <c r="D908" s="22"/>
       <c r="F908" s="6"/>
     </row>
-    <row r="909" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="20"/>
       <c r="D909" s="22"/>
       <c r="F909" s="6"/>
     </row>
-    <row r="910" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="20"/>
       <c r="D910" s="22"/>
       <c r="F910" s="6"/>
     </row>
-    <row r="911" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="20"/>
       <c r="D911" s="22"/>
       <c r="F911" s="6"/>
     </row>
-    <row r="912" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="20"/>
       <c r="D912" s="22"/>
       <c r="F912" s="6"/>
     </row>
-    <row r="913" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="20"/>
       <c r="D913" s="22"/>
       <c r="F913" s="6"/>
     </row>
-    <row r="914" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="20"/>
       <c r="D914" s="22"/>
       <c r="F914" s="6"/>
     </row>
-    <row r="915" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="20"/>
       <c r="D915" s="22"/>
       <c r="F915" s="6"/>
     </row>
-    <row r="916" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="20"/>
       <c r="D916" s="22"/>
       <c r="F916" s="6"/>
     </row>
-    <row r="917" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="20"/>
       <c r="D917" s="22"/>
       <c r="F917" s="6"/>
     </row>
-    <row r="918" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="20"/>
       <c r="D918" s="22"/>
       <c r="F918" s="6"/>
     </row>
-    <row r="919" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="20"/>
       <c r="D919" s="22"/>
       <c r="F919" s="6"/>
     </row>
-    <row r="920" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="20"/>
       <c r="D920" s="22"/>
       <c r="F920" s="6"/>
     </row>
-    <row r="921" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="20"/>
       <c r="D921" s="22"/>
       <c r="F921" s="6"/>
     </row>
-    <row r="922" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="20"/>
       <c r="D922" s="22"/>
       <c r="F922" s="6"/>
     </row>
-    <row r="923" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="20"/>
       <c r="D923" s="22"/>
       <c r="F923" s="6"/>
     </row>
-    <row r="924" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="20"/>
       <c r="D924" s="22"/>
       <c r="F924" s="6"/>
     </row>
-    <row r="925" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="20"/>
       <c r="D925" s="22"/>
       <c r="F925" s="6"/>
     </row>
-    <row r="926" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="20"/>
       <c r="D926" s="22"/>
       <c r="F926" s="6"/>
     </row>
-    <row r="927" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="20"/>
       <c r="D927" s="22"/>
       <c r="F927" s="6"/>
     </row>
-    <row r="928" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="20"/>
       <c r="D928" s="22"/>
       <c r="F928" s="6"/>
     </row>
-    <row r="929" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="20"/>
       <c r="D929" s="22"/>
       <c r="F929" s="6"/>
     </row>
-    <row r="930" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="20"/>
       <c r="D930" s="22"/>
       <c r="F930" s="6"/>
     </row>
-    <row r="931" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="20"/>
       <c r="D931" s="22"/>
       <c r="F931" s="6"/>
     </row>
-    <row r="932" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="20"/>
       <c r="D932" s="22"/>
       <c r="F932" s="6"/>
     </row>
-    <row r="933" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="20"/>
       <c r="D933" s="22"/>
       <c r="F933" s="6"/>
     </row>
-    <row r="934" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="20"/>
       <c r="D934" s="22"/>
       <c r="F934" s="6"/>
     </row>
-    <row r="935" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="20"/>
       <c r="D935" s="22"/>
       <c r="F935" s="6"/>
     </row>
-    <row r="936" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="20"/>
       <c r="D936" s="22"/>
       <c r="F936" s="6"/>
     </row>
-    <row r="937" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="20"/>
       <c r="D937" s="22"/>
       <c r="F937" s="6"/>
     </row>
-    <row r="938" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="20"/>
       <c r="D938" s="22"/>
       <c r="F938" s="6"/>
     </row>
-    <row r="939" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="20"/>
       <c r="D939" s="22"/>
       <c r="F939" s="6"/>
     </row>
-    <row r="940" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="20"/>
       <c r="D940" s="22"/>
       <c r="F940" s="6"/>
     </row>
-    <row r="941" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="20"/>
       <c r="D941" s="22"/>
       <c r="F941" s="6"/>
     </row>
-    <row r="942" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="20"/>
       <c r="D942" s="22"/>
       <c r="F942" s="6"/>
     </row>
-    <row r="943" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="20"/>
       <c r="D943" s="22"/>
       <c r="F943" s="6"/>
     </row>
-    <row r="944" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="20"/>
       <c r="D944" s="22"/>
       <c r="F944" s="6"/>
     </row>
-    <row r="945" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="20"/>
       <c r="D945" s="22"/>
       <c r="F945" s="6"/>
     </row>
-    <row r="946" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="20"/>
       <c r="D946" s="22"/>
       <c r="F946" s="6"/>
     </row>
-    <row r="947" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="20"/>
       <c r="D947" s="22"/>
       <c r="F947" s="6"/>
     </row>
-    <row r="948" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="20"/>
       <c r="D948" s="22"/>
       <c r="F948" s="6"/>
     </row>
-    <row r="949" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="20"/>
       <c r="D949" s="22"/>
       <c r="F949" s="6"/>
     </row>
-    <row r="950" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A950" s="20"/>
       <c r="D950" s="22"/>
       <c r="F950" s="6"/>
     </row>
-    <row r="951" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="20"/>
       <c r="D951" s="22"/>
       <c r="F951" s="6"/>
     </row>
-    <row r="952" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="20"/>
       <c r="D952" s="22"/>
       <c r="F952" s="6"/>
     </row>
-    <row r="953" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="20"/>
       <c r="D953" s="22"/>
       <c r="F953" s="6"/>
     </row>
-    <row r="954" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="20"/>
       <c r="D954" s="22"/>
       <c r="F954" s="6"/>
     </row>
-    <row r="955" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="20"/>
       <c r="D955" s="22"/>
       <c r="F955" s="6"/>
     </row>
-    <row r="956" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="20"/>
       <c r="D956" s="22"/>
       <c r="F956" s="6"/>
     </row>
-    <row r="957" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="20"/>
       <c r="D957" s="22"/>
       <c r="F957" s="6"/>
     </row>
-    <row r="958" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="20"/>
       <c r="D958" s="22"/>
       <c r="F958" s="6"/>
     </row>
-    <row r="959" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A959" s="20"/>
       <c r="D959" s="22"/>
       <c r="F959" s="6"/>
     </row>
-    <row r="960" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="20"/>
       <c r="D960" s="22"/>
       <c r="F960" s="6"/>
     </row>
-    <row r="961" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="20"/>
       <c r="D961" s="22"/>
       <c r="F961" s="6"/>
     </row>
-    <row r="962" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="20"/>
       <c r="D962" s="22"/>
       <c r="F962" s="6"/>
     </row>
-    <row r="963" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="20"/>
       <c r="D963" s="22"/>
       <c r="F963" s="6"/>
     </row>
-    <row r="964" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="20"/>
       <c r="D964" s="22"/>
       <c r="F964" s="6"/>
     </row>
-    <row r="965" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="20"/>
       <c r="D965" s="22"/>
       <c r="F965" s="6"/>
     </row>
-    <row r="966" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A966" s="20"/>
       <c r="D966" s="22"/>
       <c r="F966" s="6"/>
     </row>
-    <row r="967" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="20"/>
       <c r="D967" s="22"/>
       <c r="F967" s="6"/>
     </row>
-    <row r="968" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="20"/>
       <c r="D968" s="22"/>
       <c r="F968" s="6"/>
     </row>
-    <row r="969" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="20"/>
       <c r="D969" s="22"/>
       <c r="F969" s="6"/>
     </row>
-    <row r="970" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="20"/>
       <c r="D970" s="22"/>
       <c r="F970" s="6"/>
     </row>
-    <row r="971" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="20"/>
       <c r="D971" s="22"/>
       <c r="F971" s="6"/>
     </row>
-    <row r="972" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="20"/>
       <c r="D972" s="22"/>
       <c r="F972" s="6"/>
     </row>
-    <row r="973" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="20"/>
       <c r="D973" s="22"/>
       <c r="F973" s="6"/>
     </row>
-    <row r="974" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="20"/>
       <c r="D974" s="22"/>
       <c r="F974" s="6"/>
     </row>
-    <row r="975" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="20"/>
       <c r="D975" s="22"/>
       <c r="F975" s="6"/>
     </row>
-    <row r="976" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="20"/>
       <c r="D976" s="22"/>
       <c r="F976" s="6"/>
     </row>
-    <row r="977" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="20"/>
       <c r="D977" s="22"/>
       <c r="F977" s="6"/>
     </row>
-    <row r="978" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="20"/>
       <c r="D978" s="22"/>
       <c r="F978" s="6"/>
     </row>
-    <row r="979" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="20"/>
       <c r="D979" s="22"/>
       <c r="F979" s="6"/>
     </row>
-    <row r="980" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="20"/>
       <c r="D980" s="22"/>
       <c r="F980" s="6"/>
     </row>
-    <row r="981" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A981" s="20"/>
       <c r="D981" s="22"/>
       <c r="F981" s="6"/>
     </row>
-    <row r="982" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A982" s="20"/>
       <c r="D982" s="22"/>
       <c r="F982" s="6"/>
     </row>
-    <row r="983" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A983" s="20"/>
       <c r="D983" s="22"/>
       <c r="F983" s="6"/>
     </row>
-    <row r="984" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A984" s="20"/>
       <c r="D984" s="22"/>
       <c r="F984" s="6"/>
     </row>
-    <row r="985" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A985" s="20"/>
       <c r="D985" s="22"/>
       <c r="F985" s="6"/>
     </row>
-    <row r="986" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A986" s="20"/>
       <c r="D986" s="22"/>
       <c r="F986" s="6"/>
     </row>
-    <row r="987" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A987" s="20"/>
       <c r="D987" s="22"/>
       <c r="F987" s="6"/>
     </row>
-    <row r="988" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A988" s="20"/>
       <c r="D988" s="22"/>
       <c r="F988" s="6"/>
     </row>
-    <row r="989" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A989" s="20"/>
       <c r="D989" s="22"/>
       <c r="F989" s="6"/>
     </row>
-    <row r="990" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A990" s="20"/>
       <c r="D990" s="22"/>
       <c r="F990" s="6"/>
     </row>
-    <row r="991" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A991" s="20"/>
       <c r="D991" s="22"/>
       <c r="F991" s="6"/>
     </row>
-    <row r="992" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A992" s="20"/>
       <c r="D992" s="22"/>
       <c r="F992" s="6"/>
     </row>
-    <row r="993" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A993" s="20"/>
       <c r="D993" s="22"/>
       <c r="F993" s="6"/>
     </row>
-    <row r="994" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A994" s="20"/>
       <c r="D994" s="22"/>
       <c r="F994" s="6"/>
     </row>
-    <row r="995" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A995" s="20"/>
       <c r="D995" s="22"/>
       <c r="F995" s="6"/>
     </row>
-    <row r="996" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A996" s="20"/>
       <c r="D996" s="22"/>
       <c r="F996" s="6"/>
     </row>
-    <row r="997" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A997" s="20"/>
       <c r="D997" s="22"/>
       <c r="F997" s="6"/>
     </row>
-    <row r="998" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A998" s="20"/>
       <c r="D998" s="22"/>
       <c r="F998" s="6"/>
     </row>
-    <row r="999" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A999" s="20"/>
       <c r="D999" s="22"/>
       <c r="F999" s="6"/>
     </row>
-    <row r="1000" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="20"/>
       <c r="D1000" s="22"/>
       <c r="F1000" s="6"/>
     </row>
-    <row r="1001" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1001" s="20"/>
       <c r="D1001" s="22"/>
       <c r="F1001" s="6"/>
     </row>
-    <row r="1002" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1002" s="20"/>
       <c r="D1002" s="22"/>
       <c r="F1002" s="6"/>
     </row>
-    <row r="1003" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1003" s="20"/>
       <c r="D1003" s="22"/>
       <c r="F1003" s="6"/>
     </row>
-    <row r="1004" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1004" s="20"/>
       <c r="D1004" s="22"/>
       <c r="F1004" s="6"/>
     </row>
-    <row r="1005" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1005" s="20"/>
       <c r="D1005" s="22"/>
       <c r="F1005" s="6"/>
     </row>
-    <row r="1006" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1006" s="20"/>
       <c r="D1006" s="22"/>
       <c r="F1006" s="6"/>
     </row>
-    <row r="1007" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1007" s="20"/>
       <c r="D1007" s="22"/>
       <c r="F1007" s="6"/>
     </row>
-    <row r="1008" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1008" s="20"/>
       <c r="D1008" s="22"/>
       <c r="F1008" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
     <mergeCell ref="AJ4:AP4"/>
     <mergeCell ref="AQ4:AW4"/>
     <mergeCell ref="D3:E3"/>
@@ -12841,6 +12836,11 @@
     <mergeCell ref="O4:U4"/>
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:M8 N5:Q7 R5:S8 T5:U6 V5:Z8 AA5:AB6 AC5:AG8 AH5:AI6 AJ5:AN8 AO5:AP6 AQ5:AU8 AV5:AW6 AX5:BB8 BC5:BD6 BE5:BI8 BJ5:BK6 BL5:BP8 BQ5:BR6 BS5:BW8 BX5:BX6 BZ6:CD8 CE6 H65:BX65 BZ65:CE65">
     <cfRule type="expression" dxfId="40" priority="25">
